--- a/単語3000.xlsx
+++ b/単語3000.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Developer\Github\japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65374CF5-AA66-44D5-9F1D-AE31EB8DB3FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14040"/>
+    <workbookView xWindow="15984" yWindow="2304" windowWidth="9360" windowHeight="13560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="759">
   <si>
     <t>足掛かり</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -578,10 +579,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>りすとら</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>いかなる</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -874,10 +871,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>うち／うっち</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>拉致</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1218,10 +1211,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>値ごろ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ねごろ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1690,10 +1679,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>でも</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>忍ぶ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2555,14 +2540,531 @@
   </si>
   <si>
     <t>heel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>うんざり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>思春期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ししゅんき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>センス</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こらえる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>堪える</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脚色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きゃくしょく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>つら</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ともあれ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>念願</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ねんがん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不潔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ふけつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清潔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>せいけつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>見習う</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>みならう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幽霊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ゆうれい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>オーダーメイド</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order made</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>値する</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あたいする</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あたい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>値</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品薄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しなうす</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>訴訟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そしょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>訴える</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>うったえる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何気ない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>なにげない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反撃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はんげき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弁償</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>べんしょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瞬く</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>またたく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>まばたぅ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>メリット</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>merit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>デメリット</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>demerit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>りょうかい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>領海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今しも</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いましも</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>たった今</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>たったいま</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会計</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かいけい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出場</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しゅつじょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欠場</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>けつじょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尊ぶ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>とうとぶ／たっとぶ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七光り</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ななひかり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>バッテリー</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>battery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>バッテリーカー</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>battery car</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぼうっと</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無効</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>むこう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有効</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ゆうこう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朗報</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ろうほう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>悲報</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ひほう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>覚束ない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おぼつかない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>頼りない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>たよりない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>インターチェンジ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interchange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>献立</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こんだて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>メニュー</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かなう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敵う</t>
+  </si>
+  <si>
+    <t>匹敵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ひってき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正規</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>せいき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提携</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ていけい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>どんより</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ノウハウ／ノーハウ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>know-how</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表彰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ひょうしょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぼそぼそ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名簿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>めいぼ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>演技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>えんぎ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寛ぐ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>くつろぐ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さほう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正味</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しょうみ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>賞味</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>悉く</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ことごとく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出来物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>できもの</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>犯行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はんこう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潔い</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いさぎよい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>過敏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かびん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>アレルギー</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Allergie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>志（こころざし）は木（き）の葉（は）に包（つつ）む。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼轻情意重。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>restructuring</t>
+  </si>
+  <si>
+    <t>demonstration</t>
+  </si>
+  <si>
+    <t>らち／らっち</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>値頃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2581,6 +3083,20 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF3A3A3A"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3A3A3A"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -2608,14 +3124,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2897,21 +3416,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B323"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B390"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A299" workbookViewId="0">
-      <selection activeCell="B323" sqref="B323"/>
+    <sheetView tabSelected="1" topLeftCell="A137" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A152" sqref="A152"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="25.625" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="23.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2919,7 +3438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2927,7 +3446,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2935,7 +3454,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -2943,7 +3462,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -2951,7 +3470,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -2959,7 +3478,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -2967,7 +3486,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -2975,7 +3494,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -2983,7 +3502,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -2991,7 +3510,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -2999,7 +3518,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -3007,7 +3526,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -3015,7 +3534,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -3023,7 +3542,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -3031,7 +3550,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
@@ -3039,7 +3558,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
@@ -3047,7 +3566,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>33</v>
       </c>
@@ -3055,7 +3574,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>35</v>
       </c>
@@ -3063,7 +3582,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>37</v>
       </c>
@@ -3071,7 +3590,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>39</v>
       </c>
@@ -3079,7 +3598,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>41</v>
       </c>
@@ -3087,7 +3606,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>43</v>
       </c>
@@ -3095,7 +3614,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>45</v>
       </c>
@@ -3103,7 +3622,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>47</v>
       </c>
@@ -3111,7 +3630,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>49</v>
       </c>
@@ -3119,7 +3638,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>51</v>
       </c>
@@ -3127,7 +3646,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>53</v>
       </c>
@@ -3135,7 +3654,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>55</v>
       </c>
@@ -3143,7 +3662,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>57</v>
       </c>
@@ -3151,7 +3670,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>59</v>
       </c>
@@ -3159,7 +3678,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>61</v>
       </c>
@@ -3167,7 +3686,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>63</v>
       </c>
@@ -3175,7 +3694,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>65</v>
       </c>
@@ -3183,7 +3702,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>67</v>
       </c>
@@ -3191,7 +3710,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>69</v>
       </c>
@@ -3199,7 +3718,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>71</v>
       </c>
@@ -3207,7 +3726,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>73</v>
       </c>
@@ -3215,7 +3734,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>74</v>
       </c>
@@ -3223,7 +3742,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>76</v>
       </c>
@@ -3231,7 +3750,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>78</v>
       </c>
@@ -3239,7 +3758,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>80</v>
       </c>
@@ -3247,7 +3766,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>82</v>
       </c>
@@ -3255,7 +3774,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>84</v>
       </c>
@@ -3263,7 +3782,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>86</v>
       </c>
@@ -3271,7 +3790,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>88</v>
       </c>
@@ -3279,7 +3798,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>90</v>
       </c>
@@ -3287,7 +3806,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>92</v>
       </c>
@@ -3295,7 +3814,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>94</v>
       </c>
@@ -3303,7 +3822,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>95</v>
       </c>
@@ -3311,7 +3830,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>97</v>
       </c>
@@ -3319,7 +3838,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>99</v>
       </c>
@@ -3327,7 +3846,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>101</v>
       </c>
@@ -3335,7 +3854,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>103</v>
       </c>
@@ -3343,7 +3862,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>105</v>
       </c>
@@ -3351,7 +3870,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>107</v>
       </c>
@@ -3359,7 +3878,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>109</v>
       </c>
@@ -3367,7 +3886,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>111</v>
       </c>
@@ -3375,7 +3894,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>113</v>
       </c>
@@ -3383,7 +3902,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>115</v>
       </c>
@@ -3391,7 +3910,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>117</v>
       </c>
@@ -3399,7 +3918,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>119</v>
       </c>
@@ -3407,7 +3926,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>121</v>
       </c>
@@ -3415,7 +3934,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>123</v>
       </c>
@@ -3423,7 +3942,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>125</v>
       </c>
@@ -3431,7 +3950,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>127</v>
       </c>
@@ -3439,7 +3958,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>129</v>
       </c>
@@ -3447,7 +3966,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>131</v>
       </c>
@@ -3455,7 +3974,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>133</v>
       </c>
@@ -3463,7 +3982,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>135</v>
       </c>
@@ -3471,2012 +3990,2548 @@
         <v>136</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" s="3" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
+      <c r="B72" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
+      <c r="B73" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B73" s="1" t="s">
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
+      <c r="B74" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B74" s="1" t="s">
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A75" s="1" t="s">
+      <c r="B75" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B75" s="1" t="s">
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A76" s="1" t="s">
+      <c r="B76" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B76" s="1" t="s">
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A77" s="1" t="s">
+      <c r="B77" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B77" s="1" t="s">
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
+      <c r="B78" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B78" s="1" t="s">
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A79" s="1" t="s">
+      <c r="B79" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B79" s="1" t="s">
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A80" s="1" t="s">
+      <c r="B80" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B80" s="1" t="s">
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A81" s="1" t="s">
+      <c r="B81" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B81" s="1" t="s">
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A82" s="1" t="s">
+      <c r="B82" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B82" s="1" t="s">
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A83" s="1" t="s">
+      <c r="B83" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B83" s="1" t="s">
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A84" s="1" t="s">
+      <c r="B84" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B84" s="1" t="s">
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A85" s="1" t="s">
+      <c r="B85" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B85" s="1" t="s">
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A86" s="1" t="s">
+      <c r="B86" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B86" s="1" t="s">
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A87" s="1" t="s">
+      <c r="B87" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B87" s="1" t="s">
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A88" s="1" t="s">
+      <c r="B88" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B88" s="1" t="s">
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A89" s="1" t="s">
+      <c r="B89" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B89" s="1" t="s">
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A90" s="1" t="s">
+      <c r="B90" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B90" s="1" t="s">
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A91" s="1" t="s">
+      <c r="B91" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B91" s="1" t="s">
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A92" s="1" t="s">
+      <c r="B92" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B92" s="1" t="s">
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A93" s="1" t="s">
+      <c r="B93" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B93" s="1" t="s">
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A94" s="1" t="s">
+      <c r="B94" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B94" s="1" t="s">
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A95" s="1" t="s">
+      <c r="B95" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B95" s="1" t="s">
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A96" s="1" t="s">
+      <c r="B96" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B96" s="1" t="s">
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A97" s="1" t="s">
+      <c r="B97" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B97" s="1" t="s">
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
+      <c r="B98" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B98" s="1" t="s">
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A99" s="1" t="s">
+      <c r="B99" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B99" s="1" t="s">
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A100" s="1" t="s">
+      <c r="B100" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B100" s="1" t="s">
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A101" s="1" t="s">
+      <c r="B101" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B101" s="1" t="s">
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A102" s="1" t="s">
+      <c r="B102" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B102" s="1" t="s">
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A103" s="1" t="s">
+      <c r="B103" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B103" s="1" t="s">
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A104" s="1" t="s">
+      <c r="B104" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B104" s="1" t="s">
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A105" s="1" t="s">
+      <c r="B105" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B105" s="1" t="s">
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A106" s="1" t="s">
+      <c r="B106" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B106" s="1" t="s">
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A107" s="1" t="s">
+      <c r="B107" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B107" s="1" t="s">
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B108" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A108" s="1" t="s">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B108" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A109" s="1" t="s">
+      <c r="B109" s="1" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B110" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B109" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A110" s="1" t="s">
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B111" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A111" s="1" t="s">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B112" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A112" s="1" t="s">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B113" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A113" s="1" t="s">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B114" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A114" s="1" t="s">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="B115" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A115" s="1" t="s">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="B116" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A116" s="1" t="s">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="B117" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A117" s="1" t="s">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="B118" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A118" s="1" t="s">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="B119" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A119" s="1" t="s">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="B120" s="1" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A120" s="1" t="s">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="B121" s="1" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A121" s="1" t="s">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="B122" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A122" s="1" t="s">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="B123" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A123" s="1" t="s">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="B124" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A124" s="1" t="s">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="B125" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A125" s="1" t="s">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="B126" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A126" s="1" t="s">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="B127" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A127" s="1" t="s">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="B128" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A128" s="1" t="s">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="B129" s="1" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A129" s="1" t="s">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="B130" s="1" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A130" s="1" t="s">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B130" s="1" t="s">
+      <c r="B131" s="1" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A131" s="1" t="s">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="B132" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A132" s="1" t="s">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B132" s="1" t="s">
+      <c r="B133" s="1" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A133" s="1" t="s">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B133" s="1" t="s">
+      <c r="B134" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A134" s="1" t="s">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B134" s="1" t="s">
+      <c r="B135" s="1" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A135" s="1" t="s">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B135" s="1" t="s">
+      <c r="B136" s="1" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A136" s="1" t="s">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B136" s="1" t="s">
+      <c r="B137" s="1" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A137" s="1" t="s">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B137" s="1" t="s">
+      <c r="B138" s="1" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A138" s="1" t="s">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B138" s="1" t="s">
+      <c r="B139" s="1" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A139" s="1" t="s">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B139" s="1" t="s">
+      <c r="B140" s="1" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A140" s="1" t="s">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="B141" s="1" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A141" s="1" t="s">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B141" s="1" t="s">
+      <c r="B142" s="1" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A142" s="1" t="s">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B142" s="1" t="s">
+      <c r="B143" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A143" s="1" t="s">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B143" s="1" t="s">
+      <c r="B144" s="1" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A144" s="1" t="s">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="B144" s="1" t="s">
+      <c r="B145" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A145" s="1" t="s">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="B145" s="1" t="s">
+      <c r="B146" s="1" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A146" s="1" t="s">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="B146" s="1" t="s">
+      <c r="B147" s="1" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A147" s="1" t="s">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B147" s="1" t="s">
+      <c r="B148" s="1" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A148" s="1" t="s">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B148" s="1" t="s">
+      <c r="B149" s="1" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A149" s="1" t="s">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B149" s="1" t="s">
+      <c r="B150" s="1" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="150" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A150" s="1" t="s">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B150" s="1" t="s">
+      <c r="B151" s="1" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A151" s="1" t="s">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="B152" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B151" s="1" t="s">
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A152" s="1" t="s">
+      <c r="B153" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B152" s="1" t="s">
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A153" s="1" t="s">
+      <c r="B154" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="B153" s="1" t="s">
+      <c r="B155" s="1" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="154" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A154" s="1" t="s">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="B154" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A155" s="1" t="s">
+      <c r="B156" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B155" s="1" t="s">
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A156" s="1" t="s">
+      <c r="B157" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B156" s="1" t="s">
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A157" s="1" t="s">
+      <c r="B158" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="B157" s="1" t="s">
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A158" s="1" t="s">
+      <c r="B159" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="B158" s="1" t="s">
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A159" s="1" t="s">
+      <c r="B160" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B159" s="1" t="s">
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A160" s="1" t="s">
+      <c r="B161" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="B160" s="1" t="s">
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A161" s="1" t="s">
+      <c r="B162" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="B161" s="1" t="s">
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A162" s="1" t="s">
+      <c r="B163" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="B162" s="1" t="s">
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A163" s="1" t="s">
+      <c r="B164" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="B163" s="1" t="s">
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A164" s="1" t="s">
+      <c r="B165" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="B164" s="1" t="s">
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A165" s="1" t="s">
+      <c r="B166" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="B165" s="1" t="s">
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A166" s="1" t="s">
+      <c r="B167" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="B166" s="1" t="s">
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A167" s="1" t="s">
+      <c r="B168" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="B167" s="1" t="s">
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A168" s="1" t="s">
+      <c r="B169" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="B168" s="1" t="s">
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A169" s="1" t="s">
+      <c r="B170" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B169" s="1" t="s">
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A170" s="1" t="s">
+      <c r="B171" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="B170" s="1" t="s">
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A171" s="1" t="s">
+      <c r="B172" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="B171" s="1" t="s">
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A172" s="1" t="s">
+      <c r="B173" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="B172" s="1" t="s">
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A173" s="1" t="s">
+      <c r="B174" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="B173" s="1" t="s">
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A174" s="1" t="s">
+      <c r="B175" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="B174" s="1" t="s">
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A175" s="1" t="s">
+      <c r="B176" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="B175" s="1" t="s">
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A176" s="1" t="s">
+      <c r="B177" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="B176" s="1" t="s">
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A177" s="1" t="s">
+      <c r="B178" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="B177" s="1" t="s">
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A178" s="1" t="s">
+      <c r="B179" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="B178" s="1" t="s">
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A179" s="1" t="s">
+      <c r="B180" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="B179" s="1" t="s">
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A180" s="1" t="s">
+      <c r="B181" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="B180" s="1" t="s">
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A181" s="1" t="s">
+      <c r="B182" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="B181" s="1" t="s">
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A182" s="1" t="s">
+      <c r="B183" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="B182" s="1" t="s">
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A183" s="1" t="s">
+      <c r="B184" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="B183" s="1" t="s">
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A184" s="1" t="s">
+      <c r="B185" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="B184" s="1" t="s">
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A185" s="1" t="s">
+      <c r="B186" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="B185" s="1" t="s">
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A186" s="1" t="s">
+      <c r="B187" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="B186" s="1" t="s">
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A187" s="1" t="s">
+      <c r="B190" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="B187" s="1" t="s">
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A190" s="1" t="s">
+      <c r="B191" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="B190" s="1" t="s">
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A191" s="1" t="s">
+      <c r="B192" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="B191" s="1" t="s">
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="192" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A192" s="1" t="s">
+      <c r="B193" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="B192" s="1" t="s">
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A193" s="1" t="s">
+      <c r="B194" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="B193" s="1" t="s">
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A194" s="1" t="s">
+      <c r="B195" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="B194" s="1" t="s">
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A195" s="1" t="s">
+      <c r="B196" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="B195" s="1" t="s">
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="196" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A196" s="1" t="s">
+      <c r="B197" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="B196" s="1" t="s">
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="197" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A197" s="1" t="s">
+      <c r="B198" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="B197" s="1" t="s">
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A198" s="1" t="s">
+      <c r="B199" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="B198" s="1" t="s">
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="199" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A199" s="1" t="s">
+      <c r="B200" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="B199" s="1" t="s">
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A200" s="1" t="s">
+      <c r="B201" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="B200" s="1" t="s">
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="201" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A201" s="1" t="s">
+      <c r="B202" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="B201" s="1" t="s">
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="202" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A202" s="1" t="s">
+      <c r="B203" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="B202" s="1" t="s">
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="203" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A203" s="1" t="s">
+      <c r="B204" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="B203" s="1" t="s">
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="204" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A204" s="1" t="s">
+      <c r="B205" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="B204" s="1" t="s">
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="205" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A205" s="1" t="s">
+      <c r="B206" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="B205" s="1" t="s">
+      <c r="B207" s="1" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="206" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A206" s="1" t="s">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="B206" s="1" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A207" s="1" t="s">
+      <c r="B208" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="B207" s="1" t="s">
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="208" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A208" s="1" t="s">
+      <c r="B209" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="B208" s="1" t="s">
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="209" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A209" s="1" t="s">
+      <c r="B210" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="B209" s="1" t="s">
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="210" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A210" s="1" t="s">
+      <c r="B211" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="B210" s="1" t="s">
+      <c r="B212" s="1" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="211" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A211" s="1" t="s">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="B211" s="1" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A212" s="1" t="s">
+      <c r="B213" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="B212" s="1" t="s">
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="213" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A213" s="1" t="s">
+      <c r="B214" s="1" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="B213" s="1" t="s">
+      <c r="B215" s="1" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="214" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A214" s="1" t="s">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="B214" s="1" t="s">
+      <c r="B216" s="1" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="215" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A215" s="1" t="s">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="B215" s="1" t="s">
+      <c r="B217" s="1" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="216" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A216" s="1" t="s">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="B216" s="1" t="s">
+      <c r="B218" s="1" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="217" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A217" s="1" t="s">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="B217" s="1" t="s">
+      <c r="B219" s="1" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="218" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A218" s="1" t="s">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B218" s="1" t="s">
+      <c r="B220" s="1" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="219" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A219" s="1" t="s">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="B219" s="1" t="s">
+      <c r="B221" s="1" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="220" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A220" s="1" t="s">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="B220" s="1" t="s">
+      <c r="B222" s="1" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="221" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A221" s="1" t="s">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="B221" s="1" t="s">
+      <c r="B223" s="1" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="222" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A222" s="1" t="s">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="B222" s="1" t="s">
+      <c r="B224" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="223" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A223" s="1" t="s">
+      <c r="B225" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="B223" s="1" t="s">
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="224" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A224" s="1" t="s">
+      <c r="B226" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="B224" s="1" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A225" s="1" t="s">
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="B225" s="1" t="s">
+      <c r="B227" s="1" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="226" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A226" s="1" t="s">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="B226" s="1" t="s">
+      <c r="B228" s="1" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="227" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A227" s="1" t="s">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="B227" s="1" t="s">
+      <c r="B229" s="1" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="228" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A228" s="1" t="s">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="B228" s="1" t="s">
+      <c r="B230" s="1" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="229" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A229" s="1" t="s">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="B229" s="1" t="s">
+      <c r="B231" s="1" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="230" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A230" s="1" t="s">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="B230" s="1" t="s">
+      <c r="B232" s="1" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="231" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A231" s="1" t="s">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="B231" s="1" t="s">
+      <c r="B233" s="1" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="232" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A232" s="1" t="s">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="B232" s="1" t="s">
+      <c r="B234" s="1" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="233" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A233" s="1" t="s">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="B233" s="1" t="s">
+      <c r="B235" s="1" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="234" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A234" s="1" t="s">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="B234" s="1" t="s">
+      <c r="B236" s="1" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="235" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A235" s="1" t="s">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="B235" s="1" t="s">
+      <c r="B237" s="1" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="236" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A236" s="1" t="s">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="B236" s="1" t="s">
+      <c r="B238" s="1" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="237" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A237" s="1" t="s">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="B237" s="1" t="s">
+      <c r="B239" s="1" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="238" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A238" s="1" t="s">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="B238" s="1" t="s">
+      <c r="B240" s="1" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="239" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A239" s="1" t="s">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="B239" s="1" t="s">
+      <c r="B241" s="1" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="240" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A240" s="1" t="s">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="B240" s="1" t="s">
+      <c r="B242" s="1" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="241" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A241" s="1" t="s">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="B241" s="1" t="s">
+      <c r="B243" s="1" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="242" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A242" s="1" t="s">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="B242" s="1" t="s">
+      <c r="B244" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" s="1" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="243" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A243" s="1" t="s">
+      <c r="B245" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="B243" s="1" t="s">
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" s="1" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="244" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A244" s="1" t="s">
+      <c r="B246" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="B244" s="1" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A245" s="1" t="s">
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="B245" s="1" t="s">
+      <c r="B247" s="1" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="246" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A246" s="1" t="s">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="B246" s="1" t="s">
+      <c r="B248" s="1" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="247" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A247" s="1" t="s">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="B247" s="1" t="s">
+      <c r="B249" s="1" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="248" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A248" s="1" t="s">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="B248" s="1" t="s">
+      <c r="B250" s="1" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="249" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A249" s="1" t="s">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="B249" s="1" t="s">
+      <c r="B251" s="1" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="250" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A250" s="1" t="s">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="B250" s="1" t="s">
+      <c r="B252" s="1" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="251" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A251" s="1" t="s">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="B251" s="1" t="s">
+      <c r="B253" s="1" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="252" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A252" s="1" t="s">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="B252" s="1" t="s">
+      <c r="B254" s="1" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="253" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A253" s="1" t="s">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="B253" s="1" t="s">
+      <c r="B255" s="1" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="254" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A254" s="1" t="s">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="B254" s="1" t="s">
+      <c r="B256" s="1" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="255" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A255" s="1" t="s">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="B255" s="1" t="s">
+      <c r="B257" s="1" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="256" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A256" s="1" t="s">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="B256" s="1" t="s">
+      <c r="B258" s="1" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="257" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A257" s="1" t="s">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="B257" s="1" t="s">
+      <c r="B259" s="1" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="258" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A258" s="1" t="s">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="B258" s="1" t="s">
+      <c r="B260" s="1" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="259" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A259" s="1" t="s">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="B259" s="1" t="s">
+      <c r="B261" s="1" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="260" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A260" s="1" t="s">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="B260" s="1" t="s">
+      <c r="B262" s="1" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="261" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A261" s="1" t="s">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="B261" s="1" t="s">
+      <c r="B263" s="1" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="262" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A262" s="1" t="s">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="B262" s="1" t="s">
+      <c r="B264" s="1" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="263" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A263" s="1" t="s">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="B263" s="1" t="s">
+      <c r="B265" s="1" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="264" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A264" s="1" t="s">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="B264" s="1" t="s">
+      <c r="B266" s="1" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="265" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A265" s="1" t="s">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="B265" s="1" t="s">
+      <c r="B267" s="1" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="266" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A266" s="1" t="s">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="B266" s="1" t="s">
+      <c r="B268" s="1" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="267" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A267" s="1" t="s">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="B267" s="1" t="s">
+      <c r="B269" s="1" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="268" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A268" s="1" t="s">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="B268" s="1" t="s">
+      <c r="B270" s="1" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="269" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A269" s="1" t="s">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="B269" s="1" t="s">
+      <c r="B271" s="1" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="270" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A270" s="1" t="s">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="B270" s="1" t="s">
+      <c r="B272" s="1" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="271" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A271" s="1" t="s">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="B271" s="1" t="s">
+      <c r="B273" s="1" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="272" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A272" s="1" t="s">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="B272" s="1" t="s">
+      <c r="B274" s="1" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="273" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A273" s="1" t="s">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="B273" s="1" t="s">
+      <c r="B275" s="1" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="274" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A274" s="1" t="s">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="B274" s="1" t="s">
+      <c r="B276" s="1" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="275" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A275" s="1" t="s">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="B275" s="1" t="s">
+      <c r="B277" s="1" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="276" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A276" s="1" t="s">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="B276" s="1" t="s">
+      <c r="B278" s="1" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="277" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A277" s="1" t="s">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="B277" s="1" t="s">
+      <c r="B279" s="1" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="278" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A278" s="1" t="s">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="B278" s="1" t="s">
+      <c r="B280" s="1" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="279" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A279" s="1" t="s">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="B279" s="1" t="s">
+      <c r="B281" s="1" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="280" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A280" s="1" t="s">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="B280" s="1" t="s">
+      <c r="B282" s="1" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="281" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A281" s="1" t="s">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="B281" s="1" t="s">
+      <c r="B283" s="1" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="282" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A282" s="1" t="s">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="B282" s="1" t="s">
+      <c r="B284" s="1" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="283" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A283" s="1" t="s">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="B283" s="1" t="s">
+      <c r="B285" s="1" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="284" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A284" s="1" t="s">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="B284" s="1" t="s">
+      <c r="B286" s="1" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="285" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A285" s="1" t="s">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="B285" s="1" t="s">
+      <c r="B287" s="1" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="286" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A286" s="1" t="s">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="B286" s="1" t="s">
+      <c r="B288" s="1" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="287" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A287" s="1" t="s">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A289" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="B287" s="1" t="s">
+      <c r="B289" s="1" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="288" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A288" s="1" t="s">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="B288" s="1" t="s">
+      <c r="B290" s="1" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="289" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A289" s="1" t="s">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A291" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="B289" s="1" t="s">
+      <c r="B291" s="1" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="290" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A290" s="1" t="s">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="B290" s="1" t="s">
+      <c r="B292" s="1" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="291" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A291" s="1" t="s">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="B291" s="1" t="s">
+      <c r="B293" s="1" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="292" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A292" s="1" t="s">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A294" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="B292" s="1" t="s">
+      <c r="B294" s="1" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="293" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A293" s="1" t="s">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A295" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="B293" s="1" t="s">
+      <c r="B295" s="1" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="294" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A294" s="1" t="s">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="B294" s="1" t="s">
+      <c r="B296" s="1" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="295" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A295" s="1" t="s">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A297" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="B295" s="1" t="s">
+      <c r="B297" s="1" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="296" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A296" s="1" t="s">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A298" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="B296" s="1" t="s">
+      <c r="B298" s="1" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="297" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A297" s="1" t="s">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A299" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="B297" s="1" t="s">
+      <c r="B299" s="1" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="298" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A298" s="1" t="s">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A300" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="B298" s="1" t="s">
+      <c r="B300" s="1" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="299" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A299" s="1" t="s">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A301" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="B299" s="1" t="s">
+      <c r="B301" s="1" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="300" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A300" s="1" t="s">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A302" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="B300" s="1" t="s">
+      <c r="B302" s="1" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="301" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A301" s="1" t="s">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A303" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="B301" s="1" t="s">
+      <c r="B303" s="1" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="302" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A302" s="1" t="s">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="B302" s="1" t="s">
+      <c r="B304" s="1" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="303" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A303" s="1" t="s">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="B303" s="1" t="s">
+      <c r="B305" s="1" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="304" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A304" s="1" t="s">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A306" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="B304" s="1" t="s">
+      <c r="B306" s="1" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="305" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A305" s="1" t="s">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A307" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="B305" s="1" t="s">
+      <c r="B307" s="1" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="306" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A306" s="1" t="s">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A308" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="B306" s="1" t="s">
+      <c r="B308" s="1" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="307" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A307" s="1" t="s">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A309" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="B307" s="1" t="s">
+      <c r="B309" s="1" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="308" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A308" s="1" t="s">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A310" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="B308" s="1" t="s">
+      <c r="B310" s="1" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="309" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A309" s="1" t="s">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A311" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="B309" s="1" t="s">
+      <c r="B311" s="1" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="310" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A310" s="1" t="s">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A312" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="B310" s="1" t="s">
+      <c r="B312" s="1" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="311" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A311" s="1" t="s">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A313" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B311" s="1" t="s">
+      <c r="B313" s="1" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="312" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A312" s="1" t="s">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A314" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="B312" s="1" t="s">
+      <c r="B314" s="1" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="313" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A313" s="1" t="s">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A315" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="B313" s="1" t="s">
+      <c r="B315" s="1" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="314" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A314" s="1" t="s">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A316" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="B314" s="1" t="s">
+      <c r="B316" s="1" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="315" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A315" s="1" t="s">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A317" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="B315" s="1" t="s">
+      <c r="B317" s="1" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="316" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A316" s="1" t="s">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A318" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="B316" s="1" t="s">
+      <c r="B318" s="1" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="317" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A317" s="1" t="s">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A319" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="B317" s="1" t="s">
+      <c r="B319" s="1" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="318" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A318" s="1" t="s">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A320" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="B318" s="1" t="s">
+      <c r="B320" s="1" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="319" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A319" s="1" t="s">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A321" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="B319" s="1" t="s">
+      <c r="B321" s="1" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="320" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A320" s="1" t="s">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A322" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="B320" s="1" t="s">
+      <c r="B322" s="1" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="321" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A321" s="1" t="s">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A323" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="B321" s="1" t="s">
+      <c r="B323" s="1" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="322" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A322" s="1" t="s">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A324" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="B322" s="1" t="s">
+      <c r="B324" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A325" s="1" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="323" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A323" s="1" t="s">
+      <c r="B325" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="B323" s="1" t="s">
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A326" s="1" t="s">
         <v>632</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A327" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A328" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A329" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A330" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A331" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A332" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A333" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A334" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A335" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A336" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A337" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A338" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A339" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A340" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A341" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A342" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A343" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A344" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A345" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A346" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A347" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A348" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A349" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A350" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A351" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A352" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A353" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A354" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A355" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A356" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A357" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A358" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A359" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A360" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A361" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A362" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A363" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A364" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A365" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="B365" s="1" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A366" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="B366" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A367" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="B367" s="1" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A368" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="B368" s="1" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A369" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A370" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="B370" s="1" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A371" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="B371" s="1" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A372" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="B372" s="1" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A373" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="B373" s="1" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A374" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="B374" s="1" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A375" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="B375" s="1" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A376" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="B376" s="1" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A377" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="B377" s="1" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A378" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="B378" s="1" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A379" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="B379" s="1" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A380" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="B380" s="1" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A381" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="B381" s="1" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A382" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="B382" s="1" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A383" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="B383" s="1" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A384" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="B384" s="1" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A385" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="B385" s="1" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A386" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="B386" s="1" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A387" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="B387" s="1" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A388" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="B388" s="1" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A389" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="B389" s="1" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A390" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="B390" s="1" t="s">
+        <v>754</v>
       </c>
     </row>
   </sheetData>

--- a/単語3000.xlsx
+++ b/単語3000.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Developer\Github\japanese\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Developer\Github\japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65374CF5-AA66-44D5-9F1D-AE31EB8DB3FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15984" yWindow="2304" windowWidth="9360" windowHeight="13560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15990" yWindow="2310" windowWidth="9360" windowHeight="13560"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="759">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1536" uniqueCount="1509">
   <si>
     <t>足掛かり</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3057,13 +3056,3002 @@
   </si>
   <si>
     <t>値頃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穴埋め</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あなうめ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>補填</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ほてん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仮設</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かせつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仮説</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かせつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定める</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さだめる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定まる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さだまる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用心深い</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ようじんぶかい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虐待</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぎゃくたい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仕組む</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しくむ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仕組み</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しくみ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>態勢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>たいせい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ストック</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快い</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こころよい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伝票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>でんぴょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>走行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そうこう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ずるずる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ずるずる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>賢明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>けんめい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>懸命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>けんめい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共働き</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ともばたらき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ともかせぎ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共稼ぎ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おとろえる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衰える</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はかく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水増し</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>みずまし</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老ける</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ふける</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更ける</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ふける</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>メス</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>料金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>りょうきん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今更</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いまさら</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>棄権</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きけん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>危険</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>極楽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ごくらく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地獄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じごく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>据え付ける</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すえつける</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>視覚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しかく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>味覚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>みかく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こうえき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>貿易</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぼうえき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>せめる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻める</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>せめる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>責める</t>
+  </si>
+  <si>
+    <t>アクセル</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accelerator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ブレーキ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brake</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首飾り</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>くびかざり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ネックレス</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>necklace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ダブル</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新興</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しんこう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信仰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>突入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>とつにゅう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妬ましい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ねたましい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>バックアップ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>backup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>復活</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ふっかつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全うする</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>まっとうする</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物好き</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ものずき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>余生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>よせい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怯える</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おびえる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>育成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いくせい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>継承</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>けいしょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷ます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>覚ます／醒ます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ケーブル</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>せんこう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>だらだら</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>だらだら</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>転居</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>てんきょ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じょうい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>即時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そくじ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>即座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そくざ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きょうどう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>協同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きょうどう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如実</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>にょじつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ばらす</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ばらす</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無礼講</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぶれいこう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>むのう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和らげる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>やわらげる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>リスク</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>risk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>運営</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>うんえい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疑わしい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>うたがわしい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪しい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あやしい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亀裂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きれつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>証人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しょうにん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ちょこちょこ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ちょこちょこ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ナイター</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nighter</t>
+  </si>
+  <si>
+    <t>ひったくり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ひったくり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正しく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>まさしく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行く手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ゆくて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>良好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>りょうこ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>居残る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いのこる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>機嫌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きげん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>債務</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さいむ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逞しい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>たくましい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入浴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>にゅうよく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>フォーム</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>form</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丸める</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>まるめる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>予言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>よげん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>足踏み</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あしぶみ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きっかり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きっかり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直訴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じきそ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>調理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ちょうり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引っ掻く</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ひっかく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年鑑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ねんかん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>むごん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ややもすれば</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ややもすれば</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迂回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>うかい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>クエスチョンマーク</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>question mark</t>
+  </si>
+  <si>
+    <t>すく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好く</t>
+  </si>
+  <si>
+    <t>痛感</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>つうかん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熱量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ねつりょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>カロリー</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>calorie</t>
+  </si>
+  <si>
+    <t>ふらふら</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>見通し</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>みとおし</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>りそく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>りし</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拝む</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おがむ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>軽率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>けいそつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精巧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>せいこう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手当たり次第</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>てあたりしだい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>納品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>のうひん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ベース</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>base</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滅茶苦茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>めちゃくちゃ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一抹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いちまつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>試み</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こころみ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添える</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そえる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>報知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ほうち</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朝飯前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あさめしまえ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格上げ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かくあげ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格下げ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かくさげ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>察する</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さっする</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大胆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>だいたん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内乱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ないらん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ばかばかしい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ばかばかしい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>まと</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ユニフォーム</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uniform</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じろじろ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じろじろ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申し分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>もうしぶん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>膨張／膨脹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぼうちょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乗っ取る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>のっとる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>トータル</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装備</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そうび</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>懲りる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こりる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>懲り懲り</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こりごり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>往診</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おうしん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>往々</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おうおう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>意気込み</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いきごみ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>意気込む</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いきごむ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>括る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>くくる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛇足</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>だそく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛇口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じゃぐち</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ツール</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>振るう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ふるう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>締結</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ていけつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>むざい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無罪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有罪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ゆうざい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>やんわり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>やんわり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>両立</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>りょうりつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名誉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>めいよ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隔たる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>へだたる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>へだてる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>へだてる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遠回り</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>とおまわり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>捜査</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そうさ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>媚びる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こびる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>エキストラ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>extra</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>悪人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あくにん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>悪者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>わるもの</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>がっくり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>がっくり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さんにゅう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽選</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ちゅうせん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>くじ引き</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>くじびき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付き纏う</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>つきまとう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>並大抵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>なみたいてい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ビリヤード</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>billiard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉突き</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>たまつき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持て成す</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>もてなす</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ようほう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>類推</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>るいすい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荒らす</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あらす</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>～荒らす</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>～あらす</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かくだん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>細工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さいく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高々</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>たかだか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内陸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ないりく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>バブル</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bubble</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>読み上げる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>よみあげる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瞬き</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>まばたき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瞬く</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>まばたく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持ち切り</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>もちきり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触（さわ）らぬ神（かみ）に祟（たた）り無（な）し。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人不犯我，我不犯人。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苦々しい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>にがにがしい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遅延</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ちえん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指標</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しひょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きっぱり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きっぱり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>萎縮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いしゅく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>くうはく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>訴える</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>うったえる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ストロー</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>straw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>つうろ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>捩れる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ねじれる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>振り替え</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ふりかえ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>振り替える</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ふりかえる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無線</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>めせん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ワイヤレス</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wireless</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>やたら</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>やたら</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明瞭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>めいりょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返還</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>へんかん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出回る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>でまわる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全盛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぜんせい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全盛期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぜんせいき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>げんけい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>惜しむ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おしむ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>惜しまず</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おしまず</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>インターホン</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interphone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主演</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しゅえん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>助演</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じょえん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>悪しからず</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あしからず</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会見</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かいけん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>めんかい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>財務</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ざいむ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凌ぐ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しのぐ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半ば</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>なかば</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破棄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跨ぐ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>またぐ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跨がる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>またがる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定説</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ていせつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高騰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こうとう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>口頭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こうとう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未だ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いまだ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仰天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぎょうてん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しきたり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しけたり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ちなみに</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肉体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>にくたい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ヒット</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>見逃す</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>みのがす</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>エキゾチック</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exotic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>異国的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いこくてき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>くかん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ずばり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ずばり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>筒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>つつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水筒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すいとう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>捻出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ねんしゅつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぶかぶか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぶかぶか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>むち</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あだ名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あだな</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ニックネーム</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nickname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教わる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おそわる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教える</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おしえる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>けいたい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>形態</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>携帯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>けいたい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しずく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点滴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>てんてき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心強い</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こころづよい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心細い</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こころぼそい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>セクハラ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sexual harassment</t>
+  </si>
+  <si>
+    <t>一面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いちめん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>介護</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かいご</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さほど</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大衆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>たいしゅう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群衆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぐんしゅう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>なえ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>途切れる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>とぎれる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辞退</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じたい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>コスチューム</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>custume</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>コスプレ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cosplay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>計り知れない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はかりしれない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>補強</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ほきょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>眉毛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>まゆげ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>休める</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>やすめる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喪失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そうしつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>とうか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>味わう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あじわう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>味わい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あじわい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喜劇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きげき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>悲劇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ひげき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>コマーシャル</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commercial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>広告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こうこく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>シーエム</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>煽てる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おだてる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>式場</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しきじょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>調和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ちょうわ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>気遣う</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きづかう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>にしび</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ひじゅう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乱す</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>みだす</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>落下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>らっか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>エコ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ecology</t>
+  </si>
+  <si>
+    <t>うきうき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>うきうき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首輪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>くびわ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吹奏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すいそう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>突く</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>つく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上演</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じょうえん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同盟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>どうめい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平たい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ひらたい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>むちゃ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無茶苦茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>むちゃくちゃ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>リハビリ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rehabilitation</t>
+  </si>
+  <si>
+    <t>押し上げる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おしあげる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>板挟み</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いたばさみ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刑罰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>けいばつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天罰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>てんばつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制する</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>せいする</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>デリケート</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delicate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>念入り</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ねんいり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遜る／謙る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>へりくだる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明朗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>めいろう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しゅっぴ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いっそ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いっそ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>講演</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こうえん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公演</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>創刊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そうかん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>どうのこうの</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>どうのこうの</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>長閑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>のどか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>豊作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ほうさく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ふさく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凶作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きょうさく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漏らす</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>もらす</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>～漏らす</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>～もらす</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>私情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しじょう</t>
+  </si>
+  <si>
+    <t>しじょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>せいさん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精算機</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>せいさんき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あっさり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あっさり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かいごう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>サプリメント</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>supplement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弄る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いじる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻弄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ほんろう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>率先</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そっせん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こうげん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高原</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手っ取り早い</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>てっとりばやい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鳴り物入り</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>なりものいり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>バイエーション</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>variation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>まとまる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>まとまり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>まとまり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>連帯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>れんたい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>インテリ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intelligentsia</t>
+  </si>
+  <si>
+    <t>思わしい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おもわしい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>規格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きかく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きかく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>質素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しっそ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>簡素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かんそ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合わす</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あわす</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合わせる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あわせる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>着席</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ちゃくせき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>にゅうりょく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浸す</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ひたす</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浸る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ひたる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ミス</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>miss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ミスプリント</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>missprint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浅はか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あさはか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>押し切る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おしきる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>押し通す</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おしとおす</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鯨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>くじら</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕鯨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ほげい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>スキャンダル</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scandal</t>
+  </si>
+  <si>
+    <t>醜聞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しゅうぶん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>突っ張る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>つっぱる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配線</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はいせん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はいかん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赴任</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ふにん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毟る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>むしる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>縁側</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>えんがわ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>経費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>けいひ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すれすれ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>擦れ擦れ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手順</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>てじゅん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>便宜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>べんぎ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申し出る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>もうしでる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内気</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>うちき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外向的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>がいこうてき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>口実</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こうじつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>言い訳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いいわけ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そっけない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そっけない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>峠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>とうげ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下請け</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>したうけ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぼやく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぼやく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>モニター</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monitor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切実</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>せつじつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あたかも</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恰も／宛も</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>適応</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>てきおう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物議</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぶつぎ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唱える</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>となえる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隠れ家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かくれが</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小（しょう）の虫（むし）を殺（ころ）して大（だい）の虫（むし）を助（たす）ける。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丢车保帅。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3416,21 +6404,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B390"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B772"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A137" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A152" sqref="A152"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.625" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3438,7 +6424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -3446,7 +6432,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -3454,7 +6440,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -3462,7 +6448,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -3470,7 +6456,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -3478,7 +6464,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -3486,7 +6472,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -3494,7 +6480,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -3502,7 +6488,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -3510,7 +6496,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -3518,7 +6504,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -3526,7 +6512,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -3534,7 +6520,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -3542,7 +6528,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -3550,7 +6536,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
@@ -3558,7 +6544,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
@@ -3566,7 +6552,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>33</v>
       </c>
@@ -3574,7 +6560,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>35</v>
       </c>
@@ -3582,7 +6568,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>37</v>
       </c>
@@ -3590,7 +6576,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>39</v>
       </c>
@@ -3598,7 +6584,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>41</v>
       </c>
@@ -3606,7 +6592,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>43</v>
       </c>
@@ -3614,7 +6600,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>45</v>
       </c>
@@ -3622,7 +6608,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>47</v>
       </c>
@@ -3630,7 +6616,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>49</v>
       </c>
@@ -3638,7 +6624,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>51</v>
       </c>
@@ -3646,7 +6632,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>53</v>
       </c>
@@ -3654,7 +6640,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>55</v>
       </c>
@@ -3662,7 +6648,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>57</v>
       </c>
@@ -3670,7 +6656,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>59</v>
       </c>
@@ -3678,7 +6664,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>61</v>
       </c>
@@ -3686,7 +6672,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>63</v>
       </c>
@@ -3694,7 +6680,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>65</v>
       </c>
@@ -3702,7 +6688,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>67</v>
       </c>
@@ -3710,7 +6696,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>69</v>
       </c>
@@ -3718,7 +6704,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>71</v>
       </c>
@@ -3726,7 +6712,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>73</v>
       </c>
@@ -3734,7 +6720,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>74</v>
       </c>
@@ -3742,7 +6728,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>76</v>
       </c>
@@ -3750,7 +6736,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>78</v>
       </c>
@@ -3758,7 +6744,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>80</v>
       </c>
@@ -3766,7 +6752,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>82</v>
       </c>
@@ -3774,7 +6760,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>84</v>
       </c>
@@ -3782,7 +6768,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>86</v>
       </c>
@@ -3790,7 +6776,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>88</v>
       </c>
@@ -3798,7 +6784,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>90</v>
       </c>
@@ -3806,7 +6792,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>92</v>
       </c>
@@ -3814,7 +6800,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>94</v>
       </c>
@@ -3822,7 +6808,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>95</v>
       </c>
@@ -3830,7 +6816,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>97</v>
       </c>
@@ -3838,7 +6824,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>99</v>
       </c>
@@ -3846,7 +6832,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>101</v>
       </c>
@@ -3854,7 +6840,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>103</v>
       </c>
@@ -3862,7 +6848,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>105</v>
       </c>
@@ -3870,7 +6856,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>107</v>
       </c>
@@ -3878,7 +6864,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>109</v>
       </c>
@@ -3886,7 +6872,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>111</v>
       </c>
@@ -3894,7 +6880,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>113</v>
       </c>
@@ -3902,7 +6888,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>115</v>
       </c>
@@ -3910,7 +6896,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>117</v>
       </c>
@@ -3918,7 +6904,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>119</v>
       </c>
@@ -3926,7 +6912,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>121</v>
       </c>
@@ -3934,7 +6920,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>123</v>
       </c>
@@ -3942,7 +6928,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>125</v>
       </c>
@@ -3950,7 +6936,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>127</v>
       </c>
@@ -3958,7 +6944,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>129</v>
       </c>
@@ -3966,7 +6952,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>131</v>
       </c>
@@ -3974,7 +6960,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>133</v>
       </c>
@@ -3982,7 +6968,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>135</v>
       </c>
@@ -3990,7 +6976,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>137</v>
       </c>
@@ -3998,7 +6984,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>138</v>
       </c>
@@ -4006,7 +6992,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>139</v>
       </c>
@@ -4014,7 +7000,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>141</v>
       </c>
@@ -4022,7 +7008,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>143</v>
       </c>
@@ -4030,7 +7016,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>145</v>
       </c>
@@ -4038,7 +7024,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>147</v>
       </c>
@@ -4046,7 +7032,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>149</v>
       </c>
@@ -4054,7 +7040,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>151</v>
       </c>
@@ -4062,7 +7048,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>153</v>
       </c>
@@ -4070,7 +7056,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>155</v>
       </c>
@@ -4078,7 +7064,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>157</v>
       </c>
@@ -4086,7 +7072,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>159</v>
       </c>
@@ -4094,7 +7080,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>161</v>
       </c>
@@ -4102,7 +7088,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>163</v>
       </c>
@@ -4110,7 +7096,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>165</v>
       </c>
@@ -4118,7 +7104,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>167</v>
       </c>
@@ -4126,7 +7112,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>169</v>
       </c>
@@ -4134,7 +7120,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>171</v>
       </c>
@@ -4142,7 +7128,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>173</v>
       </c>
@@ -4150,7 +7136,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>175</v>
       </c>
@@ -4158,7 +7144,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>177</v>
       </c>
@@ -4166,7 +7152,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>179</v>
       </c>
@@ -4174,7 +7160,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>181</v>
       </c>
@@ -4182,7 +7168,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>183</v>
       </c>
@@ -4190,7 +7176,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>185</v>
       </c>
@@ -4198,7 +7184,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>187</v>
       </c>
@@ -4206,7 +7192,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>189</v>
       </c>
@@ -4214,7 +7200,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>191</v>
       </c>
@@ -4222,7 +7208,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>193</v>
       </c>
@@ -4230,7 +7216,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>195</v>
       </c>
@@ -4238,7 +7224,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>197</v>
       </c>
@@ -4246,7 +7232,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>199</v>
       </c>
@@ -4254,7 +7240,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>201</v>
       </c>
@@ -4262,7 +7248,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>203</v>
       </c>
@@ -4270,7 +7256,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>205</v>
       </c>
@@ -4278,7 +7264,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>207</v>
       </c>
@@ -4286,7 +7272,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>210</v>
       </c>
@@ -4294,7 +7280,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>211</v>
       </c>
@@ -4302,7 +7288,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>212</v>
       </c>
@@ -4310,7 +7296,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>214</v>
       </c>
@@ -4318,7 +7304,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>216</v>
       </c>
@@ -4326,7 +7312,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>218</v>
       </c>
@@ -4334,7 +7320,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>220</v>
       </c>
@@ -4342,7 +7328,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>222</v>
       </c>
@@ -4350,7 +7336,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>224</v>
       </c>
@@ -4358,7 +7344,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>226</v>
       </c>
@@ -4366,7 +7352,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>228</v>
       </c>
@@ -4374,7 +7360,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>230</v>
       </c>
@@ -4382,7 +7368,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>232</v>
       </c>
@@ -4390,7 +7376,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>234</v>
       </c>
@@ -4398,7 +7384,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>236</v>
       </c>
@@ -4406,7 +7392,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>238</v>
       </c>
@@ -4414,7 +7400,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>240</v>
       </c>
@@ -4422,7 +7408,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>242</v>
       </c>
@@ -4430,7 +7416,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>244</v>
       </c>
@@ -4438,7 +7424,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>246</v>
       </c>
@@ -4446,7 +7432,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>248</v>
       </c>
@@ -4454,7 +7440,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>250</v>
       </c>
@@ -4462,7 +7448,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>252</v>
       </c>
@@ -4470,7 +7456,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>254</v>
       </c>
@@ -4478,7 +7464,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>256</v>
       </c>
@@ -4486,7 +7472,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>258</v>
       </c>
@@ -4494,7 +7480,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>260</v>
       </c>
@@ -4502,7 +7488,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>262</v>
       </c>
@@ -4510,7 +7496,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>264</v>
       </c>
@@ -4518,7 +7504,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>266</v>
       </c>
@@ -4526,7 +7512,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>268</v>
       </c>
@@ -4534,7 +7520,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>270</v>
       </c>
@@ -4542,7 +7528,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>272</v>
       </c>
@@ -4550,7 +7536,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>274</v>
       </c>
@@ -4558,7 +7544,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>276</v>
       </c>
@@ -4566,7 +7552,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>278</v>
       </c>
@@ -4574,7 +7560,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>280</v>
       </c>
@@ -4582,7 +7568,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>282</v>
       </c>
@@ -4590,7 +7576,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>284</v>
       </c>
@@ -4598,7 +7584,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>286</v>
       </c>
@@ -4606,7 +7592,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>288</v>
       </c>
@@ -4614,7 +7600,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>290</v>
       </c>
@@ -4622,7 +7608,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>292</v>
       </c>
@@ -4630,7 +7616,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>294</v>
       </c>
@@ -4638,7 +7624,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>758</v>
       </c>
@@ -4646,7 +7632,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>297</v>
       </c>
@@ -4654,7 +7640,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>299</v>
       </c>
@@ -4662,7 +7648,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>300</v>
       </c>
@@ -4670,7 +7656,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>302</v>
       </c>
@@ -4678,7 +7664,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>304</v>
       </c>
@@ -4686,7 +7672,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>306</v>
       </c>
@@ -4694,7 +7680,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>308</v>
       </c>
@@ -4702,7 +7688,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>310</v>
       </c>
@@ -4710,7 +7696,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>312</v>
       </c>
@@ -4718,7 +7704,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>314</v>
       </c>
@@ -4726,7 +7712,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>316</v>
       </c>
@@ -4734,7 +7720,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>318</v>
       </c>
@@ -4742,7 +7728,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>320</v>
       </c>
@@ -4750,7 +7736,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>322</v>
       </c>
@@ -4758,7 +7744,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>324</v>
       </c>
@@ -4766,7 +7752,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>326</v>
       </c>
@@ -4774,7 +7760,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>328</v>
       </c>
@@ -4782,7 +7768,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>330</v>
       </c>
@@ -4790,7 +7776,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>332</v>
       </c>
@@ -4798,7 +7784,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>334</v>
       </c>
@@ -4806,7 +7792,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>336</v>
       </c>
@@ -4814,7 +7800,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>338</v>
       </c>
@@ -4822,7 +7808,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>340</v>
       </c>
@@ -4830,7 +7816,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>342</v>
       </c>
@@ -4838,7 +7824,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>344</v>
       </c>
@@ -4846,7 +7832,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>346</v>
       </c>
@@ -4854,7 +7840,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>348</v>
       </c>
@@ -4862,7 +7848,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>350</v>
       </c>
@@ -4870,7 +7856,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>352</v>
       </c>
@@ -4878,7 +7864,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>354</v>
       </c>
@@ -4886,7 +7872,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>356</v>
       </c>
@@ -4894,7 +7880,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>358</v>
       </c>
@@ -4902,7 +7888,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>360</v>
       </c>
@@ -4910,7 +7896,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>362</v>
       </c>
@@ -4918,7 +7904,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>364</v>
       </c>
@@ -4926,7 +7912,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>366</v>
       </c>
@@ -4934,7 +7920,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>368</v>
       </c>
@@ -4942,7 +7928,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>370</v>
       </c>
@@ -4950,7 +7936,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>372</v>
       </c>
@@ -4958,7 +7944,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>374</v>
       </c>
@@ -4966,7 +7952,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>376</v>
       </c>
@@ -4974,7 +7960,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>378</v>
       </c>
@@ -4982,7 +7968,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>380</v>
       </c>
@@ -4990,7 +7976,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>382</v>
       </c>
@@ -4998,7 +7984,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>384</v>
       </c>
@@ -5006,7 +7992,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>386</v>
       </c>
@@ -5014,7 +8000,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>388</v>
       </c>
@@ -5022,7 +8008,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>390</v>
       </c>
@@ -5030,7 +8016,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>392</v>
       </c>
@@ -5038,7 +8024,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>394</v>
       </c>
@@ -5046,7 +8032,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>396</v>
       </c>
@@ -5054,7 +8040,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>398</v>
       </c>
@@ -5062,7 +8048,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>399</v>
       </c>
@@ -5070,7 +8056,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>401</v>
       </c>
@@ -5078,7 +8064,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>403</v>
       </c>
@@ -5086,7 +8072,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>405</v>
       </c>
@@ -5094,7 +8080,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>407</v>
       </c>
@@ -5102,7 +8088,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>408</v>
       </c>
@@ -5110,7 +8096,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>410</v>
       </c>
@@ -5118,7 +8104,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>412</v>
       </c>
@@ -5126,7 +8112,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>413</v>
       </c>
@@ -5134,7 +8120,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>415</v>
       </c>
@@ -5142,7 +8128,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>417</v>
       </c>
@@ -5150,7 +8136,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>419</v>
       </c>
@@ -5158,7 +8144,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>421</v>
       </c>
@@ -5166,7 +8152,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>423</v>
       </c>
@@ -5174,7 +8160,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>425</v>
       </c>
@@ -5182,7 +8168,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>427</v>
       </c>
@@ -5190,7 +8176,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>429</v>
       </c>
@@ -5198,7 +8184,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>431</v>
       </c>
@@ -5206,7 +8192,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
         <v>432</v>
       </c>
@@ -5214,7 +8200,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>434</v>
       </c>
@@ -5222,7 +8208,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
         <v>436</v>
       </c>
@@ -5230,7 +8216,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>438</v>
       </c>
@@ -5238,7 +8224,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
         <v>440</v>
       </c>
@@ -5246,7 +8232,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>442</v>
       </c>
@@ -5254,7 +8240,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
         <v>444</v>
       </c>
@@ -5262,7 +8248,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
         <v>446</v>
       </c>
@@ -5270,7 +8256,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>448</v>
       </c>
@@ -5278,7 +8264,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
         <v>450</v>
       </c>
@@ -5286,7 +8272,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>452</v>
       </c>
@@ -5294,7 +8280,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
         <v>454</v>
       </c>
@@ -5302,7 +8288,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>456</v>
       </c>
@@ -5310,7 +8296,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>458</v>
       </c>
@@ -5318,7 +8304,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
         <v>460</v>
       </c>
@@ -5326,7 +8312,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
         <v>462</v>
       </c>
@@ -5334,7 +8320,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
         <v>464</v>
       </c>
@@ -5342,7 +8328,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
         <v>466</v>
       </c>
@@ -5350,7 +8336,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
         <v>468</v>
       </c>
@@ -5358,7 +8344,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>470</v>
       </c>
@@ -5366,7 +8352,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
         <v>471</v>
       </c>
@@ -5374,7 +8360,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
         <v>473</v>
       </c>
@@ -5382,7 +8368,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>475</v>
       </c>
@@ -5390,7 +8376,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
         <v>477</v>
       </c>
@@ -5398,7 +8384,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
         <v>479</v>
       </c>
@@ -5406,7 +8392,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
         <v>481</v>
       </c>
@@ -5414,7 +8400,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
         <v>483</v>
       </c>
@@ -5422,7 +8408,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
         <v>485</v>
       </c>
@@ -5430,7 +8416,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
         <v>487</v>
       </c>
@@ -5438,7 +8424,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
         <v>489</v>
       </c>
@@ -5446,7 +8432,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
         <v>491</v>
       </c>
@@ -5454,7 +8440,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
         <v>493</v>
       </c>
@@ -5462,7 +8448,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
         <v>495</v>
       </c>
@@ -5470,7 +8456,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
         <v>497</v>
       </c>
@@ -5478,7 +8464,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
         <v>499</v>
       </c>
@@ -5486,7 +8472,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
         <v>501</v>
       </c>
@@ -5494,7 +8480,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
         <v>503</v>
       </c>
@@ -5502,7 +8488,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
         <v>505</v>
       </c>
@@ -5510,7 +8496,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
         <v>507</v>
       </c>
@@ -5518,7 +8504,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
         <v>509</v>
       </c>
@@ -5526,7 +8512,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
         <v>511</v>
       </c>
@@ -5534,7 +8520,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
         <v>513</v>
       </c>
@@ -5542,7 +8528,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
         <v>515</v>
       </c>
@@ -5550,7 +8536,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
         <v>517</v>
       </c>
@@ -5558,7 +8544,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
         <v>519</v>
       </c>
@@ -5566,7 +8552,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
         <v>521</v>
       </c>
@@ -5574,7 +8560,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
         <v>523</v>
       </c>
@@ -5582,7 +8568,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
         <v>525</v>
       </c>
@@ -5590,7 +8576,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
         <v>527</v>
       </c>
@@ -5598,7 +8584,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
         <v>529</v>
       </c>
@@ -5606,7 +8592,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
         <v>531</v>
       </c>
@@ -5614,7 +8600,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
         <v>533</v>
       </c>
@@ -5622,7 +8608,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
         <v>535</v>
       </c>
@@ -5630,7 +8616,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
         <v>537</v>
       </c>
@@ -5638,7 +8624,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
         <v>539</v>
       </c>
@@ -5646,7 +8632,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
         <v>541</v>
       </c>
@@ -5654,7 +8640,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
         <v>543</v>
       </c>
@@ -5662,7 +8648,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
         <v>545</v>
       </c>
@@ -5670,7 +8656,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
         <v>547</v>
       </c>
@@ -5678,7 +8664,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
         <v>549</v>
       </c>
@@ -5686,7 +8672,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
         <v>551</v>
       </c>
@@ -5694,7 +8680,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
         <v>553</v>
       </c>
@@ -5702,7 +8688,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
         <v>555</v>
       </c>
@@ -5710,7 +8696,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
         <v>557</v>
       </c>
@@ -5718,7 +8704,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
         <v>559</v>
       </c>
@@ -5726,7 +8712,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
         <v>561</v>
       </c>
@@ -5734,7 +8720,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
         <v>563</v>
       </c>
@@ -5742,7 +8728,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
         <v>565</v>
       </c>
@@ -5750,7 +8736,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
         <v>567</v>
       </c>
@@ -5758,7 +8744,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
         <v>569</v>
       </c>
@@ -5766,7 +8752,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="s">
         <v>571</v>
       </c>
@@ -5774,7 +8760,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
         <v>573</v>
       </c>
@@ -5782,7 +8768,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="s">
         <v>575</v>
       </c>
@@ -5790,7 +8776,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
         <v>577</v>
       </c>
@@ -5798,7 +8784,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
         <v>579</v>
       </c>
@@ -5806,7 +8792,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
         <v>581</v>
       </c>
@@ -5814,7 +8800,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
         <v>583</v>
       </c>
@@ -5822,7 +8808,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="s">
         <v>585</v>
       </c>
@@ -5830,7 +8816,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
         <v>587</v>
       </c>
@@ -5838,7 +8824,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" s="1" t="s">
         <v>589</v>
       </c>
@@ -5846,7 +8832,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" s="1" t="s">
         <v>591</v>
       </c>
@@ -5854,7 +8840,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
         <v>593</v>
       </c>
@@ -5862,7 +8848,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
         <v>595</v>
       </c>
@@ -5870,7 +8856,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
         <v>597</v>
       </c>
@@ -5878,7 +8864,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" s="1" t="s">
         <v>599</v>
       </c>
@@ -5886,7 +8872,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
         <v>601</v>
       </c>
@@ -5894,7 +8880,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
         <v>603</v>
       </c>
@@ -5902,7 +8888,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
         <v>605</v>
       </c>
@@ -5910,7 +8896,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" s="1" t="s">
         <v>607</v>
       </c>
@@ -5918,7 +8904,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
         <v>609</v>
       </c>
@@ -5926,7 +8912,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" s="1" t="s">
         <v>611</v>
       </c>
@@ -5934,7 +8920,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
         <v>613</v>
       </c>
@@ -5942,7 +8928,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="s">
         <v>615</v>
       </c>
@@ -5950,7 +8936,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" s="1" t="s">
         <v>617</v>
       </c>
@@ -5958,7 +8944,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" s="1" t="s">
         <v>619</v>
       </c>
@@ -5966,7 +8952,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" s="1" t="s">
         <v>621</v>
       </c>
@@ -5974,7 +8960,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" s="1" t="s">
         <v>623</v>
       </c>
@@ -5982,7 +8968,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
         <v>625</v>
       </c>
@@ -5990,7 +8976,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" s="1" t="s">
         <v>627</v>
       </c>
@@ -5998,7 +8984,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
         <v>629</v>
       </c>
@@ -6006,7 +8992,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" s="1" t="s">
         <v>630</v>
       </c>
@@ -6014,7 +9000,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
         <v>632</v>
       </c>
@@ -6022,7 +9008,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="s">
         <v>635</v>
       </c>
@@ -6030,7 +9016,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" s="1" t="s">
         <v>636</v>
       </c>
@@ -6038,7 +9024,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" s="1" t="s">
         <v>638</v>
       </c>
@@ -6046,7 +9032,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" s="1" t="s">
         <v>640</v>
       </c>
@@ -6054,7 +9040,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" s="1" t="s">
         <v>641</v>
       </c>
@@ -6062,7 +9048,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
         <v>643</v>
       </c>
@@ -6070,7 +9056,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="s">
         <v>645</v>
       </c>
@@ -6078,7 +9064,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
         <v>647</v>
       </c>
@@ -6086,7 +9072,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" s="1" t="s">
         <v>649</v>
       </c>
@@ -6094,7 +9080,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" s="1" t="s">
         <v>651</v>
       </c>
@@ -6102,7 +9088,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337" s="1" t="s">
         <v>653</v>
       </c>
@@ -6110,7 +9096,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="s">
         <v>656</v>
       </c>
@@ -6118,7 +9104,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339" s="1" t="s">
         <v>657</v>
       </c>
@@ -6126,7 +9112,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="s">
         <v>659</v>
       </c>
@@ -6134,7 +9120,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341" s="1" t="s">
         <v>661</v>
       </c>
@@ -6142,7 +9128,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342" s="1" t="s">
         <v>663</v>
       </c>
@@ -6150,7 +9136,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343" s="1" t="s">
         <v>665</v>
       </c>
@@ -6158,7 +9144,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A344" s="1" t="s">
         <v>667</v>
       </c>
@@ -6166,7 +9152,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345" s="1" t="s">
         <v>669</v>
       </c>
@@ -6174,7 +9160,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A346" s="1" t="s">
         <v>669</v>
       </c>
@@ -6182,7 +9168,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347" s="1" t="s">
         <v>672</v>
       </c>
@@ -6190,7 +9176,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348" s="1" t="s">
         <v>674</v>
       </c>
@@ -6198,7 +9184,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A349" s="1" t="s">
         <v>676</v>
       </c>
@@ -6206,7 +9192,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A350" s="1" t="s">
         <v>678</v>
       </c>
@@ -6214,7 +9200,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A351" s="1" t="s">
         <v>679</v>
       </c>
@@ -6222,7 +9208,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A352" s="1" t="s">
         <v>681</v>
       </c>
@@ -6230,7 +9216,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A353" s="1" t="s">
         <v>683</v>
       </c>
@@ -6238,7 +9224,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A354" s="1" t="s">
         <v>685</v>
       </c>
@@ -6246,7 +9232,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A355" s="1" t="s">
         <v>687</v>
       </c>
@@ -6254,7 +9240,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A356" s="1" t="s">
         <v>689</v>
       </c>
@@ -6262,7 +9248,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A357" s="1" t="s">
         <v>691</v>
       </c>
@@ -6270,7 +9256,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A358" s="1" t="s">
         <v>693</v>
       </c>
@@ -6278,7 +9264,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A359" s="1" t="s">
         <v>695</v>
       </c>
@@ -6286,7 +9272,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A360" s="1" t="s">
         <v>697</v>
       </c>
@@ -6294,7 +9280,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A361" s="1" t="s">
         <v>698</v>
       </c>
@@ -6302,7 +9288,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A362" s="1" t="s">
         <v>700</v>
       </c>
@@ -6310,7 +9296,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A363" s="1" t="s">
         <v>702</v>
       </c>
@@ -6318,7 +9304,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A364" s="1" t="s">
         <v>704</v>
       </c>
@@ -6326,7 +9312,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A365" s="1" t="s">
         <v>706</v>
       </c>
@@ -6334,7 +9320,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A366" s="1" t="s">
         <v>708</v>
       </c>
@@ -6342,7 +9328,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A367" s="1" t="s">
         <v>710</v>
       </c>
@@ -6350,7 +9336,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A368" s="1" t="s">
         <v>712</v>
       </c>
@@ -6358,7 +9344,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A369" s="1" t="s">
         <v>714</v>
       </c>
@@ -6366,7 +9352,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="370" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A370" s="2" t="s">
         <v>717</v>
       </c>
@@ -6374,7 +9360,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A371" s="1" t="s">
         <v>718</v>
       </c>
@@ -6382,7 +9368,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A372" s="1" t="s">
         <v>720</v>
       </c>
@@ -6390,7 +9376,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A373" s="1" t="s">
         <v>722</v>
       </c>
@@ -6398,7 +9384,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A374" s="1" t="s">
         <v>724</v>
       </c>
@@ -6406,7 +9392,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A375" s="1" t="s">
         <v>725</v>
       </c>
@@ -6414,7 +9400,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A376" s="1" t="s">
         <v>727</v>
       </c>
@@ -6422,7 +9408,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A377" s="1" t="s">
         <v>729</v>
       </c>
@@ -6430,7 +9416,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A378" s="1" t="s">
         <v>730</v>
       </c>
@@ -6438,7 +9424,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A379" s="1" t="s">
         <v>732</v>
       </c>
@@ -6446,7 +9432,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A380" s="1" t="s">
         <v>734</v>
       </c>
@@ -6454,7 +9440,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A381" s="1" t="s">
         <v>736</v>
       </c>
@@ -6462,7 +9448,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A382" s="1" t="s">
         <v>738</v>
       </c>
@@ -6470,7 +9456,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A383" s="1" t="s">
         <v>740</v>
       </c>
@@ -6478,7 +9464,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A384" s="1" t="s">
         <v>741</v>
       </c>
@@ -6486,7 +9472,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A385" s="1" t="s">
         <v>743</v>
       </c>
@@ -6494,7 +9480,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A386" s="1" t="s">
         <v>745</v>
       </c>
@@ -6502,7 +9488,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A387" s="1" t="s">
         <v>747</v>
       </c>
@@ -6510,7 +9496,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A388" s="1" t="s">
         <v>749</v>
       </c>
@@ -6518,7 +9504,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A389" s="1" t="s">
         <v>751</v>
       </c>
@@ -6526,12 +9512,3052 @@
         <v>752</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A390" s="1" t="s">
         <v>753</v>
       </c>
       <c r="B390" s="1" t="s">
         <v>754</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A392" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="B392" s="1" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A393" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="B393" s="1" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A394" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="B394" s="1" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A395" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="B395" s="1" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A396" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="B396" s="1" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A397" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="B397" s="1" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A398" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="B398" s="1" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A399" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="B399" s="1" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A400" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="B400" s="1" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A401" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="B401" s="1" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A402" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="B402" s="1" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A403" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="B403" s="1" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A404" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="B404" s="1" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A405" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="B405" s="1" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A406" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="B406" s="1" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A407" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="B407" s="1" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A408" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="B408" s="1" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A409" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="B409" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A410" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="B410" s="1" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A411" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="B411" s="1" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A412" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="B412" s="1" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A413" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="B413" s="1" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A414" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="B414" s="1" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A415" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="B415" s="1" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A416" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="B416" s="1" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A417" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="B417" s="1" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A418" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="B418" s="1" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A419" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="B419" s="1" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A420" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="B420" s="1" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A421" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="B421" s="1" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A422" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="B422" s="1" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A423" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="B423" s="1" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A424" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="B424" s="1" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A425" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="B425" s="1" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A426" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="B426" s="1" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A427" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="B427" s="1" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A428" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="B428" s="1" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A429" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="B429" s="1" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A430" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="B430" s="1" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A431" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="B431" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A432" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="B432" s="1" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A433" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="B433" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A434" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="B434" s="1" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A435" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="B435" s="1" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A436" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="B436" s="1" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A437" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="B437" s="1" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A438" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="B438" s="1" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A439" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="B439" s="1" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A440" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="B440" s="1" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A441" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="B441" s="1" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A442" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="B442" s="1" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A443" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="B443" s="1" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A444" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="B444" s="1" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A445" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="B445" s="1" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A446" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="B446" s="1" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A447" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="B447" s="1" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A448" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="B448" s="1" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A449" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="B449" s="1" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A450" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="B450" s="1" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A451" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="B451" s="1" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A452" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="B452" s="1" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A453" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="B453" s="1" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A454" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="B454" s="1" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A455" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="B455" s="1" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A456" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="B456" s="1" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A457" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="B457" s="1" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A458" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="B458" s="1" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A459" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="B459" s="1" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A460" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="B460" s="1" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A461" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="B461" s="1" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A462" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="B462" s="1" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A463" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="B463" s="1" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A464" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="B464" s="1" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A465" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="B465" s="1" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A466" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="B466" s="1" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A467" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="B467" s="1" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A468" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="B468" s="1" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A469" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="B469" s="1" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A470" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="B470" s="1" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A471" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="B471" s="1" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A472" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="B472" s="1" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A473" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="B473" s="1" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A474" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="B474" s="1" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A475" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="B475" s="1" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A476" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="B476" s="1" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A477" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="B477" s="1" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A478" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="B478" s="1" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A479" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="B479" s="1" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A480" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="B480" s="1" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A481" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="B481" s="1" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A482" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="B482" s="1" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A483" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="B483" s="1" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A484" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="B484" s="1" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A485" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="B485" s="1" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A486" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="B486" s="1" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A487" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="B487" s="1" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A488" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="B488" s="1" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A489" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="B489" s="1" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A490" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="B490" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A491" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="B491" s="1" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A492" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="B492" s="1" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A493" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="B493" s="1" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A494" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="B494" s="1" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A495" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="B495" s="1" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A496" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="B496" s="1" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A497" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="B497" s="1" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A498" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="B498" s="1" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A499" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="B499" s="1" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A500" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="B500" s="1" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A501" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="B501" s="1" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A502" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="B502" s="1" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A503" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="B503" s="1" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A504" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="B504" s="1" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A505" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="B505" s="1" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A506" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="B506" s="1" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A507" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="B507" s="1" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A508" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="B508" s="1" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A509" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="B509" s="1" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A510" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="B510" s="1" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A511" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="B511" s="1" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A512" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="B512" s="1" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A513" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="B513" s="1" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A514" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="B514" s="1" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A515" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B515" s="1" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A516" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B516" s="1" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A517" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B517" s="1" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A518" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B518" s="1" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A519" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B519" s="1" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A520" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B520" s="1" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A521" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B521" s="1" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A522" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B522" s="1" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A523" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B523" s="1" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A524" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B524" s="1" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A525" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B525" s="1" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A526" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B526" s="1" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A527" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B527" s="1" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A528" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B528" s="1" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A529" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B529" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A530" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B530" s="1" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A531" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B531" s="1" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A532" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B532" s="1" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A533" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B533" s="1" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A534" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B534" s="1" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A535" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B535" s="1" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A536" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B536" s="1" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A537" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B537" s="1" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A538" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B538" s="1" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A539" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B539" s="1" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A540" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B540" s="1" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A541" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B541" s="1" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A542" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B542" s="1" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A543" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B543" s="1" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A544" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B544" s="1" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A545" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B545" s="1" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A546" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B546" s="1" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A547" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B547" s="1" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A548" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B548" s="1" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A549" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B549" s="1" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A550" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B550" s="1" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A551" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B551" s="1" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A552" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B552" s="1" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A553" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B553" s="1" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A554" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B554" s="1" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A555" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B555" s="1" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A556" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B556" s="1" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A557" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B557" s="1" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A558" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B558" s="1" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A559" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B559" s="1" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A560" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B560" s="1" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A561" s="1" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B561" s="1" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A562" s="1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B562" s="1" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A563" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B563" s="1" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A564" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B564" s="1" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A565" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B565" s="1" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A566" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B566" s="1" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A567" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B567" s="1" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A568" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B568" s="1" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A569" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B569" s="1" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A570" s="1" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B570" s="1" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A571" s="1" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B571" s="1" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A572" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B572" s="1" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A573" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B573" s="1" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A574" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B574" s="1" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A575" s="1" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B575" s="1" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A576" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B576" s="1" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A577" s="1" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B577" s="1" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A579" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B579" s="1" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A580" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B580" s="1" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A581" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B581" s="1" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A582" s="1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B582" s="1" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A583" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B583" s="1" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A584" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B584" s="1" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A585" s="1" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B585" s="1" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A586" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B586" s="1" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A587" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B587" s="1" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A588" s="1" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B588" s="1" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A589" s="1" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B589" s="1" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A590" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B590" s="1" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A591" s="1" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B591" s="1" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A592" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B592" s="1" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A593" s="1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B593" s="1" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A594" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B594" s="1" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A595" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B595" s="1" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A596" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B596" s="1" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A597" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B597" s="1" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A598" s="1" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B598" s="1" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A599" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B599" s="1" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A600" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B600" s="1" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A601" s="1" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B601" s="1" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A602" s="1" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B602" s="1" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A603" s="1" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B603" s="1" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A604" s="1" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B604" s="1" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A605" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B605" s="1" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A606" s="1" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B606" s="1" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A607" s="1" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B607" s="1" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A608" s="1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B608" s="1" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A609" s="1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B609" s="1" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A610" s="1" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B610" s="1" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A611" s="1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B611" s="1" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A612" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B612" s="1" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A613" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B613" s="1" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A614" s="1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B614" s="1" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A615" s="1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B615" s="1" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A616" s="1" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B616" s="1" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A617" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B617" s="1" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A618" s="1" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B618" s="1" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A619" s="1" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B619" s="1" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A620" s="1" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B620" s="1" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A621" s="1" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B621" s="1" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A622" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B622" s="1" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A623" s="1" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B623" s="1" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A624" s="1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B624" s="1" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A625" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B625" s="1" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A626" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B626" s="1" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A627" s="1" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B627" s="1" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A628" s="1" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B628" s="1" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A629" s="1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B629" s="1" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A630" s="1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B630" s="1" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A631" s="1" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B631" s="1" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A632" s="1" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B632" s="1" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A633" s="1" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B633" s="1" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A634" s="1" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B634" s="1" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A635" s="1" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B635" s="1" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A636" s="1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B636" s="1" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A637" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B637" s="1" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A638" s="1" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B638" s="1" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A639" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B639" s="1" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A640" s="1" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B640" s="1" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A641" s="1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B641" s="1" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A642" s="1" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B642" s="1" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A643" s="1" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B643" s="1" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A644" s="1" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B644" s="1" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A645" s="1" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B645" s="1" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A646" s="1" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B646" s="1" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A647" s="1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B647" s="1" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A648" s="1" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B648" s="1" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A649" s="1" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B649" s="1" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A650" s="1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B650" s="1" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A651" s="1" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B651" s="1" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A652" s="1" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B652" s="1" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A653" s="1" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B653" s="1" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A654" s="1" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B654" s="1" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A655" s="1" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B655" s="1" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A656" s="1" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B656" s="1" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A657" s="1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B657" s="1" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A658" s="1" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B658" s="1" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A659" s="1" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B659" s="1" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A660" s="1" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B660" s="1" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A661" s="1" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B661" s="1" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A662" s="1" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B662" s="1" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A663" s="1" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B663" s="1" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A664" s="1" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B664" s="1" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A665" s="1" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B665" s="1" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A666" s="1" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B666" s="1" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A667" s="1" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B667" s="1" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A668" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B668" s="1" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A669" s="1" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B669" s="1" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A670" s="1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B670" s="1" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A671" s="1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B671" s="1" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A672" s="1" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B672" s="1" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A673" s="1" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B673" s="1" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A674" s="1" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B674" s="1" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A675" s="1" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B675" s="1" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A676" s="1" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B676" s="1" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A677" s="1" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B677" s="1" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A678" s="1" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B678" s="1" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A679" s="1" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B679" s="1" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A680" s="1" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B680" s="1" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A681" s="1" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B681" s="1" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A682" s="1" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B682" s="1" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A683" s="1" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B683" s="1" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A684" s="1" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B684" s="1" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A685" s="1" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B685" s="1" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A686" s="1" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B686" s="1" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A687" s="1" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B687" s="1" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A688" s="1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B688" s="1" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A689" s="1" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B689" s="1" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A690" s="1" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B690" s="1" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A691" s="1" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B691" s="1" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A692" s="1" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B692" s="1" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A693" s="1" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B693" s="1" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A694" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B694" s="1" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A695" s="1" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B695" s="1" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A696" s="1" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B696" s="1" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A697" s="1" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B697" s="1" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A698" s="1" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B698" s="1" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A699" s="1" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B699" s="1" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A700" s="1" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B700" s="1" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A701" s="1" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B701" s="1" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A702" s="1" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B702" s="1" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A703" s="1" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B703" s="1" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A704" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B704" s="1" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A705" s="1" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B705" s="1" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A706" s="1" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B706" s="1" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A707" s="1" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B707" s="1" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A708" s="1" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B708" s="1" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A709" s="1" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B709" s="1" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A710" s="1" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B710" s="1" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A711" s="1" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B711" s="1" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A712" s="1" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B712" s="1" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A713" s="1" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B713" s="1" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A714" s="1" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B714" s="1" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A715" s="1" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B715" s="1" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A716" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B716" s="1" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A717" s="1" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B717" s="1" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A718" s="1" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B718" s="1" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A719" s="1" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B719" s="1" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A720" s="1" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B720" s="1" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A721" s="1" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B721" s="1" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A722" s="1" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B722" s="1" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A723" s="1" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B723" s="1" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A724" s="1" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B724" s="1" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A725" s="1" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B725" s="1" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A726" s="1" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B726" s="1" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A727" s="1" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B727" s="1" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A728" s="1" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B728" s="1" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A729" s="1" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B729" s="1" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A730" s="1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B730" s="1" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A731" s="1" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B731" s="1" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A732" s="1" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B732" s="1" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="733" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A733" s="1" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B733" s="1" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="734" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A734" s="1" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B734" s="1" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="735" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A735" s="1" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B735" s="1" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="736" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A736" s="1" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B736" s="1" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="737" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A737" s="1" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B737" s="1" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="738" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A738" s="1" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B738" s="1" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="739" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A739" s="1" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B739" s="1" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="740" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A740" s="1" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B740" s="1" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="741" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A741" s="1" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B741" s="1" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="742" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A742" s="1" t="s">
+        <v>1447</v>
+      </c>
+      <c r="B742" s="1" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="743" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A743" s="1" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B743" s="1" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="744" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A744" s="1" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B744" s="1" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="745" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A745" s="1" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B745" s="1" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="746" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A746" s="1" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B746" s="1" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="747" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A747" s="1" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B747" s="1" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="748" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A748" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B748" s="1" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="749" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A749" s="1" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B749" s="1" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="750" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A750" s="1" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B750" s="1" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="751" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A751" s="1" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B751" s="1" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="752" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A752" s="1" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B752" s="1" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="753" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A753" s="1" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B753" s="1" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="754" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A754" s="1" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B754" s="1" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="755" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A755" s="1" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B755" s="1" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="756" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A756" s="1" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B756" s="1" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="757" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A757" s="1" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B757" s="1" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="758" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A758" s="1" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B758" s="1" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="759" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A759" s="1" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B759" s="1" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="760" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A760" s="1" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B760" s="1" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="761" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A761" s="1" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B761" s="1" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="762" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A762" s="1" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B762" s="1" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="763" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A763" s="1" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B763" s="1" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="764" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A764" s="1" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B764" s="1" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="765" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A765" s="1" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B765" s="1" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="766" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A766" s="1" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B766" s="1" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="767" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A767" s="1" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B767" s="1" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="768" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A768" s="1" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B768" s="1" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="769" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A769" s="1" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B769" s="1" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="770" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A770" s="1" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B770" s="1" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="771" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A771" s="1" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B771" s="1" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="772" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A772" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B772" s="1" t="s">
+        <v>1508</v>
       </c>
     </row>
   </sheetData>

--- a/単語3000.xlsx
+++ b/単語3000.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Developer\Github\japanese\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Developer\Github\japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D902FB-9744-463D-8E25-9E5A8E541379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15990" yWindow="2310" windowWidth="9360" windowHeight="13560"/>
+    <workbookView xWindow="20232" yWindow="2484" windowWidth="9360" windowHeight="13560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4286,10 +4287,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>へだてる</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>遠回り</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6045,13 +6042,17 @@
   </si>
   <si>
     <t>丢车保帅。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隔てる</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -6404,19 +6405,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B772"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A540" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A548" sqref="A548"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6424,7 +6427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -6432,7 +6435,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -6440,7 +6443,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -6448,7 +6451,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -6456,7 +6459,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -6464,7 +6467,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -6472,7 +6475,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -6480,7 +6483,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -6488,7 +6491,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -6496,7 +6499,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -6504,7 +6507,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -6512,7 +6515,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -6520,7 +6523,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -6528,7 +6531,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -6536,7 +6539,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
@@ -6544,7 +6547,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
@@ -6552,7 +6555,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>33</v>
       </c>
@@ -6560,7 +6563,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>35</v>
       </c>
@@ -6568,7 +6571,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>37</v>
       </c>
@@ -6576,7 +6579,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>39</v>
       </c>
@@ -6584,7 +6587,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>41</v>
       </c>
@@ -6592,7 +6595,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>43</v>
       </c>
@@ -6600,7 +6603,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>45</v>
       </c>
@@ -6608,7 +6611,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>47</v>
       </c>
@@ -6616,7 +6619,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>49</v>
       </c>
@@ -6624,7 +6627,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>51</v>
       </c>
@@ -6632,7 +6635,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>53</v>
       </c>
@@ -6640,7 +6643,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>55</v>
       </c>
@@ -6648,7 +6651,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>57</v>
       </c>
@@ -6656,7 +6659,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>59</v>
       </c>
@@ -6664,7 +6667,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>61</v>
       </c>
@@ -6672,7 +6675,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>63</v>
       </c>
@@ -6680,7 +6683,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>65</v>
       </c>
@@ -6688,7 +6691,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>67</v>
       </c>
@@ -6696,7 +6699,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>69</v>
       </c>
@@ -6704,7 +6707,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>71</v>
       </c>
@@ -6712,7 +6715,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>73</v>
       </c>
@@ -6720,7 +6723,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>74</v>
       </c>
@@ -6728,7 +6731,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>76</v>
       </c>
@@ -6736,7 +6739,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>78</v>
       </c>
@@ -6744,7 +6747,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>80</v>
       </c>
@@ -6752,7 +6755,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>82</v>
       </c>
@@ -6760,7 +6763,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>84</v>
       </c>
@@ -6768,7 +6771,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>86</v>
       </c>
@@ -6776,7 +6779,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>88</v>
       </c>
@@ -6784,7 +6787,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>90</v>
       </c>
@@ -6792,7 +6795,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>92</v>
       </c>
@@ -6800,7 +6803,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>94</v>
       </c>
@@ -6808,7 +6811,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>95</v>
       </c>
@@ -6816,7 +6819,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>97</v>
       </c>
@@ -6824,7 +6827,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>99</v>
       </c>
@@ -6832,7 +6835,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>101</v>
       </c>
@@ -6840,7 +6843,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>103</v>
       </c>
@@ -6848,7 +6851,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>105</v>
       </c>
@@ -6856,7 +6859,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>107</v>
       </c>
@@ -6864,7 +6867,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>109</v>
       </c>
@@ -6872,7 +6875,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>111</v>
       </c>
@@ -6880,7 +6883,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>113</v>
       </c>
@@ -6888,7 +6891,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>115</v>
       </c>
@@ -6896,7 +6899,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>117</v>
       </c>
@@ -6904,7 +6907,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>119</v>
       </c>
@@ -6912,7 +6915,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>121</v>
       </c>
@@ -6920,7 +6923,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>123</v>
       </c>
@@ -6928,7 +6931,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>125</v>
       </c>
@@ -6936,7 +6939,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>127</v>
       </c>
@@ -6944,7 +6947,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>129</v>
       </c>
@@ -6952,7 +6955,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>131</v>
       </c>
@@ -6960,7 +6963,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>133</v>
       </c>
@@ -6968,7 +6971,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>135</v>
       </c>
@@ -6976,7 +6979,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>137</v>
       </c>
@@ -6984,7 +6987,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>138</v>
       </c>
@@ -6992,7 +6995,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>139</v>
       </c>
@@ -7000,7 +7003,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>141</v>
       </c>
@@ -7008,7 +7011,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>143</v>
       </c>
@@ -7016,7 +7019,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>145</v>
       </c>
@@ -7024,7 +7027,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>147</v>
       </c>
@@ -7032,7 +7035,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>149</v>
       </c>
@@ -7040,7 +7043,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>151</v>
       </c>
@@ -7048,7 +7051,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>153</v>
       </c>
@@ -7056,7 +7059,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>155</v>
       </c>
@@ -7064,7 +7067,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>157</v>
       </c>
@@ -7072,7 +7075,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>159</v>
       </c>
@@ -7080,7 +7083,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>161</v>
       </c>
@@ -7088,7 +7091,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>163</v>
       </c>
@@ -7096,7 +7099,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>165</v>
       </c>
@@ -7104,7 +7107,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>167</v>
       </c>
@@ -7112,7 +7115,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>169</v>
       </c>
@@ -7120,7 +7123,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>171</v>
       </c>
@@ -7128,7 +7131,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>173</v>
       </c>
@@ -7136,7 +7139,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>175</v>
       </c>
@@ -7144,7 +7147,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>177</v>
       </c>
@@ -7152,7 +7155,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>179</v>
       </c>
@@ -7160,7 +7163,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>181</v>
       </c>
@@ -7168,7 +7171,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>183</v>
       </c>
@@ -7176,7 +7179,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>185</v>
       </c>
@@ -7184,7 +7187,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>187</v>
       </c>
@@ -7192,7 +7195,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>189</v>
       </c>
@@ -7200,7 +7203,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>191</v>
       </c>
@@ -7208,7 +7211,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>193</v>
       </c>
@@ -7216,7 +7219,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>195</v>
       </c>
@@ -7224,7 +7227,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>197</v>
       </c>
@@ -7232,7 +7235,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>199</v>
       </c>
@@ -7240,7 +7243,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>201</v>
       </c>
@@ -7248,7 +7251,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>203</v>
       </c>
@@ -7256,7 +7259,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>205</v>
       </c>
@@ -7264,7 +7267,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>207</v>
       </c>
@@ -7272,7 +7275,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>210</v>
       </c>
@@ -7280,7 +7283,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>211</v>
       </c>
@@ -7288,7 +7291,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>212</v>
       </c>
@@ -7296,7 +7299,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>214</v>
       </c>
@@ -7304,7 +7307,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>216</v>
       </c>
@@ -7312,7 +7315,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>218</v>
       </c>
@@ -7320,7 +7323,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>220</v>
       </c>
@@ -7328,7 +7331,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>222</v>
       </c>
@@ -7336,7 +7339,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>224</v>
       </c>
@@ -7344,7 +7347,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>226</v>
       </c>
@@ -7352,7 +7355,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>228</v>
       </c>
@@ -7360,7 +7363,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>230</v>
       </c>
@@ -7368,7 +7371,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>232</v>
       </c>
@@ -7376,7 +7379,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>234</v>
       </c>
@@ -7384,7 +7387,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>236</v>
       </c>
@@ -7392,7 +7395,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>238</v>
       </c>
@@ -7400,7 +7403,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>240</v>
       </c>
@@ -7408,7 +7411,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>242</v>
       </c>
@@ -7416,7 +7419,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>244</v>
       </c>
@@ -7424,7 +7427,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>246</v>
       </c>
@@ -7432,7 +7435,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>248</v>
       </c>
@@ -7440,7 +7443,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>250</v>
       </c>
@@ -7448,7 +7451,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>252</v>
       </c>
@@ -7456,7 +7459,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>254</v>
       </c>
@@ -7464,7 +7467,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>256</v>
       </c>
@@ -7472,7 +7475,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>258</v>
       </c>
@@ -7480,7 +7483,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>260</v>
       </c>
@@ -7488,7 +7491,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>262</v>
       </c>
@@ -7496,7 +7499,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>264</v>
       </c>
@@ -7504,7 +7507,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>266</v>
       </c>
@@ -7512,7 +7515,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>268</v>
       </c>
@@ -7520,7 +7523,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>270</v>
       </c>
@@ -7528,7 +7531,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>272</v>
       </c>
@@ -7536,7 +7539,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>274</v>
       </c>
@@ -7544,7 +7547,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>276</v>
       </c>
@@ -7552,7 +7555,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>278</v>
       </c>
@@ -7560,7 +7563,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>280</v>
       </c>
@@ -7568,7 +7571,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>282</v>
       </c>
@@ -7576,7 +7579,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>284</v>
       </c>
@@ -7584,7 +7587,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>286</v>
       </c>
@@ -7592,7 +7595,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>288</v>
       </c>
@@ -7600,7 +7603,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>290</v>
       </c>
@@ -7608,7 +7611,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>292</v>
       </c>
@@ -7616,7 +7619,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>294</v>
       </c>
@@ -7624,7 +7627,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>758</v>
       </c>
@@ -7632,7 +7635,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>297</v>
       </c>
@@ -7640,7 +7643,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>299</v>
       </c>
@@ -7648,7 +7651,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>300</v>
       </c>
@@ -7656,7 +7659,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>302</v>
       </c>
@@ -7664,7 +7667,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>304</v>
       </c>
@@ -7672,7 +7675,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>306</v>
       </c>
@@ -7680,7 +7683,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>308</v>
       </c>
@@ -7688,7 +7691,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>310</v>
       </c>
@@ -7696,7 +7699,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>312</v>
       </c>
@@ -7704,7 +7707,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>314</v>
       </c>
@@ -7712,7 +7715,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>316</v>
       </c>
@@ -7720,7 +7723,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>318</v>
       </c>
@@ -7728,7 +7731,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>320</v>
       </c>
@@ -7736,7 +7739,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>322</v>
       </c>
@@ -7744,7 +7747,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>324</v>
       </c>
@@ -7752,7 +7755,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>326</v>
       </c>
@@ -7760,7 +7763,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>328</v>
       </c>
@@ -7768,7 +7771,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>330</v>
       </c>
@@ -7776,7 +7779,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>332</v>
       </c>
@@ -7784,7 +7787,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>334</v>
       </c>
@@ -7792,7 +7795,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>336</v>
       </c>
@@ -7800,7 +7803,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>338</v>
       </c>
@@ -7808,7 +7811,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>340</v>
       </c>
@@ -7816,7 +7819,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>342</v>
       </c>
@@ -7824,7 +7827,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>344</v>
       </c>
@@ -7832,7 +7835,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>346</v>
       </c>
@@ -7840,7 +7843,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>348</v>
       </c>
@@ -7848,7 +7851,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>350</v>
       </c>
@@ -7856,7 +7859,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>352</v>
       </c>
@@ -7864,7 +7867,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>354</v>
       </c>
@@ -7872,7 +7875,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>356</v>
       </c>
@@ -7880,7 +7883,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>358</v>
       </c>
@@ -7888,7 +7891,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>360</v>
       </c>
@@ -7896,7 +7899,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>362</v>
       </c>
@@ -7904,7 +7907,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>364</v>
       </c>
@@ -7912,7 +7915,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>366</v>
       </c>
@@ -7920,7 +7923,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>368</v>
       </c>
@@ -7928,7 +7931,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>370</v>
       </c>
@@ -7936,7 +7939,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>372</v>
       </c>
@@ -7944,7 +7947,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>374</v>
       </c>
@@ -7952,7 +7955,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>376</v>
       </c>
@@ -7960,7 +7963,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>378</v>
       </c>
@@ -7968,7 +7971,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>380</v>
       </c>
@@ -7976,7 +7979,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>382</v>
       </c>
@@ -7984,7 +7987,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>384</v>
       </c>
@@ -7992,7 +7995,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>386</v>
       </c>
@@ -8000,7 +8003,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>388</v>
       </c>
@@ -8008,7 +8011,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>390</v>
       </c>
@@ -8016,7 +8019,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>392</v>
       </c>
@@ -8024,7 +8027,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>394</v>
       </c>
@@ -8032,7 +8035,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>396</v>
       </c>
@@ -8040,7 +8043,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>398</v>
       </c>
@@ -8048,7 +8051,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>399</v>
       </c>
@@ -8056,7 +8059,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>401</v>
       </c>
@@ -8064,7 +8067,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>403</v>
       </c>
@@ -8072,7 +8075,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>405</v>
       </c>
@@ -8080,7 +8083,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>407</v>
       </c>
@@ -8088,7 +8091,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>408</v>
       </c>
@@ -8096,7 +8099,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>410</v>
       </c>
@@ -8104,7 +8107,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>412</v>
       </c>
@@ -8112,7 +8115,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>413</v>
       </c>
@@ -8120,7 +8123,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>415</v>
       </c>
@@ -8128,7 +8131,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>417</v>
       </c>
@@ -8136,7 +8139,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>419</v>
       </c>
@@ -8144,7 +8147,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>421</v>
       </c>
@@ -8152,7 +8155,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>423</v>
       </c>
@@ -8160,7 +8163,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>425</v>
       </c>
@@ -8168,7 +8171,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>427</v>
       </c>
@@ -8176,7 +8179,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>429</v>
       </c>
@@ -8184,7 +8187,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>431</v>
       </c>
@@ -8192,7 +8195,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>432</v>
       </c>
@@ -8200,7 +8203,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>434</v>
       </c>
@@ -8208,7 +8211,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>436</v>
       </c>
@@ -8216,7 +8219,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>438</v>
       </c>
@@ -8224,7 +8227,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>440</v>
       </c>
@@ -8232,7 +8235,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>442</v>
       </c>
@@ -8240,7 +8243,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>444</v>
       </c>
@@ -8248,7 +8251,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>446</v>
       </c>
@@ -8256,7 +8259,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>448</v>
       </c>
@@ -8264,7 +8267,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>450</v>
       </c>
@@ -8272,7 +8275,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>452</v>
       </c>
@@ -8280,7 +8283,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>454</v>
       </c>
@@ -8288,7 +8291,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>456</v>
       </c>
@@ -8296,7 +8299,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>458</v>
       </c>
@@ -8304,7 +8307,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>460</v>
       </c>
@@ -8312,7 +8315,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>462</v>
       </c>
@@ -8320,7 +8323,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>464</v>
       </c>
@@ -8328,7 +8331,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>466</v>
       </c>
@@ -8336,7 +8339,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>468</v>
       </c>
@@ -8344,7 +8347,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>470</v>
       </c>
@@ -8352,7 +8355,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>471</v>
       </c>
@@ -8360,7 +8363,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>473</v>
       </c>
@@ -8368,7 +8371,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>475</v>
       </c>
@@ -8376,7 +8379,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>477</v>
       </c>
@@ -8384,7 +8387,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>479</v>
       </c>
@@ -8392,7 +8395,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>481</v>
       </c>
@@ -8400,7 +8403,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>483</v>
       </c>
@@ -8408,7 +8411,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>485</v>
       </c>
@@ -8416,7 +8419,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>487</v>
       </c>
@@ -8424,7 +8427,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>489</v>
       </c>
@@ -8432,7 +8435,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>491</v>
       </c>
@@ -8440,7 +8443,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>493</v>
       </c>
@@ -8448,7 +8451,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>495</v>
       </c>
@@ -8456,7 +8459,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>497</v>
       </c>
@@ -8464,7 +8467,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>499</v>
       </c>
@@ -8472,7 +8475,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>501</v>
       </c>
@@ -8480,7 +8483,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>503</v>
       </c>
@@ -8488,7 +8491,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>505</v>
       </c>
@@ -8496,7 +8499,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>507</v>
       </c>
@@ -8504,7 +8507,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>509</v>
       </c>
@@ -8512,7 +8515,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>511</v>
       </c>
@@ -8520,7 +8523,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>513</v>
       </c>
@@ -8528,7 +8531,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>515</v>
       </c>
@@ -8536,7 +8539,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>517</v>
       </c>
@@ -8544,7 +8547,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>519</v>
       </c>
@@ -8552,7 +8555,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>521</v>
       </c>
@@ -8560,7 +8563,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>523</v>
       </c>
@@ -8568,7 +8571,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>525</v>
       </c>
@@ -8576,7 +8579,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>527</v>
       </c>
@@ -8584,7 +8587,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>529</v>
       </c>
@@ -8592,7 +8595,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>531</v>
       </c>
@@ -8600,7 +8603,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>533</v>
       </c>
@@ -8608,7 +8611,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>535</v>
       </c>
@@ -8616,7 +8619,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>537</v>
       </c>
@@ -8624,7 +8627,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>539</v>
       </c>
@@ -8632,7 +8635,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>541</v>
       </c>
@@ -8640,7 +8643,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>543</v>
       </c>
@@ -8648,7 +8651,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>545</v>
       </c>
@@ -8656,7 +8659,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>547</v>
       </c>
@@ -8664,7 +8667,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>549</v>
       </c>
@@ -8672,7 +8675,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>551</v>
       </c>
@@ -8680,7 +8683,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>553</v>
       </c>
@@ -8688,7 +8691,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>555</v>
       </c>
@@ -8696,7 +8699,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>557</v>
       </c>
@@ -8704,7 +8707,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>559</v>
       </c>
@@ -8712,7 +8715,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>561</v>
       </c>
@@ -8720,7 +8723,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>563</v>
       </c>
@@ -8728,7 +8731,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>565</v>
       </c>
@@ -8736,7 +8739,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>567</v>
       </c>
@@ -8744,7 +8747,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>569</v>
       </c>
@@ -8752,7 +8755,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>571</v>
       </c>
@@ -8760,7 +8763,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>573</v>
       </c>
@@ -8768,7 +8771,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>575</v>
       </c>
@@ -8776,7 +8779,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>577</v>
       </c>
@@ -8784,7 +8787,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>579</v>
       </c>
@@ -8792,7 +8795,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>581</v>
       </c>
@@ -8800,7 +8803,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>583</v>
       </c>
@@ -8808,7 +8811,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>585</v>
       </c>
@@ -8816,7 +8819,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>587</v>
       </c>
@@ -8824,7 +8827,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>589</v>
       </c>
@@ -8832,7 +8835,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>591</v>
       </c>
@@ -8840,7 +8843,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>593</v>
       </c>
@@ -8848,7 +8851,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>595</v>
       </c>
@@ -8856,7 +8859,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>597</v>
       </c>
@@ -8864,7 +8867,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>599</v>
       </c>
@@ -8872,7 +8875,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>601</v>
       </c>
@@ -8880,7 +8883,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>603</v>
       </c>
@@ -8888,7 +8891,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
         <v>605</v>
       </c>
@@ -8896,7 +8899,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
         <v>607</v>
       </c>
@@ -8904,7 +8907,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
         <v>609</v>
       </c>
@@ -8912,7 +8915,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
         <v>611</v>
       </c>
@@ -8920,7 +8923,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
         <v>613</v>
       </c>
@@ -8928,7 +8931,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
         <v>615</v>
       </c>
@@ -8936,7 +8939,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
         <v>617</v>
       </c>
@@ -8944,7 +8947,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
         <v>619</v>
       </c>
@@ -8952,7 +8955,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
         <v>621</v>
       </c>
@@ -8960,7 +8963,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
         <v>623</v>
       </c>
@@ -8968,7 +8971,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>625</v>
       </c>
@@ -8976,7 +8979,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
         <v>627</v>
       </c>
@@ -8984,7 +8987,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
         <v>629</v>
       </c>
@@ -8992,7 +8995,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
         <v>630</v>
       </c>
@@ -9000,7 +9003,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
         <v>632</v>
       </c>
@@ -9008,7 +9011,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
         <v>635</v>
       </c>
@@ -9016,7 +9019,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
         <v>636</v>
       </c>
@@ -9024,7 +9027,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
         <v>638</v>
       </c>
@@ -9032,7 +9035,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
         <v>640</v>
       </c>
@@ -9040,7 +9043,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
         <v>641</v>
       </c>
@@ -9048,7 +9051,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
         <v>643</v>
       </c>
@@ -9056,7 +9059,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
         <v>645</v>
       </c>
@@ -9064,7 +9067,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
         <v>647</v>
       </c>
@@ -9072,7 +9075,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
         <v>649</v>
       </c>
@@ -9080,7 +9083,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
         <v>651</v>
       </c>
@@ -9088,7 +9091,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
         <v>653</v>
       </c>
@@ -9096,7 +9099,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
         <v>656</v>
       </c>
@@ -9104,7 +9107,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
         <v>657</v>
       </c>
@@ -9112,7 +9115,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
         <v>659</v>
       </c>
@@ -9120,7 +9123,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
         <v>661</v>
       </c>
@@ -9128,7 +9131,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
         <v>663</v>
       </c>
@@ -9136,7 +9139,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
         <v>665</v>
       </c>
@@ -9144,7 +9147,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
         <v>667</v>
       </c>
@@ -9152,7 +9155,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
         <v>669</v>
       </c>
@@ -9160,7 +9163,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
         <v>669</v>
       </c>
@@ -9168,7 +9171,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
         <v>672</v>
       </c>
@@ -9176,7 +9179,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
         <v>674</v>
       </c>
@@ -9184,7 +9187,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
         <v>676</v>
       </c>
@@ -9192,7 +9195,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
         <v>678</v>
       </c>
@@ -9200,7 +9203,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
         <v>679</v>
       </c>
@@ -9208,7 +9211,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
         <v>681</v>
       </c>
@@ -9216,7 +9219,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
         <v>683</v>
       </c>
@@ -9224,7 +9227,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
         <v>685</v>
       </c>
@@ -9232,7 +9235,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
         <v>687</v>
       </c>
@@ -9240,7 +9243,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
         <v>689</v>
       </c>
@@ -9248,7 +9251,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
         <v>691</v>
       </c>
@@ -9256,7 +9259,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
         <v>693</v>
       </c>
@@ -9264,7 +9267,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
         <v>695</v>
       </c>
@@ -9272,7 +9275,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
         <v>697</v>
       </c>
@@ -9280,7 +9283,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
         <v>698</v>
       </c>
@@ -9288,7 +9291,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
         <v>700</v>
       </c>
@@ -9296,7 +9299,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
         <v>702</v>
       </c>
@@ -9304,7 +9307,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
         <v>704</v>
       </c>
@@ -9312,7 +9315,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
         <v>706</v>
       </c>
@@ -9320,7 +9323,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
         <v>708</v>
       </c>
@@ -9328,7 +9331,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
         <v>710</v>
       </c>
@@ -9336,7 +9339,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
         <v>712</v>
       </c>
@@ -9344,7 +9347,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
         <v>714</v>
       </c>
@@ -9352,7 +9355,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="370" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
         <v>717</v>
       </c>
@@ -9360,7 +9363,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
         <v>718</v>
       </c>
@@ -9368,7 +9371,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
         <v>720</v>
       </c>
@@ -9376,7 +9379,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
         <v>722</v>
       </c>
@@ -9384,7 +9387,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
         <v>724</v>
       </c>
@@ -9392,7 +9395,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
         <v>725</v>
       </c>
@@ -9400,7 +9403,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
         <v>727</v>
       </c>
@@ -9408,7 +9411,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
         <v>729</v>
       </c>
@@ -9416,7 +9419,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
         <v>730</v>
       </c>
@@ -9424,7 +9427,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
         <v>732</v>
       </c>
@@ -9432,7 +9435,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
         <v>734</v>
       </c>
@@ -9440,7 +9443,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
         <v>736</v>
       </c>
@@ -9448,7 +9451,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
         <v>738</v>
       </c>
@@ -9456,7 +9459,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
         <v>740</v>
       </c>
@@ -9464,7 +9467,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
         <v>741</v>
       </c>
@@ -9472,7 +9475,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
         <v>743</v>
       </c>
@@ -9480,7 +9483,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
         <v>745</v>
       </c>
@@ -9488,7 +9491,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
         <v>747</v>
       </c>
@@ -9496,7 +9499,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
         <v>749</v>
       </c>
@@ -9504,7 +9507,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
         <v>751</v>
       </c>
@@ -9512,7 +9515,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
         <v>753</v>
       </c>
@@ -9520,7 +9523,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
         <v>759</v>
       </c>
@@ -9528,7 +9531,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
         <v>761</v>
       </c>
@@ -9536,7 +9539,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
         <v>763</v>
       </c>
@@ -9544,7 +9547,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
         <v>765</v>
       </c>
@@ -9552,7 +9555,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
         <v>767</v>
       </c>
@@ -9560,7 +9563,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
         <v>769</v>
       </c>
@@ -9568,7 +9571,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
         <v>771</v>
       </c>
@@ -9576,7 +9579,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
         <v>773</v>
       </c>
@@ -9584,7 +9587,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
         <v>775</v>
       </c>
@@ -9592,7 +9595,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
         <v>777</v>
       </c>
@@ -9600,7 +9603,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
         <v>779</v>
       </c>
@@ -9608,7 +9611,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
         <v>781</v>
       </c>
@@ -9616,7 +9619,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
         <v>783</v>
       </c>
@@ -9624,7 +9627,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
         <v>785</v>
       </c>
@@ -9632,7 +9635,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
         <v>787</v>
       </c>
@@ -9640,7 +9643,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
         <v>789</v>
       </c>
@@ -9648,7 +9651,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
         <v>791</v>
       </c>
@@ -9656,7 +9659,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
         <v>793</v>
       </c>
@@ -9664,7 +9667,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
         <v>795</v>
       </c>
@@ -9672,7 +9675,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
         <v>798</v>
       </c>
@@ -9680,7 +9683,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
         <v>800</v>
       </c>
@@ -9688,7 +9691,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
         <v>801</v>
       </c>
@@ -9696,7 +9699,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
         <v>803</v>
       </c>
@@ -9704,7 +9707,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
         <v>805</v>
       </c>
@@ -9712,7 +9715,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
         <v>807</v>
       </c>
@@ -9720,7 +9723,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
         <v>809</v>
       </c>
@@ -9728,7 +9731,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
         <v>811</v>
       </c>
@@ -9736,7 +9739,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
         <v>813</v>
       </c>
@@ -9744,7 +9747,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
         <v>815</v>
       </c>
@@ -9752,7 +9755,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
         <v>817</v>
       </c>
@@ -9760,7 +9763,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
         <v>818</v>
       </c>
@@ -9768,7 +9771,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
         <v>820</v>
       </c>
@@ -9776,7 +9779,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
         <v>822</v>
       </c>
@@ -9784,7 +9787,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
         <v>824</v>
       </c>
@@ -9792,7 +9795,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
         <v>826</v>
       </c>
@@ -9800,7 +9803,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
         <v>828</v>
       </c>
@@ -9808,7 +9811,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
         <v>830</v>
       </c>
@@ -9816,7 +9819,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
         <v>835</v>
       </c>
@@ -9824,7 +9827,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
         <v>833</v>
       </c>
@@ -9832,7 +9835,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
         <v>836</v>
       </c>
@@ -9840,7 +9843,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
         <v>838</v>
       </c>
@@ -9848,7 +9851,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
         <v>840</v>
       </c>
@@ -9856,7 +9859,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
         <v>842</v>
       </c>
@@ -9864,7 +9867,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
         <v>844</v>
       </c>
@@ -9872,7 +9875,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
         <v>846</v>
       </c>
@@ -9880,7 +9883,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
         <v>848</v>
       </c>
@@ -9888,7 +9891,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
         <v>849</v>
       </c>
@@ -9896,7 +9899,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
         <v>851</v>
       </c>
@@ -9904,7 +9907,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
         <v>853</v>
       </c>
@@ -9912,7 +9915,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
         <v>855</v>
       </c>
@@ -9920,7 +9923,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
         <v>857</v>
       </c>
@@ -9928,7 +9931,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
         <v>859</v>
       </c>
@@ -9936,7 +9939,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
         <v>861</v>
       </c>
@@ -9944,7 +9947,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
         <v>863</v>
       </c>
@@ -9952,7 +9955,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
         <v>865</v>
       </c>
@@ -9960,7 +9963,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
         <v>867</v>
       </c>
@@ -9968,7 +9971,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
         <v>869</v>
       </c>
@@ -9976,7 +9979,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
         <v>872</v>
       </c>
@@ -9984,7 +9987,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450" s="1" t="s">
         <v>873</v>
       </c>
@@ -9992,7 +9995,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451" s="1" t="s">
         <v>875</v>
       </c>
@@ -10000,7 +10003,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452" s="1" t="s">
         <v>877</v>
       </c>
@@ -10008,7 +10011,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453" s="1" t="s">
         <v>879</v>
       </c>
@@ -10016,7 +10019,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454" s="1" t="s">
         <v>881</v>
       </c>
@@ -10024,7 +10027,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455" s="1" t="s">
         <v>883</v>
       </c>
@@ -10032,7 +10035,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456" s="1" t="s">
         <v>885</v>
       </c>
@@ -10040,7 +10043,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457" s="1" t="s">
         <v>887</v>
       </c>
@@ -10048,7 +10051,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458" s="1" t="s">
         <v>889</v>
       </c>
@@ -10056,7 +10059,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
         <v>891</v>
       </c>
@@ -10064,7 +10067,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460" s="1" t="s">
         <v>893</v>
       </c>
@@ -10072,7 +10075,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461" s="1" t="s">
         <v>895</v>
       </c>
@@ -10080,7 +10083,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462" s="1" t="s">
         <v>897</v>
       </c>
@@ -10088,7 +10091,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463" s="1" t="s">
         <v>899</v>
       </c>
@@ -10096,7 +10099,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464" s="1" t="s">
         <v>901</v>
       </c>
@@ -10104,7 +10107,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465" s="1" t="s">
         <v>903</v>
       </c>
@@ -10112,7 +10115,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466" s="1" t="s">
         <v>905</v>
       </c>
@@ -10120,7 +10123,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467" s="1" t="s">
         <v>907</v>
       </c>
@@ -10128,7 +10131,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468" s="1" t="s">
         <v>909</v>
       </c>
@@ -10136,7 +10139,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A469" s="1" t="s">
         <v>911</v>
       </c>
@@ -10144,7 +10147,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470" s="1" t="s">
         <v>913</v>
       </c>
@@ -10152,7 +10155,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A471" s="1" t="s">
         <v>914</v>
       </c>
@@ -10160,7 +10163,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A472" s="1" t="s">
         <v>916</v>
       </c>
@@ -10168,7 +10171,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473" s="1" t="s">
         <v>918</v>
       </c>
@@ -10176,7 +10179,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474" s="1" t="s">
         <v>920</v>
       </c>
@@ -10184,7 +10187,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A475" s="1" t="s">
         <v>922</v>
       </c>
@@ -10192,7 +10195,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A476" s="1" t="s">
         <v>924</v>
       </c>
@@ -10200,7 +10203,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A477" s="1" t="s">
         <v>926</v>
       </c>
@@ -10208,7 +10211,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A478" s="1" t="s">
         <v>928</v>
       </c>
@@ -10216,7 +10219,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479" s="1" t="s">
         <v>930</v>
       </c>
@@ -10224,7 +10227,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480" s="1" t="s">
         <v>932</v>
       </c>
@@ -10232,7 +10235,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481" s="1" t="s">
         <v>934</v>
       </c>
@@ -10240,7 +10243,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482" s="1" t="s">
         <v>936</v>
       </c>
@@ -10248,7 +10251,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483" s="1" t="s">
         <v>938</v>
       </c>
@@ -10256,7 +10259,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484" s="1" t="s">
         <v>940</v>
       </c>
@@ -10264,7 +10267,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485" s="1" t="s">
         <v>942</v>
       </c>
@@ -10272,7 +10275,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A486" s="1" t="s">
         <v>944</v>
       </c>
@@ -10280,7 +10283,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487" s="1" t="s">
         <v>946</v>
       </c>
@@ -10288,7 +10291,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A488" s="1" t="s">
         <v>948</v>
       </c>
@@ -10296,7 +10299,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A489" s="1" t="s">
         <v>950</v>
       </c>
@@ -10304,7 +10307,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490" s="1" t="s">
         <v>952</v>
       </c>
@@ -10312,7 +10315,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A491" s="1" t="s">
         <v>954</v>
       </c>
@@ -10320,7 +10323,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A492" s="1" t="s">
         <v>956</v>
       </c>
@@ -10328,7 +10331,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A493" s="1" t="s">
         <v>958</v>
       </c>
@@ -10336,7 +10339,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A494" s="1" t="s">
         <v>960</v>
       </c>
@@ -10344,7 +10347,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A495" s="1" t="s">
         <v>963</v>
       </c>
@@ -10352,7 +10355,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A496" s="1" t="s">
         <v>964</v>
       </c>
@@ -10360,7 +10363,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A497" s="1" t="s">
         <v>966</v>
       </c>
@@ -10368,7 +10371,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A498" s="1" t="s">
         <v>968</v>
       </c>
@@ -10376,7 +10379,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A499" s="1" t="s">
         <v>970</v>
       </c>
@@ -10384,7 +10387,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A500" s="1" t="s">
         <v>971</v>
       </c>
@@ -10392,7 +10395,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A501" s="1" t="s">
         <v>973</v>
       </c>
@@ -10400,7 +10403,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A502" s="1" t="s">
         <v>975</v>
       </c>
@@ -10408,7 +10411,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A503" s="1" t="s">
         <v>977</v>
       </c>
@@ -10416,7 +10419,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A504" s="1" t="s">
         <v>979</v>
       </c>
@@ -10424,7 +10427,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A505" s="1" t="s">
         <v>981</v>
       </c>
@@ -10432,7 +10435,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A506" s="1" t="s">
         <v>983</v>
       </c>
@@ -10440,7 +10443,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A507" s="1" t="s">
         <v>985</v>
       </c>
@@ -10448,7 +10451,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A508" s="1" t="s">
         <v>987</v>
       </c>
@@ -10456,7 +10459,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A509" s="1" t="s">
         <v>989</v>
       </c>
@@ -10464,7 +10467,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A510" s="1" t="s">
         <v>991</v>
       </c>
@@ -10472,7 +10475,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A511" s="1" t="s">
         <v>993</v>
       </c>
@@ -10480,7 +10483,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A512" s="1" t="s">
         <v>995</v>
       </c>
@@ -10488,7 +10491,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A513" s="1" t="s">
         <v>997</v>
       </c>
@@ -10496,7 +10499,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A514" s="1" t="s">
         <v>999</v>
       </c>
@@ -10504,7 +10507,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A515" s="1" t="s">
         <v>1000</v>
       </c>
@@ -10512,7 +10515,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A516" s="1" t="s">
         <v>1002</v>
       </c>
@@ -10520,7 +10523,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A517" s="1" t="s">
         <v>1004</v>
       </c>
@@ -10528,7 +10531,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A518" s="1" t="s">
         <v>1006</v>
       </c>
@@ -10536,7 +10539,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A519" s="1" t="s">
         <v>1008</v>
       </c>
@@ -10544,7 +10547,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A520" s="1" t="s">
         <v>1010</v>
       </c>
@@ -10552,7 +10555,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A521" s="1" t="s">
         <v>1012</v>
       </c>
@@ -10560,7 +10563,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A522" s="1" t="s">
         <v>1014</v>
       </c>
@@ -10568,7 +10571,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A523" s="1" t="s">
         <v>1016</v>
       </c>
@@ -10576,7 +10579,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A524" s="1" t="s">
         <v>1018</v>
       </c>
@@ -10584,7 +10587,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A525" s="1" t="s">
         <v>1020</v>
       </c>
@@ -10592,7 +10595,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A526" s="1" t="s">
         <v>1022</v>
       </c>
@@ -10600,7 +10603,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A527" s="1" t="s">
         <v>1024</v>
       </c>
@@ -10608,7 +10611,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A528" s="1" t="s">
         <v>1026</v>
       </c>
@@ -10616,7 +10619,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A529" s="1" t="s">
         <v>1028</v>
       </c>
@@ -10624,7 +10627,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A530" s="1" t="s">
         <v>1030</v>
       </c>
@@ -10632,7 +10635,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A531" s="1" t="s">
         <v>1032</v>
       </c>
@@ -10640,7 +10643,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A532" s="1" t="s">
         <v>1034</v>
       </c>
@@ -10648,7 +10651,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A533" s="1" t="s">
         <v>1036</v>
       </c>
@@ -10656,7 +10659,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A534" s="1" t="s">
         <v>1038</v>
       </c>
@@ -10664,7 +10667,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A535" s="1" t="s">
         <v>1040</v>
       </c>
@@ -10672,7 +10675,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A536" s="1" t="s">
         <v>1042</v>
       </c>
@@ -10680,7 +10683,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A537" s="1" t="s">
         <v>1044</v>
       </c>
@@ -10688,7 +10691,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A538" s="1" t="s">
         <v>1046</v>
       </c>
@@ -10696,7 +10699,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A539" s="1" t="s">
         <v>1048</v>
       </c>
@@ -10704,7 +10707,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A540" s="1" t="s">
         <v>1050</v>
       </c>
@@ -10712,7 +10715,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A541" s="1" t="s">
         <v>1052</v>
       </c>
@@ -10720,7 +10723,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A542" s="1" t="s">
         <v>1055</v>
       </c>
@@ -10728,7 +10731,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A543" s="1" t="s">
         <v>1056</v>
       </c>
@@ -10736,7 +10739,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A544" s="1" t="s">
         <v>1058</v>
       </c>
@@ -10744,7 +10747,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A545" s="1" t="s">
         <v>1060</v>
       </c>
@@ -10752,7 +10755,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A546" s="1" t="s">
         <v>1062</v>
       </c>
@@ -10760,7 +10763,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A547" s="1" t="s">
         <v>1064</v>
       </c>
@@ -10768,1796 +10771,1796 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A548" s="1" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B548" s="1" t="s">
         <v>1066</v>
       </c>
-      <c r="B548" s="1" t="s">
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A549" s="1" t="s">
         <v>1067</v>
       </c>
-    </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A549" s="1" t="s">
+      <c r="B549" s="1" t="s">
         <v>1068</v>
       </c>
-      <c r="B549" s="1" t="s">
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A550" s="1" t="s">
         <v>1069</v>
       </c>
-    </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A550" s="1" t="s">
+      <c r="B550" s="1" t="s">
         <v>1070</v>
       </c>
-      <c r="B550" s="1" t="s">
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A551" s="1" t="s">
         <v>1071</v>
       </c>
-    </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A551" s="1" t="s">
+      <c r="B551" s="1" t="s">
         <v>1072</v>
       </c>
-      <c r="B551" s="1" t="s">
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A552" s="1" t="s">
         <v>1073</v>
       </c>
-    </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A552" s="1" t="s">
+      <c r="B552" s="1" t="s">
         <v>1074</v>
       </c>
-      <c r="B552" s="1" t="s">
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A553" s="1" t="s">
         <v>1075</v>
       </c>
-    </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A553" s="1" t="s">
+      <c r="B553" s="1" t="s">
         <v>1076</v>
       </c>
-      <c r="B553" s="1" t="s">
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A554" s="1" t="s">
         <v>1077</v>
       </c>
-    </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A554" s="1" t="s">
+      <c r="B554" s="1" t="s">
         <v>1078</v>
       </c>
-      <c r="B554" s="1" t="s">
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A555" s="1" t="s">
         <v>1079</v>
       </c>
-    </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A555" s="1" t="s">
+      <c r="B555" s="1" t="s">
         <v>1080</v>
       </c>
-      <c r="B555" s="1" t="s">
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A556" s="1" t="s">
         <v>1081</v>
       </c>
-    </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A556" s="1" t="s">
+      <c r="B556" s="1" t="s">
         <v>1082</v>
       </c>
-      <c r="B556" s="1" t="s">
+    </row>
+    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A557" s="1" t="s">
         <v>1083</v>
       </c>
-    </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A557" s="1" t="s">
+      <c r="B557" s="1" t="s">
         <v>1084</v>
       </c>
-      <c r="B557" s="1" t="s">
+    </row>
+    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A558" s="1" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A558" s="1" t="s">
+      <c r="B558" s="1" t="s">
         <v>1086</v>
       </c>
-      <c r="B558" s="1" t="s">
+    </row>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A559" s="1" t="s">
         <v>1087</v>
       </c>
-    </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A559" s="1" t="s">
+      <c r="B559" s="1" t="s">
         <v>1088</v>
       </c>
-      <c r="B559" s="1" t="s">
+    </row>
+    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A560" s="1" t="s">
         <v>1089</v>
       </c>
-    </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A560" s="1" t="s">
+      <c r="B560" s="1" t="s">
         <v>1090</v>
       </c>
-      <c r="B560" s="1" t="s">
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A561" s="1" t="s">
         <v>1091</v>
       </c>
-    </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A561" s="1" t="s">
+      <c r="B561" s="1" t="s">
         <v>1092</v>
       </c>
-      <c r="B561" s="1" t="s">
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A562" s="1" t="s">
         <v>1093</v>
       </c>
-    </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A562" s="1" t="s">
+      <c r="B562" s="1" t="s">
         <v>1094</v>
       </c>
-      <c r="B562" s="1" t="s">
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A563" s="1" t="s">
         <v>1095</v>
       </c>
-    </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A563" s="1" t="s">
+      <c r="B563" s="1" t="s">
         <v>1096</v>
       </c>
-      <c r="B563" s="1" t="s">
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A564" s="1" t="s">
         <v>1097</v>
       </c>
-    </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A564" s="1" t="s">
+      <c r="B564" s="1" t="s">
         <v>1098</v>
       </c>
-      <c r="B564" s="1" t="s">
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A565" s="1" t="s">
         <v>1099</v>
       </c>
-    </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A565" s="1" t="s">
+      <c r="B565" s="1" t="s">
         <v>1100</v>
       </c>
-      <c r="B565" s="1" t="s">
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A566" s="1" t="s">
         <v>1101</v>
       </c>
-    </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A566" s="1" t="s">
+      <c r="B566" s="1" t="s">
         <v>1102</v>
       </c>
-      <c r="B566" s="1" t="s">
+    </row>
+    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A567" s="1" t="s">
         <v>1103</v>
       </c>
-    </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A567" s="1" t="s">
+      <c r="B567" s="1" t="s">
         <v>1104</v>
       </c>
-      <c r="B567" s="1" t="s">
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A568" s="1" t="s">
         <v>1105</v>
       </c>
-    </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A568" s="1" t="s">
+      <c r="B568" s="1" t="s">
         <v>1106</v>
       </c>
-      <c r="B568" s="1" t="s">
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A569" s="1" t="s">
         <v>1107</v>
       </c>
-    </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A569" s="1" t="s">
+      <c r="B569" s="1" t="s">
         <v>1108</v>
       </c>
-      <c r="B569" s="1" t="s">
+    </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A570" s="1" t="s">
         <v>1109</v>
       </c>
-    </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A570" s="1" t="s">
+      <c r="B570" s="1" t="s">
         <v>1110</v>
       </c>
-      <c r="B570" s="1" t="s">
+    </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A571" s="1" t="s">
         <v>1111</v>
       </c>
-    </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A571" s="1" t="s">
+      <c r="B571" s="1" t="s">
         <v>1112</v>
       </c>
-      <c r="B571" s="1" t="s">
+    </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A572" s="1" t="s">
         <v>1113</v>
       </c>
-    </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A572" s="1" t="s">
+      <c r="B572" s="1" t="s">
         <v>1114</v>
       </c>
-      <c r="B572" s="1" t="s">
+    </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A573" s="1" t="s">
         <v>1115</v>
       </c>
-    </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A573" s="1" t="s">
+      <c r="B573" s="1" t="s">
         <v>1116</v>
       </c>
-      <c r="B573" s="1" t="s">
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A574" s="1" t="s">
         <v>1117</v>
       </c>
-    </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A574" s="1" t="s">
+      <c r="B574" s="1" t="s">
         <v>1118</v>
       </c>
-      <c r="B574" s="1" t="s">
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A575" s="1" t="s">
         <v>1119</v>
       </c>
-    </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A575" s="1" t="s">
+      <c r="B575" s="1" t="s">
         <v>1120</v>
       </c>
-      <c r="B575" s="1" t="s">
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A576" s="1" t="s">
         <v>1121</v>
       </c>
-    </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A576" s="1" t="s">
+      <c r="B576" s="1" t="s">
         <v>1122</v>
       </c>
-      <c r="B576" s="1" t="s">
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A577" s="1" t="s">
         <v>1123</v>
       </c>
-    </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A577" s="1" t="s">
+      <c r="B577" s="1" t="s">
         <v>1124</v>
       </c>
-      <c r="B577" s="1" t="s">
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A579" s="1" t="s">
         <v>1125</v>
       </c>
-    </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A579" s="1" t="s">
+      <c r="B579" s="1" t="s">
         <v>1126</v>
       </c>
-      <c r="B579" s="1" t="s">
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A580" s="1" t="s">
         <v>1127</v>
       </c>
-    </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A580" s="1" t="s">
+      <c r="B580" s="1" t="s">
         <v>1128</v>
       </c>
-      <c r="B580" s="1" t="s">
+    </row>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A581" s="1" t="s">
         <v>1129</v>
       </c>
-    </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A581" s="1" t="s">
+      <c r="B581" s="1" t="s">
         <v>1130</v>
       </c>
-      <c r="B581" s="1" t="s">
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A582" s="1" t="s">
         <v>1131</v>
       </c>
-    </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A582" s="1" t="s">
+      <c r="B582" s="1" t="s">
         <v>1132</v>
       </c>
-      <c r="B582" s="1" t="s">
+    </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A583" s="1" t="s">
         <v>1133</v>
       </c>
-    </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A583" s="1" t="s">
+      <c r="B583" s="1" t="s">
         <v>1134</v>
       </c>
-      <c r="B583" s="1" t="s">
+    </row>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A584" s="1" t="s">
         <v>1135</v>
       </c>
-    </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A584" s="1" t="s">
+      <c r="B584" s="1" t="s">
         <v>1136</v>
       </c>
-      <c r="B584" s="1" t="s">
+    </row>
+    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A585" s="1" t="s">
         <v>1137</v>
       </c>
-    </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A585" s="1" t="s">
+      <c r="B585" s="1" t="s">
         <v>1138</v>
       </c>
-      <c r="B585" s="1" t="s">
+    </row>
+    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A586" s="1" t="s">
         <v>1139</v>
       </c>
-    </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A586" s="1" t="s">
+      <c r="B586" s="1" t="s">
         <v>1140</v>
       </c>
-      <c r="B586" s="1" t="s">
+    </row>
+    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A587" s="1" t="s">
         <v>1141</v>
       </c>
-    </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A587" s="1" t="s">
+      <c r="B587" s="1" t="s">
         <v>1142</v>
       </c>
-      <c r="B587" s="1" t="s">
+    </row>
+    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A588" s="1" t="s">
         <v>1143</v>
       </c>
-    </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A588" s="1" t="s">
+      <c r="B588" s="1" t="s">
         <v>1144</v>
       </c>
-      <c r="B588" s="1" t="s">
+    </row>
+    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A589" s="1" t="s">
         <v>1145</v>
       </c>
-    </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A589" s="1" t="s">
+      <c r="B589" s="1" t="s">
         <v>1146</v>
       </c>
-      <c r="B589" s="1" t="s">
+    </row>
+    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A590" s="1" t="s">
         <v>1147</v>
       </c>
-    </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A590" s="1" t="s">
+      <c r="B590" s="1" t="s">
         <v>1148</v>
       </c>
-      <c r="B590" s="1" t="s">
+    </row>
+    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A591" s="1" t="s">
         <v>1149</v>
       </c>
-    </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A591" s="1" t="s">
+      <c r="B591" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="B591" s="1" t="s">
+    </row>
+    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A592" s="1" t="s">
         <v>1151</v>
       </c>
-    </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A592" s="1" t="s">
+      <c r="B592" s="1" t="s">
         <v>1152</v>
       </c>
-      <c r="B592" s="1" t="s">
+    </row>
+    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A593" s="1" t="s">
         <v>1153</v>
       </c>
-    </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A593" s="1" t="s">
+      <c r="B593" s="1" t="s">
         <v>1154</v>
       </c>
-      <c r="B593" s="1" t="s">
+    </row>
+    <row r="594" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A594" s="1" t="s">
         <v>1155</v>
       </c>
-    </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A594" s="1" t="s">
+      <c r="B594" s="1" t="s">
         <v>1156</v>
       </c>
-      <c r="B594" s="1" t="s">
+    </row>
+    <row r="595" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A595" s="1" t="s">
         <v>1157</v>
       </c>
-    </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A595" s="1" t="s">
+      <c r="B595" s="1" t="s">
         <v>1158</v>
       </c>
-      <c r="B595" s="1" t="s">
+    </row>
+    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A596" s="1" t="s">
         <v>1159</v>
       </c>
-    </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A596" s="1" t="s">
+      <c r="B596" s="1" t="s">
         <v>1160</v>
       </c>
-      <c r="B596" s="1" t="s">
+    </row>
+    <row r="597" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A597" s="1" t="s">
         <v>1161</v>
       </c>
-    </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A597" s="1" t="s">
+      <c r="B597" s="1" t="s">
         <v>1162</v>
       </c>
-      <c r="B597" s="1" t="s">
+    </row>
+    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A598" s="1" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A598" s="1" t="s">
+      <c r="B598" s="1" t="s">
         <v>1164</v>
       </c>
-      <c r="B598" s="1" t="s">
+    </row>
+    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A599" s="1" t="s">
         <v>1165</v>
       </c>
-    </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A599" s="1" t="s">
+      <c r="B599" s="1" t="s">
         <v>1166</v>
       </c>
-      <c r="B599" s="1" t="s">
+    </row>
+    <row r="600" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A600" s="1" t="s">
         <v>1167</v>
       </c>
-    </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A600" s="1" t="s">
+      <c r="B600" s="1" t="s">
         <v>1168</v>
       </c>
-      <c r="B600" s="1" t="s">
+    </row>
+    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A601" s="1" t="s">
         <v>1169</v>
       </c>
-    </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A601" s="1" t="s">
+      <c r="B601" s="1" t="s">
         <v>1170</v>
       </c>
-      <c r="B601" s="1" t="s">
+    </row>
+    <row r="602" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A602" s="1" t="s">
         <v>1171</v>
       </c>
-    </row>
-    <row r="602" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A602" s="1" t="s">
+      <c r="B602" s="1" t="s">
         <v>1172</v>
       </c>
-      <c r="B602" s="1" t="s">
+    </row>
+    <row r="603" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A603" s="1" t="s">
         <v>1173</v>
       </c>
-    </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A603" s="1" t="s">
+      <c r="B603" s="1" t="s">
         <v>1174</v>
       </c>
-      <c r="B603" s="1" t="s">
+    </row>
+    <row r="604" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A604" s="1" t="s">
         <v>1175</v>
       </c>
-    </row>
-    <row r="604" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A604" s="1" t="s">
+      <c r="B604" s="1" t="s">
         <v>1176</v>
       </c>
-      <c r="B604" s="1" t="s">
+    </row>
+    <row r="605" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A605" s="1" t="s">
         <v>1177</v>
       </c>
-    </row>
-    <row r="605" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A605" s="1" t="s">
+      <c r="B605" s="1" t="s">
         <v>1178</v>
       </c>
-      <c r="B605" s="1" t="s">
+    </row>
+    <row r="606" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A606" s="1" t="s">
         <v>1179</v>
       </c>
-    </row>
-    <row r="606" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A606" s="1" t="s">
+      <c r="B606" s="1" t="s">
         <v>1180</v>
       </c>
-      <c r="B606" s="1" t="s">
+    </row>
+    <row r="607" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A607" s="1" t="s">
         <v>1181</v>
       </c>
-    </row>
-    <row r="607" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A607" s="1" t="s">
+      <c r="B607" s="1" t="s">
         <v>1182</v>
       </c>
-      <c r="B607" s="1" t="s">
+    </row>
+    <row r="608" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A608" s="1" t="s">
         <v>1183</v>
       </c>
-    </row>
-    <row r="608" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A608" s="1" t="s">
+      <c r="B608" s="1" t="s">
         <v>1184</v>
       </c>
-      <c r="B608" s="1" t="s">
+    </row>
+    <row r="609" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A609" s="1" t="s">
         <v>1185</v>
       </c>
-    </row>
-    <row r="609" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A609" s="1" t="s">
+      <c r="B609" s="1" t="s">
         <v>1186</v>
       </c>
-      <c r="B609" s="1" t="s">
+    </row>
+    <row r="610" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A610" s="1" t="s">
         <v>1187</v>
       </c>
-    </row>
-    <row r="610" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A610" s="1" t="s">
+      <c r="B610" s="1" t="s">
         <v>1188</v>
       </c>
-      <c r="B610" s="1" t="s">
+    </row>
+    <row r="611" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A611" s="1" t="s">
         <v>1189</v>
       </c>
-    </row>
-    <row r="611" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A611" s="1" t="s">
+      <c r="B611" s="1" t="s">
         <v>1190</v>
       </c>
-      <c r="B611" s="1" t="s">
+    </row>
+    <row r="612" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A612" s="1" t="s">
         <v>1191</v>
       </c>
-    </row>
-    <row r="612" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A612" s="1" t="s">
+      <c r="B612" s="1" t="s">
         <v>1192</v>
       </c>
-      <c r="B612" s="1" t="s">
+    </row>
+    <row r="613" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A613" s="1" t="s">
         <v>1193</v>
       </c>
-    </row>
-    <row r="613" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A613" s="1" t="s">
+      <c r="B613" s="1" t="s">
         <v>1194</v>
       </c>
-      <c r="B613" s="1" t="s">
+    </row>
+    <row r="614" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A614" s="1" t="s">
         <v>1195</v>
       </c>
-    </row>
-    <row r="614" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A614" s="1" t="s">
+      <c r="B614" s="1" t="s">
         <v>1196</v>
       </c>
-      <c r="B614" s="1" t="s">
+    </row>
+    <row r="615" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A615" s="1" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="615" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A615" s="1" t="s">
+      <c r="B615" s="1" t="s">
         <v>1198</v>
       </c>
-      <c r="B615" s="1" t="s">
+    </row>
+    <row r="616" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A616" s="1" t="s">
         <v>1199</v>
       </c>
-    </row>
-    <row r="616" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A616" s="1" t="s">
+      <c r="B616" s="1" t="s">
         <v>1200</v>
       </c>
-      <c r="B616" s="1" t="s">
+    </row>
+    <row r="617" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A617" s="1" t="s">
         <v>1201</v>
       </c>
-    </row>
-    <row r="617" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A617" s="1" t="s">
+      <c r="B617" s="1" t="s">
         <v>1202</v>
       </c>
-      <c r="B617" s="1" t="s">
+    </row>
+    <row r="618" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A618" s="1" t="s">
         <v>1203</v>
       </c>
-    </row>
-    <row r="618" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A618" s="1" t="s">
+      <c r="B618" s="1" t="s">
         <v>1204</v>
       </c>
-      <c r="B618" s="1" t="s">
+    </row>
+    <row r="619" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A619" s="1" t="s">
         <v>1205</v>
       </c>
-    </row>
-    <row r="619" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A619" s="1" t="s">
+      <c r="B619" s="1" t="s">
         <v>1206</v>
       </c>
-      <c r="B619" s="1" t="s">
+    </row>
+    <row r="620" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A620" s="1" t="s">
         <v>1207</v>
       </c>
-    </row>
-    <row r="620" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A620" s="1" t="s">
+      <c r="B620" s="1" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A621" s="1" t="s">
         <v>1208</v>
       </c>
-      <c r="B620" s="1" t="s">
-        <v>1208</v>
-      </c>
-    </row>
-    <row r="621" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A621" s="1" t="s">
+      <c r="B621" s="1" t="s">
         <v>1209</v>
       </c>
-      <c r="B621" s="1" t="s">
+    </row>
+    <row r="622" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A622" s="1" t="s">
         <v>1210</v>
       </c>
-    </row>
-    <row r="622" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A622" s="1" t="s">
+      <c r="B622" s="1" t="s">
         <v>1211</v>
       </c>
-      <c r="B622" s="1" t="s">
+    </row>
+    <row r="623" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A623" s="1" t="s">
         <v>1212</v>
       </c>
-    </row>
-    <row r="623" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A623" s="1" t="s">
+      <c r="B623" s="1" t="s">
         <v>1213</v>
       </c>
-      <c r="B623" s="1" t="s">
+    </row>
+    <row r="624" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A624" s="1" t="s">
         <v>1214</v>
       </c>
-    </row>
-    <row r="624" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A624" s="1" t="s">
+      <c r="B624" s="1" t="s">
         <v>1215</v>
       </c>
-      <c r="B624" s="1" t="s">
+    </row>
+    <row r="625" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A625" s="1" t="s">
         <v>1216</v>
       </c>
-    </row>
-    <row r="625" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A625" s="1" t="s">
+      <c r="B625" s="1" t="s">
         <v>1217</v>
       </c>
-      <c r="B625" s="1" t="s">
+    </row>
+    <row r="626" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A626" s="1" t="s">
         <v>1218</v>
       </c>
-    </row>
-    <row r="626" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A626" s="1" t="s">
+      <c r="B626" s="1" t="s">
         <v>1219</v>
       </c>
-      <c r="B626" s="1" t="s">
+    </row>
+    <row r="627" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A627" s="1" t="s">
         <v>1220</v>
       </c>
-    </row>
-    <row r="627" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A627" s="1" t="s">
+      <c r="B627" s="1" t="s">
         <v>1221</v>
       </c>
-      <c r="B627" s="1" t="s">
+    </row>
+    <row r="628" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A628" s="1" t="s">
         <v>1222</v>
       </c>
-    </row>
-    <row r="628" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A628" s="1" t="s">
+      <c r="B628" s="1" t="s">
         <v>1223</v>
       </c>
-      <c r="B628" s="1" t="s">
+    </row>
+    <row r="629" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A629" s="1" t="s">
         <v>1224</v>
       </c>
-    </row>
-    <row r="629" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A629" s="1" t="s">
+      <c r="B629" s="1" t="s">
         <v>1225</v>
       </c>
-      <c r="B629" s="1" t="s">
+    </row>
+    <row r="630" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A630" s="1" t="s">
         <v>1226</v>
       </c>
-    </row>
-    <row r="630" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A630" s="1" t="s">
+      <c r="B630" s="1" t="s">
         <v>1227</v>
       </c>
-      <c r="B630" s="1" t="s">
+    </row>
+    <row r="631" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A631" s="1" t="s">
         <v>1228</v>
       </c>
-    </row>
-    <row r="631" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A631" s="1" t="s">
+      <c r="B631" s="1" t="s">
         <v>1229</v>
       </c>
-      <c r="B631" s="1" t="s">
+    </row>
+    <row r="632" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A632" s="1" t="s">
         <v>1230</v>
       </c>
-    </row>
-    <row r="632" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A632" s="1" t="s">
+      <c r="B632" s="1" t="s">
         <v>1231</v>
       </c>
-      <c r="B632" s="1" t="s">
+    </row>
+    <row r="633" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A633" s="1" t="s">
         <v>1232</v>
       </c>
-    </row>
-    <row r="633" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A633" s="1" t="s">
+      <c r="B633" s="1" t="s">
         <v>1233</v>
       </c>
-      <c r="B633" s="1" t="s">
+    </row>
+    <row r="634" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A634" s="1" t="s">
         <v>1234</v>
       </c>
-    </row>
-    <row r="634" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A634" s="1" t="s">
+      <c r="B634" s="1" t="s">
         <v>1235</v>
       </c>
-      <c r="B634" s="1" t="s">
+    </row>
+    <row r="635" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A635" s="1" t="s">
         <v>1236</v>
       </c>
-    </row>
-    <row r="635" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A635" s="1" t="s">
+      <c r="B635" s="1" t="s">
         <v>1237</v>
       </c>
-      <c r="B635" s="1" t="s">
+    </row>
+    <row r="636" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A636" s="1" t="s">
         <v>1238</v>
       </c>
-    </row>
-    <row r="636" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A636" s="1" t="s">
+      <c r="B636" s="1" t="s">
         <v>1239</v>
       </c>
-      <c r="B636" s="1" t="s">
+    </row>
+    <row r="637" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A637" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B637" s="1" t="s">
         <v>1240</v>
       </c>
     </row>
-    <row r="637" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A637" s="1" t="s">
+    <row r="638" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A638" s="1" t="s">
         <v>1242</v>
       </c>
-      <c r="B637" s="1" t="s">
-        <v>1241</v>
-      </c>
-    </row>
-    <row r="638" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A638" s="1" t="s">
+      <c r="B638" s="1" t="s">
         <v>1243</v>
       </c>
-      <c r="B638" s="1" t="s">
+    </row>
+    <row r="639" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A639" s="1" t="s">
         <v>1244</v>
       </c>
-    </row>
-    <row r="639" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A639" s="1" t="s">
+      <c r="B639" s="1" t="s">
         <v>1245</v>
       </c>
-      <c r="B639" s="1" t="s">
+    </row>
+    <row r="640" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A640" s="1" t="s">
         <v>1246</v>
       </c>
-    </row>
-    <row r="640" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A640" s="1" t="s">
+      <c r="B640" s="1" t="s">
         <v>1247</v>
       </c>
-      <c r="B640" s="1" t="s">
+    </row>
+    <row r="641" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A641" s="1" t="s">
         <v>1248</v>
       </c>
-    </row>
-    <row r="641" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A641" s="1" t="s">
+      <c r="B641" s="1" t="s">
         <v>1249</v>
       </c>
-      <c r="B641" s="1" t="s">
+    </row>
+    <row r="642" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A642" s="1" t="s">
         <v>1250</v>
       </c>
-    </row>
-    <row r="642" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A642" s="1" t="s">
+      <c r="B642" s="1" t="s">
         <v>1251</v>
       </c>
-      <c r="B642" s="1" t="s">
+    </row>
+    <row r="643" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A643" s="1" t="s">
         <v>1252</v>
       </c>
-    </row>
-    <row r="643" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A643" s="1" t="s">
+      <c r="B643" s="1" t="s">
         <v>1253</v>
       </c>
-      <c r="B643" s="1" t="s">
+    </row>
+    <row r="644" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A644" s="1" t="s">
         <v>1254</v>
       </c>
-    </row>
-    <row r="644" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A644" s="1" t="s">
+      <c r="B644" s="1" t="s">
         <v>1255</v>
       </c>
-      <c r="B644" s="1" t="s">
+    </row>
+    <row r="645" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A645" s="1" t="s">
         <v>1256</v>
       </c>
-    </row>
-    <row r="645" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A645" s="1" t="s">
+      <c r="B645" s="1" t="s">
         <v>1257</v>
       </c>
-      <c r="B645" s="1" t="s">
+    </row>
+    <row r="646" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A646" s="1" t="s">
         <v>1258</v>
       </c>
-    </row>
-    <row r="646" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A646" s="1" t="s">
+      <c r="B646" s="1" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A647" s="1" t="s">
         <v>1259</v>
       </c>
-      <c r="B646" s="1" t="s">
-        <v>1259</v>
-      </c>
-    </row>
-    <row r="647" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A647" s="1" t="s">
+      <c r="B647" s="1" t="s">
         <v>1260</v>
       </c>
-      <c r="B647" s="1" t="s">
+    </row>
+    <row r="648" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A648" s="1" t="s">
         <v>1261</v>
       </c>
-    </row>
-    <row r="648" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A648" s="1" t="s">
+      <c r="B648" s="1" t="s">
         <v>1262</v>
       </c>
-      <c r="B648" s="1" t="s">
+    </row>
+    <row r="649" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A649" s="1" t="s">
         <v>1263</v>
       </c>
-    </row>
-    <row r="649" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A649" s="1" t="s">
+      <c r="B649" s="1" t="s">
         <v>1264</v>
       </c>
-      <c r="B649" s="1" t="s">
+    </row>
+    <row r="650" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A650" s="1" t="s">
         <v>1265</v>
       </c>
-    </row>
-    <row r="650" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A650" s="1" t="s">
+      <c r="B650" s="1" t="s">
         <v>1266</v>
       </c>
-      <c r="B650" s="1" t="s">
+    </row>
+    <row r="651" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A651" s="1" t="s">
         <v>1267</v>
       </c>
-    </row>
-    <row r="651" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A651" s="1" t="s">
+      <c r="B651" s="1" t="s">
         <v>1268</v>
       </c>
-      <c r="B651" s="1" t="s">
+    </row>
+    <row r="652" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A652" s="1" t="s">
         <v>1269</v>
       </c>
-    </row>
-    <row r="652" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A652" s="1" t="s">
+      <c r="B652" s="1" t="s">
         <v>1270</v>
       </c>
-      <c r="B652" s="1" t="s">
+    </row>
+    <row r="653" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A653" s="1" t="s">
         <v>1271</v>
       </c>
-    </row>
-    <row r="653" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A653" s="1" t="s">
+      <c r="B653" s="1" t="s">
         <v>1272</v>
       </c>
-      <c r="B653" s="1" t="s">
+    </row>
+    <row r="654" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A654" s="1" t="s">
         <v>1273</v>
       </c>
-    </row>
-    <row r="654" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A654" s="1" t="s">
+      <c r="B654" s="1" t="s">
         <v>1274</v>
       </c>
-      <c r="B654" s="1" t="s">
+    </row>
+    <row r="655" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A655" s="1" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="655" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A655" s="1" t="s">
+      <c r="B655" s="1" t="s">
         <v>1276</v>
       </c>
-      <c r="B655" s="1" t="s">
+    </row>
+    <row r="656" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A656" s="1" t="s">
         <v>1277</v>
       </c>
-    </row>
-    <row r="656" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A656" s="1" t="s">
+      <c r="B656" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B656" s="1" t="s">
+    </row>
+    <row r="657" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A657" s="1" t="s">
         <v>1279</v>
       </c>
-    </row>
-    <row r="657" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A657" s="1" t="s">
+      <c r="B657" s="1" t="s">
         <v>1280</v>
       </c>
-      <c r="B657" s="1" t="s">
+    </row>
+    <row r="658" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A658" s="1" t="s">
         <v>1281</v>
       </c>
-    </row>
-    <row r="658" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A658" s="1" t="s">
+      <c r="B658" s="1" t="s">
         <v>1282</v>
       </c>
-      <c r="B658" s="1" t="s">
+    </row>
+    <row r="659" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A659" s="1" t="s">
         <v>1283</v>
       </c>
-    </row>
-    <row r="659" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A659" s="1" t="s">
+      <c r="B659" s="1" t="s">
         <v>1284</v>
       </c>
-      <c r="B659" s="1" t="s">
+    </row>
+    <row r="660" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A660" s="1" t="s">
         <v>1285</v>
       </c>
-    </row>
-    <row r="660" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A660" s="1" t="s">
+      <c r="B660" s="1" t="s">
         <v>1286</v>
       </c>
-      <c r="B660" s="1" t="s">
+    </row>
+    <row r="661" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A661" s="1" t="s">
         <v>1287</v>
       </c>
-    </row>
-    <row r="661" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A661" s="1" t="s">
+      <c r="B661" s="1" t="s">
         <v>1288</v>
       </c>
-      <c r="B661" s="1" t="s">
+    </row>
+    <row r="662" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A662" s="1" t="s">
         <v>1289</v>
       </c>
-    </row>
-    <row r="662" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A662" s="1" t="s">
+      <c r="B662" s="1" t="s">
         <v>1290</v>
       </c>
-      <c r="B662" s="1" t="s">
+    </row>
+    <row r="663" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A663" s="1" t="s">
         <v>1291</v>
       </c>
-    </row>
-    <row r="663" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A663" s="1" t="s">
+      <c r="B663" s="1" t="s">
         <v>1292</v>
       </c>
-      <c r="B663" s="1" t="s">
+    </row>
+    <row r="664" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A664" s="1" t="s">
         <v>1293</v>
       </c>
-    </row>
-    <row r="664" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A664" s="1" t="s">
+      <c r="B664" s="1" t="s">
         <v>1294</v>
       </c>
-      <c r="B664" s="1" t="s">
+    </row>
+    <row r="665" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A665" s="1" t="s">
         <v>1295</v>
       </c>
-    </row>
-    <row r="665" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A665" s="1" t="s">
+      <c r="B665" s="1" t="s">
         <v>1296</v>
       </c>
-      <c r="B665" s="1" t="s">
+    </row>
+    <row r="666" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A666" s="1" t="s">
         <v>1297</v>
       </c>
-    </row>
-    <row r="666" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A666" s="1" t="s">
+      <c r="B666" s="1" t="s">
         <v>1298</v>
       </c>
-      <c r="B666" s="1" t="s">
+    </row>
+    <row r="667" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A667" s="1" t="s">
         <v>1299</v>
       </c>
-    </row>
-    <row r="667" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A667" s="1" t="s">
+      <c r="B667" s="1" t="s">
         <v>1300</v>
       </c>
-      <c r="B667" s="1" t="s">
+    </row>
+    <row r="668" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A668" s="1" t="s">
         <v>1301</v>
       </c>
-    </row>
-    <row r="668" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A668" s="1" t="s">
+      <c r="B668" s="1" t="s">
         <v>1302</v>
       </c>
-      <c r="B668" s="1" t="s">
+    </row>
+    <row r="669" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A669" s="1" t="s">
         <v>1303</v>
       </c>
-    </row>
-    <row r="669" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A669" s="1" t="s">
+      <c r="B669" s="1" t="s">
         <v>1304</v>
       </c>
-      <c r="B669" s="1" t="s">
+    </row>
+    <row r="670" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A670" s="1" t="s">
         <v>1305</v>
       </c>
-    </row>
-    <row r="670" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A670" s="1" t="s">
+      <c r="B670" s="1" t="s">
         <v>1306</v>
       </c>
-      <c r="B670" s="1" t="s">
+    </row>
+    <row r="671" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A671" s="1" t="s">
         <v>1307</v>
       </c>
-    </row>
-    <row r="671" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A671" s="1" t="s">
+      <c r="B671" s="1" t="s">
         <v>1308</v>
       </c>
-      <c r="B671" s="1" t="s">
+    </row>
+    <row r="672" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A672" s="1" t="s">
         <v>1309</v>
       </c>
-    </row>
-    <row r="672" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A672" s="1" t="s">
+      <c r="B672" s="1" t="s">
         <v>1310</v>
       </c>
-      <c r="B672" s="1" t="s">
+    </row>
+    <row r="673" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A673" s="1" t="s">
         <v>1311</v>
       </c>
-    </row>
-    <row r="673" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A673" s="1" t="s">
+      <c r="B673" s="1" t="s">
         <v>1312</v>
       </c>
-      <c r="B673" s="1" t="s">
+    </row>
+    <row r="674" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A674" s="1" t="s">
         <v>1313</v>
       </c>
-    </row>
-    <row r="674" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A674" s="1" t="s">
+      <c r="B674" s="1" t="s">
         <v>1314</v>
       </c>
-      <c r="B674" s="1" t="s">
+    </row>
+    <row r="675" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A675" s="1" t="s">
         <v>1315</v>
       </c>
-    </row>
-    <row r="675" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A675" s="1" t="s">
+      <c r="B675" s="1" t="s">
         <v>1316</v>
       </c>
-      <c r="B675" s="1" t="s">
+    </row>
+    <row r="676" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A676" s="1" t="s">
         <v>1317</v>
       </c>
-    </row>
-    <row r="676" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A676" s="1" t="s">
+      <c r="B676" s="1" t="s">
         <v>1318</v>
       </c>
-      <c r="B676" s="1" t="s">
+    </row>
+    <row r="677" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A677" s="1" t="s">
         <v>1319</v>
       </c>
-    </row>
-    <row r="677" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A677" s="1" t="s">
+      <c r="B677" s="1" t="s">
         <v>1320</v>
       </c>
-      <c r="B677" s="1" t="s">
+    </row>
+    <row r="678" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A678" s="1" t="s">
         <v>1321</v>
       </c>
-    </row>
-    <row r="678" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A678" s="1" t="s">
+      <c r="B678" s="1" t="s">
         <v>1322</v>
       </c>
-      <c r="B678" s="1" t="s">
+    </row>
+    <row r="679" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A679" s="1" t="s">
         <v>1323</v>
       </c>
-    </row>
-    <row r="679" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A679" s="1" t="s">
+      <c r="B679" s="1" t="s">
         <v>1324</v>
       </c>
-      <c r="B679" s="1" t="s">
+    </row>
+    <row r="680" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A680" s="1" t="s">
         <v>1325</v>
       </c>
-    </row>
-    <row r="680" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A680" s="1" t="s">
+      <c r="B680" s="1" t="s">
         <v>1326</v>
       </c>
-      <c r="B680" s="1" t="s">
+    </row>
+    <row r="681" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A681" s="1" t="s">
         <v>1327</v>
       </c>
-    </row>
-    <row r="681" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A681" s="1" t="s">
+      <c r="B681" s="1" t="s">
         <v>1328</v>
       </c>
-      <c r="B681" s="1" t="s">
+    </row>
+    <row r="682" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A682" s="1" t="s">
         <v>1329</v>
       </c>
-    </row>
-    <row r="682" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A682" s="1" t="s">
+      <c r="B682" s="1" t="s">
         <v>1330</v>
       </c>
-      <c r="B682" s="1" t="s">
+    </row>
+    <row r="683" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A683" s="1" t="s">
         <v>1331</v>
       </c>
-    </row>
-    <row r="683" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A683" s="1" t="s">
+      <c r="B683" s="1" t="s">
         <v>1332</v>
       </c>
-      <c r="B683" s="1" t="s">
+    </row>
+    <row r="684" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A684" s="1" t="s">
         <v>1333</v>
       </c>
-    </row>
-    <row r="684" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A684" s="1" t="s">
+      <c r="B684" s="1" t="s">
         <v>1334</v>
       </c>
-      <c r="B684" s="1" t="s">
+    </row>
+    <row r="685" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A685" s="1" t="s">
         <v>1335</v>
       </c>
-    </row>
-    <row r="685" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A685" s="1" t="s">
+      <c r="B685" s="1" t="s">
         <v>1336</v>
       </c>
-      <c r="B685" s="1" t="s">
+    </row>
+    <row r="686" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A686" s="1" t="s">
         <v>1337</v>
       </c>
-    </row>
-    <row r="686" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A686" s="1" t="s">
+      <c r="B686" s="1" t="s">
         <v>1338</v>
       </c>
-      <c r="B686" s="1" t="s">
+    </row>
+    <row r="687" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A687" s="1" t="s">
         <v>1339</v>
       </c>
-    </row>
-    <row r="687" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A687" s="1" t="s">
+      <c r="B687" s="1" t="s">
         <v>1340</v>
       </c>
-      <c r="B687" s="1" t="s">
+    </row>
+    <row r="688" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A688" s="1" t="s">
         <v>1341</v>
       </c>
-    </row>
-    <row r="688" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A688" s="1" t="s">
+      <c r="B688" s="1" t="s">
         <v>1342</v>
       </c>
-      <c r="B688" s="1" t="s">
+    </row>
+    <row r="689" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A689" s="1" t="s">
         <v>1343</v>
       </c>
-    </row>
-    <row r="689" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A689" s="1" t="s">
+      <c r="B689" s="1" t="s">
         <v>1344</v>
       </c>
-      <c r="B689" s="1" t="s">
+    </row>
+    <row r="690" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A690" s="1" t="s">
         <v>1345</v>
       </c>
-    </row>
-    <row r="690" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A690" s="1" t="s">
+      <c r="B690" s="1" t="s">
         <v>1346</v>
       </c>
-      <c r="B690" s="1" t="s">
+    </row>
+    <row r="691" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A691" s="1" t="s">
         <v>1347</v>
       </c>
-    </row>
-    <row r="691" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A691" s="1" t="s">
+      <c r="B691" s="1" t="s">
         <v>1348</v>
       </c>
-      <c r="B691" s="1" t="s">
+    </row>
+    <row r="692" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A692" s="1" t="s">
         <v>1349</v>
       </c>
-    </row>
-    <row r="692" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A692" s="1" t="s">
+      <c r="B692" s="1" t="s">
         <v>1350</v>
       </c>
-      <c r="B692" s="1" t="s">
+    </row>
+    <row r="693" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A693" s="1" t="s">
         <v>1351</v>
       </c>
-    </row>
-    <row r="693" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A693" s="1" t="s">
+      <c r="B693" s="1" t="s">
         <v>1352</v>
       </c>
-      <c r="B693" s="1" t="s">
+    </row>
+    <row r="694" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A694" s="1" t="s">
         <v>1353</v>
       </c>
-    </row>
-    <row r="694" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A694" s="1" t="s">
+      <c r="B694" s="1" t="s">
         <v>1354</v>
       </c>
-      <c r="B694" s="1" t="s">
+    </row>
+    <row r="695" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A695" s="1" t="s">
         <v>1355</v>
       </c>
-    </row>
-    <row r="695" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A695" s="1" t="s">
+      <c r="B695" s="1" t="s">
         <v>1356</v>
       </c>
-      <c r="B695" s="1" t="s">
+    </row>
+    <row r="696" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A696" s="1" t="s">
         <v>1357</v>
       </c>
-    </row>
-    <row r="696" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A696" s="1" t="s">
+      <c r="B696" s="1" t="s">
         <v>1358</v>
       </c>
-      <c r="B696" s="1" t="s">
+    </row>
+    <row r="697" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A697" s="1" t="s">
         <v>1359</v>
       </c>
-    </row>
-    <row r="697" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A697" s="1" t="s">
+      <c r="B697" s="1" t="s">
         <v>1360</v>
       </c>
-      <c r="B697" s="1" t="s">
+    </row>
+    <row r="698" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A698" s="1" t="s">
         <v>1361</v>
       </c>
-    </row>
-    <row r="698" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A698" s="1" t="s">
+      <c r="B698" s="1" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A699" s="1" t="s">
         <v>1362</v>
       </c>
-      <c r="B698" s="1" t="s">
-        <v>1361</v>
-      </c>
-    </row>
-    <row r="699" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A699" s="1" t="s">
+      <c r="B699" s="1" t="s">
         <v>1363</v>
       </c>
-      <c r="B699" s="1" t="s">
+    </row>
+    <row r="700" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A700" s="1" t="s">
         <v>1364</v>
       </c>
-    </row>
-    <row r="700" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A700" s="1" t="s">
+      <c r="B700" s="1" t="s">
         <v>1365</v>
       </c>
-      <c r="B700" s="1" t="s">
+    </row>
+    <row r="701" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A701" s="1" t="s">
         <v>1366</v>
       </c>
-    </row>
-    <row r="701" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A701" s="1" t="s">
+      <c r="B701" s="1" t="s">
         <v>1367</v>
       </c>
-      <c r="B701" s="1" t="s">
+    </row>
+    <row r="702" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A702" s="1" t="s">
         <v>1368</v>
       </c>
-    </row>
-    <row r="702" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A702" s="1" t="s">
+      <c r="B702" s="1" t="s">
         <v>1369</v>
       </c>
-      <c r="B702" s="1" t="s">
+    </row>
+    <row r="703" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A703" s="1" t="s">
         <v>1370</v>
       </c>
-    </row>
-    <row r="703" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A703" s="1" t="s">
+      <c r="B703" s="1" t="s">
         <v>1371</v>
       </c>
-      <c r="B703" s="1" t="s">
+    </row>
+    <row r="704" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A704" s="1" t="s">
         <v>1372</v>
       </c>
-    </row>
-    <row r="704" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A704" s="1" t="s">
+      <c r="B704" s="1" t="s">
         <v>1373</v>
       </c>
-      <c r="B704" s="1" t="s">
+    </row>
+    <row r="705" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A705" s="1" t="s">
         <v>1374</v>
       </c>
-    </row>
-    <row r="705" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A705" s="1" t="s">
+      <c r="B705" s="1" t="s">
         <v>1375</v>
       </c>
-      <c r="B705" s="1" t="s">
+    </row>
+    <row r="706" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A706" s="1" t="s">
         <v>1376</v>
       </c>
-    </row>
-    <row r="706" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A706" s="1" t="s">
+      <c r="B706" s="1" t="s">
         <v>1377</v>
       </c>
-      <c r="B706" s="1" t="s">
+    </row>
+    <row r="707" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A707" s="1" t="s">
         <v>1378</v>
       </c>
-    </row>
-    <row r="707" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A707" s="1" t="s">
+      <c r="B707" s="1" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A708" s="1" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B708" s="1" t="s">
         <v>1379</v>
       </c>
-      <c r="B707" s="1" t="s">
-        <v>1381</v>
-      </c>
-    </row>
-    <row r="708" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A708" s="1" t="s">
+    </row>
+    <row r="709" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A709" s="1" t="s">
         <v>1382</v>
       </c>
-      <c r="B708" s="1" t="s">
-        <v>1380</v>
-      </c>
-    </row>
-    <row r="709" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A709" s="1" t="s">
+      <c r="B709" s="1" t="s">
         <v>1383</v>
       </c>
-      <c r="B709" s="1" t="s">
+    </row>
+    <row r="710" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A710" s="1" t="s">
         <v>1384</v>
       </c>
-    </row>
-    <row r="710" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A710" s="1" t="s">
+      <c r="B710" s="1" t="s">
         <v>1385</v>
       </c>
-      <c r="B710" s="1" t="s">
+    </row>
+    <row r="711" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A711" s="1" t="s">
         <v>1386</v>
       </c>
-    </row>
-    <row r="711" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A711" s="1" t="s">
+      <c r="B711" s="1" t="s">
         <v>1387</v>
       </c>
-      <c r="B711" s="1" t="s">
+    </row>
+    <row r="712" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A712" s="1" t="s">
         <v>1388</v>
       </c>
-    </row>
-    <row r="712" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A712" s="1" t="s">
+      <c r="B712" s="1" t="s">
         <v>1389</v>
       </c>
-      <c r="B712" s="1" t="s">
+    </row>
+    <row r="713" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A713" s="1" t="s">
         <v>1390</v>
       </c>
-    </row>
-    <row r="713" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A713" s="1" t="s">
+      <c r="B713" s="1" t="s">
         <v>1391</v>
       </c>
-      <c r="B713" s="1" t="s">
+    </row>
+    <row r="714" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A714" s="1" t="s">
         <v>1392</v>
       </c>
-    </row>
-    <row r="714" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A714" s="1" t="s">
+      <c r="B714" s="1" t="s">
         <v>1393</v>
       </c>
-      <c r="B714" s="1" t="s">
+    </row>
+    <row r="715" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A715" s="1" t="s">
         <v>1394</v>
       </c>
-    </row>
-    <row r="715" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A715" s="1" t="s">
+      <c r="B715" s="1" t="s">
         <v>1395</v>
       </c>
-      <c r="B715" s="1" t="s">
+    </row>
+    <row r="716" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A716" s="1" t="s">
         <v>1396</v>
       </c>
-    </row>
-    <row r="716" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A716" s="1" t="s">
+      <c r="B716" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="B716" s="1" t="s">
+    </row>
+    <row r="717" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A717" s="1" t="s">
         <v>1398</v>
       </c>
-    </row>
-    <row r="717" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A717" s="1" t="s">
+      <c r="B717" s="1" t="s">
         <v>1399</v>
       </c>
-      <c r="B717" s="1" t="s">
+    </row>
+    <row r="718" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A718" s="1" t="s">
         <v>1400</v>
       </c>
-    </row>
-    <row r="718" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A718" s="1" t="s">
+      <c r="B718" s="1" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A719" s="1" t="s">
         <v>1401</v>
       </c>
-      <c r="B718" s="1" t="s">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="719" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A719" s="1" t="s">
+      <c r="B719" s="1" t="s">
         <v>1402</v>
       </c>
-      <c r="B719" s="1" t="s">
+    </row>
+    <row r="720" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A720" s="1" t="s">
         <v>1403</v>
       </c>
-    </row>
-    <row r="720" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A720" s="1" t="s">
+      <c r="B720" s="1" t="s">
         <v>1404</v>
       </c>
-      <c r="B720" s="1" t="s">
+    </row>
+    <row r="721" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A721" s="1" t="s">
         <v>1405</v>
       </c>
-    </row>
-    <row r="721" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A721" s="1" t="s">
+      <c r="B721" s="1" t="s">
         <v>1406</v>
       </c>
-      <c r="B721" s="1" t="s">
+    </row>
+    <row r="722" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A722" s="1" t="s">
         <v>1407</v>
       </c>
-    </row>
-    <row r="722" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A722" s="1" t="s">
+      <c r="B722" s="1" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A723" s="1" t="s">
         <v>1408</v>
       </c>
-      <c r="B722" s="1" t="s">
-        <v>1408</v>
-      </c>
-    </row>
-    <row r="723" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A723" s="1" t="s">
+      <c r="B723" s="1" t="s">
         <v>1409</v>
       </c>
-      <c r="B723" s="1" t="s">
+    </row>
+    <row r="724" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A724" s="1" t="s">
         <v>1410</v>
       </c>
-    </row>
-    <row r="724" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A724" s="1" t="s">
+      <c r="B724" s="1" t="s">
         <v>1411</v>
       </c>
-      <c r="B724" s="1" t="s">
+    </row>
+    <row r="725" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A725" s="1" t="s">
         <v>1412</v>
       </c>
-    </row>
-    <row r="725" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A725" s="1" t="s">
+      <c r="B725" s="1" t="s">
         <v>1413</v>
       </c>
-      <c r="B725" s="1" t="s">
+    </row>
+    <row r="726" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A726" s="1" t="s">
         <v>1414</v>
       </c>
-    </row>
-    <row r="726" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A726" s="1" t="s">
+      <c r="B726" s="1" t="s">
         <v>1415</v>
       </c>
-      <c r="B726" s="1" t="s">
+    </row>
+    <row r="727" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A727" s="1" t="s">
         <v>1416</v>
       </c>
-    </row>
-    <row r="727" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A727" s="1" t="s">
+      <c r="B727" s="1" t="s">
         <v>1417</v>
       </c>
-      <c r="B727" s="1" t="s">
+    </row>
+    <row r="728" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A728" s="1" t="s">
         <v>1418</v>
       </c>
-    </row>
-    <row r="728" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A728" s="1" t="s">
+      <c r="B728" s="1" t="s">
         <v>1419</v>
       </c>
-      <c r="B728" s="1" t="s">
+    </row>
+    <row r="729" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A729" s="1" t="s">
         <v>1420</v>
       </c>
-    </row>
-    <row r="729" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A729" s="1" t="s">
+      <c r="B729" s="1" t="s">
         <v>1421</v>
       </c>
-      <c r="B729" s="1" t="s">
+    </row>
+    <row r="730" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A730" s="1" t="s">
         <v>1422</v>
       </c>
-    </row>
-    <row r="730" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A730" s="1" t="s">
+      <c r="B730" s="1" t="s">
         <v>1423</v>
       </c>
-      <c r="B730" s="1" t="s">
+    </row>
+    <row r="731" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A731" s="1" t="s">
         <v>1424</v>
       </c>
-    </row>
-    <row r="731" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A731" s="1" t="s">
+      <c r="B731" s="1" t="s">
         <v>1425</v>
       </c>
-      <c r="B731" s="1" t="s">
+    </row>
+    <row r="732" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A732" s="1" t="s">
         <v>1426</v>
       </c>
-    </row>
-    <row r="732" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A732" s="1" t="s">
+      <c r="B732" s="1" t="s">
         <v>1427</v>
       </c>
-      <c r="B732" s="1" t="s">
+    </row>
+    <row r="733" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A733" s="1" t="s">
         <v>1428</v>
       </c>
-    </row>
-    <row r="733" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A733" s="1" t="s">
+      <c r="B733" s="1" t="s">
         <v>1429</v>
       </c>
-      <c r="B733" s="1" t="s">
+    </row>
+    <row r="734" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A734" s="1" t="s">
         <v>1430</v>
       </c>
-    </row>
-    <row r="734" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A734" s="1" t="s">
+      <c r="B734" s="1" t="s">
         <v>1431</v>
       </c>
-      <c r="B734" s="1" t="s">
+    </row>
+    <row r="735" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A735" s="1" t="s">
         <v>1432</v>
       </c>
-    </row>
-    <row r="735" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A735" s="1" t="s">
+      <c r="B735" s="1" t="s">
         <v>1433</v>
       </c>
-      <c r="B735" s="1" t="s">
+    </row>
+    <row r="736" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A736" s="1" t="s">
         <v>1434</v>
       </c>
-    </row>
-    <row r="736" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A736" s="1" t="s">
+      <c r="B736" s="1" t="s">
         <v>1435</v>
       </c>
-      <c r="B736" s="1" t="s">
+    </row>
+    <row r="737" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A737" s="1" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="737" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A737" s="1" t="s">
+      <c r="B737" s="1" t="s">
         <v>1437</v>
       </c>
-      <c r="B737" s="1" t="s">
+    </row>
+    <row r="738" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A738" s="1" t="s">
         <v>1438</v>
       </c>
-    </row>
-    <row r="738" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A738" s="1" t="s">
+      <c r="B738" s="1" t="s">
         <v>1439</v>
       </c>
-      <c r="B738" s="1" t="s">
+    </row>
+    <row r="739" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A739" s="1" t="s">
         <v>1440</v>
       </c>
-    </row>
-    <row r="739" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A739" s="1" t="s">
+      <c r="B739" s="1" t="s">
         <v>1441</v>
       </c>
-      <c r="B739" s="1" t="s">
+    </row>
+    <row r="740" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A740" s="1" t="s">
         <v>1442</v>
       </c>
-    </row>
-    <row r="740" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A740" s="1" t="s">
+      <c r="B740" s="1" t="s">
         <v>1443</v>
       </c>
-      <c r="B740" s="1" t="s">
+    </row>
+    <row r="741" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A741" s="1" t="s">
         <v>1444</v>
       </c>
-    </row>
-    <row r="741" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A741" s="1" t="s">
+      <c r="B741" s="1" t="s">
         <v>1445</v>
       </c>
-      <c r="B741" s="1" t="s">
+    </row>
+    <row r="742" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A742" s="1" t="s">
         <v>1446</v>
       </c>
-    </row>
-    <row r="742" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A742" s="1" t="s">
+      <c r="B742" s="1" t="s">
         <v>1447</v>
       </c>
-      <c r="B742" s="1" t="s">
+    </row>
+    <row r="743" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A743" s="1" t="s">
         <v>1448</v>
       </c>
-    </row>
-    <row r="743" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A743" s="1" t="s">
+      <c r="B743" s="1" t="s">
         <v>1449</v>
       </c>
-      <c r="B743" s="1" t="s">
+    </row>
+    <row r="744" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A744" s="1" t="s">
         <v>1450</v>
       </c>
-    </row>
-    <row r="744" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A744" s="1" t="s">
+      <c r="B744" s="1" t="s">
         <v>1451</v>
       </c>
-      <c r="B744" s="1" t="s">
+    </row>
+    <row r="745" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A745" s="1" t="s">
         <v>1452</v>
       </c>
-    </row>
-    <row r="745" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A745" s="1" t="s">
+      <c r="B745" s="1" t="s">
         <v>1453</v>
       </c>
-      <c r="B745" s="1" t="s">
+    </row>
+    <row r="746" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A746" s="1" t="s">
         <v>1454</v>
       </c>
-    </row>
-    <row r="746" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A746" s="1" t="s">
+      <c r="B746" s="1" t="s">
         <v>1455</v>
       </c>
-      <c r="B746" s="1" t="s">
+    </row>
+    <row r="747" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A747" s="1" t="s">
         <v>1456</v>
       </c>
-    </row>
-    <row r="747" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A747" s="1" t="s">
+      <c r="B747" s="1" t="s">
         <v>1457</v>
       </c>
-      <c r="B747" s="1" t="s">
+    </row>
+    <row r="748" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A748" s="1" t="s">
         <v>1458</v>
       </c>
-    </row>
-    <row r="748" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A748" s="1" t="s">
+      <c r="B748" s="1" t="s">
         <v>1459</v>
       </c>
-      <c r="B748" s="1" t="s">
+    </row>
+    <row r="749" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A749" s="1" t="s">
         <v>1460</v>
       </c>
-    </row>
-    <row r="749" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A749" s="1" t="s">
+      <c r="B749" s="1" t="s">
         <v>1461</v>
       </c>
-      <c r="B749" s="1" t="s">
+    </row>
+    <row r="750" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A750" s="1" t="s">
         <v>1462</v>
       </c>
-    </row>
-    <row r="750" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A750" s="1" t="s">
+      <c r="B750" s="1" t="s">
         <v>1463</v>
       </c>
-      <c r="B750" s="1" t="s">
+    </row>
+    <row r="751" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A751" s="1" t="s">
         <v>1464</v>
       </c>
-    </row>
-    <row r="751" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A751" s="1" t="s">
+      <c r="B751" s="1" t="s">
         <v>1465</v>
       </c>
-      <c r="B751" s="1" t="s">
+    </row>
+    <row r="752" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A752" s="1" t="s">
         <v>1466</v>
       </c>
-    </row>
-    <row r="752" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A752" s="1" t="s">
+      <c r="B752" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="B752" s="1" t="s">
+    </row>
+    <row r="753" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A753" s="1" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B753" s="1" t="s">
         <v>1468</v>
       </c>
     </row>
-    <row r="753" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A753" s="1" t="s">
+    <row r="754" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A754" s="1" t="s">
         <v>1470</v>
       </c>
-      <c r="B753" s="1" t="s">
-        <v>1469</v>
-      </c>
-    </row>
-    <row r="754" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A754" s="1" t="s">
+      <c r="B754" s="1" t="s">
         <v>1471</v>
       </c>
-      <c r="B754" s="1" t="s">
+    </row>
+    <row r="755" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A755" s="1" t="s">
         <v>1472</v>
       </c>
-    </row>
-    <row r="755" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A755" s="1" t="s">
+      <c r="B755" s="1" t="s">
         <v>1473</v>
       </c>
-      <c r="B755" s="1" t="s">
+    </row>
+    <row r="756" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A756" s="1" t="s">
         <v>1474</v>
       </c>
-    </row>
-    <row r="756" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A756" s="1" t="s">
+      <c r="B756" s="1" t="s">
         <v>1475</v>
       </c>
-      <c r="B756" s="1" t="s">
+    </row>
+    <row r="757" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A757" s="1" t="s">
         <v>1476</v>
       </c>
-    </row>
-    <row r="757" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A757" s="1" t="s">
+      <c r="B757" s="1" t="s">
         <v>1477</v>
       </c>
-      <c r="B757" s="1" t="s">
+    </row>
+    <row r="758" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A758" s="1" t="s">
         <v>1478</v>
       </c>
-    </row>
-    <row r="758" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A758" s="1" t="s">
+      <c r="B758" s="1" t="s">
         <v>1479</v>
       </c>
-      <c r="B758" s="1" t="s">
+    </row>
+    <row r="759" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A759" s="1" t="s">
         <v>1480</v>
       </c>
-    </row>
-    <row r="759" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A759" s="1" t="s">
+      <c r="B759" s="1" t="s">
         <v>1481</v>
       </c>
-      <c r="B759" s="1" t="s">
+    </row>
+    <row r="760" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A760" s="1" t="s">
         <v>1482</v>
       </c>
-    </row>
-    <row r="760" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A760" s="1" t="s">
+      <c r="B760" s="1" t="s">
         <v>1483</v>
       </c>
-      <c r="B760" s="1" t="s">
+    </row>
+    <row r="761" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A761" s="1" t="s">
         <v>1484</v>
       </c>
-    </row>
-    <row r="761" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A761" s="1" t="s">
+      <c r="B761" s="1" t="s">
         <v>1485</v>
       </c>
-      <c r="B761" s="1" t="s">
+    </row>
+    <row r="762" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A762" s="1" t="s">
         <v>1486</v>
       </c>
-    </row>
-    <row r="762" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A762" s="1" t="s">
+      <c r="B762" s="1" t="s">
         <v>1487</v>
       </c>
-      <c r="B762" s="1" t="s">
+    </row>
+    <row r="763" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A763" s="1" t="s">
         <v>1488</v>
       </c>
-    </row>
-    <row r="763" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A763" s="1" t="s">
+      <c r="B763" s="1" t="s">
         <v>1489</v>
       </c>
-      <c r="B763" s="1" t="s">
+    </row>
+    <row r="764" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A764" s="1" t="s">
         <v>1490</v>
       </c>
-    </row>
-    <row r="764" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A764" s="1" t="s">
+      <c r="B764" s="1" t="s">
         <v>1491</v>
       </c>
-      <c r="B764" s="1" t="s">
+    </row>
+    <row r="765" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A765" s="1" t="s">
         <v>1492</v>
       </c>
-    </row>
-    <row r="765" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A765" s="1" t="s">
+      <c r="B765" s="1" t="s">
         <v>1493</v>
       </c>
-      <c r="B765" s="1" t="s">
+    </row>
+    <row r="766" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A766" s="1" t="s">
         <v>1494</v>
       </c>
-    </row>
-    <row r="766" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A766" s="1" t="s">
+      <c r="B766" s="1" t="s">
         <v>1495</v>
       </c>
-      <c r="B766" s="1" t="s">
+    </row>
+    <row r="767" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A767" s="1" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B767" s="1" t="s">
         <v>1496</v>
       </c>
     </row>
-    <row r="767" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A767" s="1" t="s">
+    <row r="768" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A768" s="1" t="s">
         <v>1498</v>
       </c>
-      <c r="B767" s="1" t="s">
-        <v>1497</v>
-      </c>
-    </row>
-    <row r="768" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A768" s="1" t="s">
+      <c r="B768" s="1" t="s">
         <v>1499</v>
       </c>
-      <c r="B768" s="1" t="s">
+    </row>
+    <row r="769" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A769" s="1" t="s">
         <v>1500</v>
       </c>
-    </row>
-    <row r="769" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A769" s="1" t="s">
+      <c r="B769" s="1" t="s">
         <v>1501</v>
       </c>
-      <c r="B769" s="1" t="s">
+    </row>
+    <row r="770" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A770" s="1" t="s">
         <v>1502</v>
       </c>
-    </row>
-    <row r="770" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A770" s="1" t="s">
+      <c r="B770" s="1" t="s">
         <v>1503</v>
       </c>
-      <c r="B770" s="1" t="s">
+    </row>
+    <row r="771" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A771" s="1" t="s">
         <v>1504</v>
       </c>
-    </row>
-    <row r="771" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A771" s="1" t="s">
+      <c r="B771" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="B771" s="1" t="s">
+    </row>
+    <row r="772" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A772" s="1" t="s">
         <v>1506</v>
       </c>
-    </row>
-    <row r="772" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A772" s="1" t="s">
+      <c r="B772" s="1" t="s">
         <v>1507</v>
-      </c>
-      <c r="B772" s="1" t="s">
-        <v>1508</v>
       </c>
     </row>
   </sheetData>

--- a/単語3000.xlsx
+++ b/単語3000.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1946" uniqueCount="1916">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2354" uniqueCount="2322">
   <si>
     <t>足掛かり</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -7668,6 +7668,1630 @@
   </si>
   <si>
     <t>久居为安。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ありふれた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ありふれた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ありふれる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ありふれる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>気さく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きさく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じゅくち</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切り抜ける</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きりぬける</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>うず</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一目惚れ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ひとめぼれ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぼつぼつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぼつぼつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多岐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>たき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>たき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>総会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そうかい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぎこちない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>アフターケア</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aftercare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>関与</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かんよ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>関わる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かかわる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>劣る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おとる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勝る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>まさる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防衛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぼうえい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>溝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>みぞ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>溝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>どぶ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>継ぐ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>つぐ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接ぐ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>つぐ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失効</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しっこう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>発効</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はっこう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>協議</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きょうぎ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>競技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きょうぎ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取り巻く</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>とりまく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>オリエンテーション</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orientation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外れ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はずれ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>～外れ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>～はずれ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心得る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こころえる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こころえ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心得</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衣装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いしょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>週明け</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しゅうあけ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申し付ける</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>もうしつける</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はんしゃ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>頼りない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>たよりない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あやつる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そうさ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外貨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>がいか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>貨幣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かへい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>貨物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かもつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>採決</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さいけつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>うぬぼれる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>うぬぼれる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>うぬぼれ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>うぬぼれ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刑務所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>けいむしょ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拘置所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こうちしょ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>シナリオ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scenario</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脚本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きゃくほん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>それでいて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>それでいて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>それなのに</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>されなのに</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>言い訳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いいわけ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>断言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>だんげん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>詰る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>なじる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>討議</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>とうぎ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>裸足</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はだし</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はだか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>裸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>著しい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いちじるしい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顕著</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>けんちょ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おおて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しょうか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放り込む</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ほうりこむ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>キャリア</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>career</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>キャリアアップ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>career up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しょざい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所在地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しょざいち</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぐずぐず</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぐずぐず</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前線</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぜんせん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控えめ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ひかえめ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控える</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ひかえる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いかにも</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いかにも</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲乙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こうおつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いそん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存亡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そんぼう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>確保</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かくほ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宛てる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あたる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>～宛て</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>～あて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郷土</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きょうど</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郷土色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きょうどしょく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>茶飯事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さはんじ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>照らす</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>てらす</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>時差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じさ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顕在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>けんざい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潜在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>せんざい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>憚る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はばかる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>セキュリティー</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>security</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>歩調</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ほちょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>俯く</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>うつむく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仰向く</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あおむく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>気品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きひん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>差し引き</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さしひき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>擦り切れる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すりきれる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通達</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>つうたつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同封</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>どうふう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>別封</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>べっぷ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何とぞ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>なにとぞ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>パイオニア</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pioneer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先駆者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>せんくしゃ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>草分け</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>くさわけ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分散</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぶんさん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丸々</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>まるまる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>りったい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炎症</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>えんしょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ほのお</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>労る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いたわる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>労う</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ねぎらう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>組合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>くみあい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>実務</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じつむ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>押し出す</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おしだす</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>繰り出す</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>くりだす</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>劇的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>げきてき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正義</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>せいぎ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勤まる／務まる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>つとまる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忍耐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>にんたい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忍耐力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>にんたいりょく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>パッケージ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>package</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>振り込む</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ふりこむ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>振り込み</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ふりこみ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>見栄え</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>みばえ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湯沸かし</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ゆわかし</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ボイラー</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boiler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今に</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いまに</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>記載</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きさい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自炊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じすい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外食</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>がいしょく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背く</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そむく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脱出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>だっしゅつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>突破</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>とっぱ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罵る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ののしる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>びりょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>免除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>めんじょ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>よもや</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>よもや</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法廷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ほうてい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>独裁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>どくさい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>続々</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぞくぞく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>デコレーション</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decoration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しんり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企てる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>くわだてる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生まれつき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>うまれつき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生まれながら</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>うまれながら</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移住</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いじゅう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>がっちり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>がっちり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>親方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おやかた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>親～</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おや～</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共感</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きょうかん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同感</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>どうかん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ひょっと</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ひょっと</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>したじ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はいそう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>せっせと</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>痣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あざ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改良</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かいりょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>組み込む</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>くみこむ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>錯覚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さっかく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勘違い</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かんちがい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>せいひ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心地よい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ここちよい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ここち</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>インフォメーション</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>information</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>この方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>このかた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瞑る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>つぶる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背後</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はいご</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>変身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>へんしん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>見計らう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>みはからう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>りっぽう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>後ろ向き</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>うしろむき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前向き</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>まえむき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陥る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おちいる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>経由</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>けいゆ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>素朴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そぼく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凝る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邸宅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ていたく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名残</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>なごり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引き取る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ひきとる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坊主</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぼうず</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>もっか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>めした</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄り添う</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>よりそう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鮮やか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あざやか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鮮明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>せんめい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>気力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きりょく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無気力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>むきりょく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潤う</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>うるおう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潤す</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>うるおす</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こくゆう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ジャーナリスト</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>journalist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ジャーナリズム</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>journalism</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>もしくは</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>もしくは</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手錠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>てじょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ほうか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>途方もない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>とほうもない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>とほう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>途方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大病</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>たいびょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重病</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じゅうびょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>てほん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>見本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>みほん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>くたびれる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>くたびれる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>裁決</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さいけつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>採血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さいけつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供給</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きょうきゅう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じゅよう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掠る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かする</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>送り状</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おくりじょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>船頭（せんどう）多（おお）くして船山（ふねやま）に上（のぼ）る。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人多反误事。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8028,10 +9652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B978"/>
+  <dimension ref="A1:B1183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A950" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B958" sqref="B958"/>
+    <sheetView tabSelected="1" topLeftCell="A761" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B775" sqref="B775"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
@@ -15825,6 +17449,1638 @@
         <v>1915</v>
       </c>
     </row>
+    <row r="980" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A980" s="1" t="s">
+        <v>1916</v>
+      </c>
+      <c r="B980" s="1" t="s">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="981" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A981" s="1" t="s">
+        <v>1918</v>
+      </c>
+      <c r="B981" s="1" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="982" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A982" s="1" t="s">
+        <v>1920</v>
+      </c>
+      <c r="B982" s="1" t="s">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="983" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A983" s="1" t="s">
+        <v>1922</v>
+      </c>
+      <c r="B983" s="1" t="s">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="984" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A984" s="1" t="s">
+        <v>1924</v>
+      </c>
+      <c r="B984" s="1" t="s">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="985" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A985" s="1" t="s">
+        <v>1926</v>
+      </c>
+      <c r="B985" s="1" t="s">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="986" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A986" s="1" t="s">
+        <v>1928</v>
+      </c>
+      <c r="B986" s="1" t="s">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="987" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A987" s="1" t="s">
+        <v>1930</v>
+      </c>
+      <c r="B987" s="1" t="s">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="988" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A988" s="1" t="s">
+        <v>1932</v>
+      </c>
+      <c r="B988" s="1" t="s">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="989" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A989" s="1" t="s">
+        <v>1934</v>
+      </c>
+      <c r="B989" s="1" t="s">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="990" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A990" s="1" t="s">
+        <v>1936</v>
+      </c>
+      <c r="B990" s="1" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="991" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A991" s="1" t="s">
+        <v>1938</v>
+      </c>
+      <c r="B991" s="1" t="s">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="992" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A992" s="1" t="s">
+        <v>1939</v>
+      </c>
+      <c r="B992" s="1" t="s">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="993" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A993" s="1" t="s">
+        <v>1941</v>
+      </c>
+      <c r="B993" s="1" t="s">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="994" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A994" s="1" t="s">
+        <v>1943</v>
+      </c>
+      <c r="B994" s="1" t="s">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="995" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A995" s="1" t="s">
+        <v>1945</v>
+      </c>
+      <c r="B995" s="1" t="s">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="996" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A996" s="1" t="s">
+        <v>1947</v>
+      </c>
+      <c r="B996" s="1" t="s">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="997" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A997" s="1" t="s">
+        <v>1949</v>
+      </c>
+      <c r="B997" s="1" t="s">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="998" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A998" s="1" t="s">
+        <v>1951</v>
+      </c>
+      <c r="B998" s="1" t="s">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="999" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A999" s="1" t="s">
+        <v>1953</v>
+      </c>
+      <c r="B999" s="1" t="s">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1000" s="1" t="s">
+        <v>1955</v>
+      </c>
+      <c r="B1000" s="1" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1001" s="1" t="s">
+        <v>1957</v>
+      </c>
+      <c r="B1001" s="1" t="s">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1002" s="1" t="s">
+        <v>1959</v>
+      </c>
+      <c r="B1002" s="1" t="s">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1003" s="1" t="s">
+        <v>1961</v>
+      </c>
+      <c r="B1003" s="1" t="s">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1004" s="1" t="s">
+        <v>1963</v>
+      </c>
+      <c r="B1004" s="1" t="s">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1005" s="1" t="s">
+        <v>1965</v>
+      </c>
+      <c r="B1005" s="1" t="s">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1006" s="1" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B1006" s="1" t="s">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1007" s="1" t="s">
+        <v>1969</v>
+      </c>
+      <c r="B1007" s="1" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1008" s="1" t="s">
+        <v>1971</v>
+      </c>
+      <c r="B1008" s="1" t="s">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1009" s="1" t="s">
+        <v>1973</v>
+      </c>
+      <c r="B1009" s="1" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1010" s="1" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B1010" s="1" t="s">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1011" s="1" t="s">
+        <v>1978</v>
+      </c>
+      <c r="B1011" s="1" t="s">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1012" s="1" t="s">
+        <v>1979</v>
+      </c>
+      <c r="B1012" s="1" t="s">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1013" s="1" t="s">
+        <v>1981</v>
+      </c>
+      <c r="B1013" s="1" t="s">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1014" s="1" t="s">
+        <v>1983</v>
+      </c>
+      <c r="B1014" s="1" t="s">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1015" s="1" t="s">
+        <v>1985</v>
+      </c>
+      <c r="B1015" s="1" t="s">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1016" s="1" t="s">
+        <v>1987</v>
+      </c>
+      <c r="B1016" s="1" t="s">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1017" s="1" t="s">
+        <v>1989</v>
+      </c>
+      <c r="B1017" s="1" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1018" s="1" t="s">
+        <v>1991</v>
+      </c>
+      <c r="B1018" s="1" t="s">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1019" s="1" t="s">
+        <v>1993</v>
+      </c>
+      <c r="B1019" s="1" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1020" s="1" t="s">
+        <v>1995</v>
+      </c>
+      <c r="B1020" s="1" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1021" s="1" t="s">
+        <v>1997</v>
+      </c>
+      <c r="B1021" s="1" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1022" s="1" t="s">
+        <v>1999</v>
+      </c>
+      <c r="B1022" s="1" t="s">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1023" s="1" t="s">
+        <v>2001</v>
+      </c>
+      <c r="B1023" s="1" t="s">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1024" s="1" t="s">
+        <v>2003</v>
+      </c>
+      <c r="B1024" s="1" t="s">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1025" s="1" t="s">
+        <v>2005</v>
+      </c>
+      <c r="B1025" s="1" t="s">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1026" s="1" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B1026" s="1" t="s">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1027" s="1" t="s">
+        <v>2009</v>
+      </c>
+      <c r="B1027" s="1" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1028" s="1" t="s">
+        <v>2011</v>
+      </c>
+      <c r="B1028" s="1" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1029" s="1" t="s">
+        <v>2013</v>
+      </c>
+      <c r="B1029" s="1" t="s">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1030" s="1" t="s">
+        <v>2015</v>
+      </c>
+      <c r="B1030" s="1" t="s">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1031" s="1" t="s">
+        <v>2017</v>
+      </c>
+      <c r="B1031" s="1" t="s">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1032" s="1" t="s">
+        <v>2019</v>
+      </c>
+      <c r="B1032" s="1" t="s">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1033" s="1" t="s">
+        <v>2021</v>
+      </c>
+      <c r="B1033" s="1" t="s">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1034" s="1" t="s">
+        <v>2023</v>
+      </c>
+      <c r="B1034" s="1" t="s">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1035" s="1" t="s">
+        <v>2025</v>
+      </c>
+      <c r="B1035" s="1" t="s">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1036" s="1" t="s">
+        <v>2028</v>
+      </c>
+      <c r="B1036" s="1" t="s">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1037" s="1" t="s">
+        <v>2029</v>
+      </c>
+      <c r="B1037" s="1" t="s">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1038" s="1" t="s">
+        <v>2031</v>
+      </c>
+      <c r="B1038" s="1" t="s">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1039" s="1" t="s">
+        <v>2033</v>
+      </c>
+      <c r="B1039" s="1" t="s">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1040" s="1" t="s">
+        <v>2035</v>
+      </c>
+      <c r="B1040" s="1" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1041" s="1" t="s">
+        <v>2037</v>
+      </c>
+      <c r="B1041" s="1" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1042" s="1" t="s">
+        <v>2039</v>
+      </c>
+      <c r="B1042" s="1" t="s">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1043" s="1" t="s">
+        <v>2041</v>
+      </c>
+      <c r="B1043" s="1" t="s">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1044" s="1" t="s">
+        <v>2043</v>
+      </c>
+      <c r="B1044" s="1" t="s">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1045" s="1" t="s">
+        <v>2045</v>
+      </c>
+      <c r="B1045" s="1" t="s">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1046" s="1" t="s">
+        <v>2047</v>
+      </c>
+      <c r="B1046" s="1" t="s">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1047" s="1" t="s">
+        <v>2049</v>
+      </c>
+      <c r="B1047" s="1" t="s">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1048" s="1" t="s">
+        <v>2051</v>
+      </c>
+      <c r="B1048" s="1" t="s">
+        <v>2052</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1049" s="1" t="s">
+        <v>2053</v>
+      </c>
+      <c r="B1049" s="1" t="s">
+        <v>2054</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1050" s="1" t="s">
+        <v>2055</v>
+      </c>
+      <c r="B1050" s="1" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1051" s="1" t="s">
+        <v>2057</v>
+      </c>
+      <c r="B1051" s="1" t="s">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1052" s="1" t="s">
+        <v>2059</v>
+      </c>
+      <c r="B1052" s="1" t="s">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1053" s="1" t="s">
+        <v>2061</v>
+      </c>
+      <c r="B1053" s="1" t="s">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1054" s="1" t="s">
+        <v>2063</v>
+      </c>
+      <c r="B1054" s="1" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1055" s="1" t="s">
+        <v>2065</v>
+      </c>
+      <c r="B1055" s="1" t="s">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1056" s="1" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1056" s="1" t="s">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1057" s="1" t="s">
+        <v>2069</v>
+      </c>
+      <c r="B1057" s="1" t="s">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1058" s="1" t="s">
+        <v>2071</v>
+      </c>
+      <c r="B1058" s="1" t="s">
+        <v>2072</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1059" s="1" t="s">
+        <v>2073</v>
+      </c>
+      <c r="B1059" s="1" t="s">
+        <v>2074</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1060" s="1" t="s">
+        <v>2075</v>
+      </c>
+      <c r="B1060" s="1" t="s">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1061" s="1" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B1061" s="1" t="s">
+        <v>2078</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1062" s="1" t="s">
+        <v>2079</v>
+      </c>
+      <c r="B1062" s="1" t="s">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1063" s="1" t="s">
+        <v>2081</v>
+      </c>
+      <c r="B1063" s="1" t="s">
+        <v>2082</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1064" s="1" t="s">
+        <v>2083</v>
+      </c>
+      <c r="B1064" s="1" t="s">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1065" s="1" t="s">
+        <v>2085</v>
+      </c>
+      <c r="B1065" s="1" t="s">
+        <v>2086</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1066" s="1" t="s">
+        <v>2087</v>
+      </c>
+      <c r="B1066" s="1" t="s">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1067" s="1" t="s">
+        <v>2089</v>
+      </c>
+      <c r="B1067" s="1" t="s">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1068" s="1" t="s">
+        <v>2091</v>
+      </c>
+      <c r="B1068" s="1" t="s">
+        <v>2092</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1069" s="1" t="s">
+        <v>2093</v>
+      </c>
+      <c r="B1069" s="1" t="s">
+        <v>2094</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1070" s="1" t="s">
+        <v>2095</v>
+      </c>
+      <c r="B1070" s="1" t="s">
+        <v>2096</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1071" s="1" t="s">
+        <v>2097</v>
+      </c>
+      <c r="B1071" s="1" t="s">
+        <v>2098</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1072" s="1" t="s">
+        <v>2099</v>
+      </c>
+      <c r="B1072" s="1" t="s">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1073" s="1" t="s">
+        <v>2101</v>
+      </c>
+      <c r="B1073" s="1" t="s">
+        <v>2102</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1074" s="1" t="s">
+        <v>2103</v>
+      </c>
+      <c r="B1074" s="1" t="s">
+        <v>2104</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1075" s="1" t="s">
+        <v>2105</v>
+      </c>
+      <c r="B1075" s="1" t="s">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1076" s="1" t="s">
+        <v>2107</v>
+      </c>
+      <c r="B1076" s="1" t="s">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1077" s="1" t="s">
+        <v>2109</v>
+      </c>
+      <c r="B1077" s="1" t="s">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1078" s="1" t="s">
+        <v>2111</v>
+      </c>
+      <c r="B1078" s="1" t="s">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1079" s="1" t="s">
+        <v>2113</v>
+      </c>
+      <c r="B1079" s="1" t="s">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1080" s="1" t="s">
+        <v>2115</v>
+      </c>
+      <c r="B1080" s="1" t="s">
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1081" s="1" t="s">
+        <v>2117</v>
+      </c>
+      <c r="B1081" s="1" t="s">
+        <v>2118</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1082" s="1" t="s">
+        <v>2119</v>
+      </c>
+      <c r="B1082" s="1" t="s">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1083" s="1" t="s">
+        <v>2122</v>
+      </c>
+      <c r="B1083" s="1" t="s">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1084" s="1" t="s">
+        <v>2123</v>
+      </c>
+      <c r="B1084" s="1" t="s">
+        <v>2124</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1085" s="1" t="s">
+        <v>2125</v>
+      </c>
+      <c r="B1085" s="1" t="s">
+        <v>2126</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1086" s="1" t="s">
+        <v>2127</v>
+      </c>
+      <c r="B1086" s="1" t="s">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1087" s="1" t="s">
+        <v>2129</v>
+      </c>
+      <c r="B1087" s="1" t="s">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1088" s="1" t="s">
+        <v>2131</v>
+      </c>
+      <c r="B1088" s="1" t="s">
+        <v>2132</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1089" s="1" t="s">
+        <v>2133</v>
+      </c>
+      <c r="B1089" s="1" t="s">
+        <v>2134</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1090" s="1" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B1090" s="1" t="s">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1091" s="1" t="s">
+        <v>2137</v>
+      </c>
+      <c r="B1091" s="1" t="s">
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1092" s="1" t="s">
+        <v>2139</v>
+      </c>
+      <c r="B1092" s="1" t="s">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1093" s="1" t="s">
+        <v>2141</v>
+      </c>
+      <c r="B1093" s="1" t="s">
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1094" s="1" t="s">
+        <v>2143</v>
+      </c>
+      <c r="B1094" s="1" t="s">
+        <v>2144</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1095" s="1" t="s">
+        <v>2145</v>
+      </c>
+      <c r="B1095" s="1" t="s">
+        <v>2146</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1096" s="1" t="s">
+        <v>2147</v>
+      </c>
+      <c r="B1096" s="1" t="s">
+        <v>2148</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1097" s="1" t="s">
+        <v>2149</v>
+      </c>
+      <c r="B1097" s="1" t="s">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1098" s="1" t="s">
+        <v>2151</v>
+      </c>
+      <c r="B1098" s="1" t="s">
+        <v>2152</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1099" s="1" t="s">
+        <v>2153</v>
+      </c>
+      <c r="B1099" s="1" t="s">
+        <v>2154</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1100" s="1" t="s">
+        <v>2155</v>
+      </c>
+      <c r="B1100" s="1" t="s">
+        <v>2156</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1101" s="1" t="s">
+        <v>2157</v>
+      </c>
+      <c r="B1101" s="1" t="s">
+        <v>2158</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1102" s="1" t="s">
+        <v>2159</v>
+      </c>
+      <c r="B1102" s="1" t="s">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1103" s="1" t="s">
+        <v>2161</v>
+      </c>
+      <c r="B1103" s="1" t="s">
+        <v>2162</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1104" s="1" t="s">
+        <v>2163</v>
+      </c>
+      <c r="B1104" s="1" t="s">
+        <v>2164</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1105" s="1" t="s">
+        <v>2165</v>
+      </c>
+      <c r="B1105" s="1" t="s">
+        <v>2166</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1106" s="1" t="s">
+        <v>2167</v>
+      </c>
+      <c r="B1106" s="1" t="s">
+        <v>2168</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1107" s="1" t="s">
+        <v>2169</v>
+      </c>
+      <c r="B1107" s="1" t="s">
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1108" s="1" t="s">
+        <v>2171</v>
+      </c>
+      <c r="B1108" s="1" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1109" s="1" t="s">
+        <v>2173</v>
+      </c>
+      <c r="B1109" s="1" t="s">
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1110" s="1" t="s">
+        <v>2175</v>
+      </c>
+      <c r="B1110" s="1" t="s">
+        <v>2176</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1111" s="1" t="s">
+        <v>2177</v>
+      </c>
+      <c r="B1111" s="1" t="s">
+        <v>2178</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1112" s="1" t="s">
+        <v>2179</v>
+      </c>
+      <c r="B1112" s="1" t="s">
+        <v>2180</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1113" s="1" t="s">
+        <v>2181</v>
+      </c>
+      <c r="B1113" s="1" t="s">
+        <v>2182</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1114" s="1" t="s">
+        <v>2183</v>
+      </c>
+      <c r="B1114" s="1" t="s">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1115" s="1" t="s">
+        <v>2185</v>
+      </c>
+      <c r="B1115" s="1" t="s">
+        <v>2186</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1116" s="1" t="s">
+        <v>2187</v>
+      </c>
+      <c r="B1116" s="1" t="s">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1117" s="1" t="s">
+        <v>2189</v>
+      </c>
+      <c r="B1117" s="1" t="s">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1118" s="1" t="s">
+        <v>2191</v>
+      </c>
+      <c r="B1118" s="1" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1119" s="1" t="s">
+        <v>2193</v>
+      </c>
+      <c r="B1119" s="1" t="s">
+        <v>2194</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1120" s="1" t="s">
+        <v>2195</v>
+      </c>
+      <c r="B1120" s="1" t="s">
+        <v>2196</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1121" s="1" t="s">
+        <v>2197</v>
+      </c>
+      <c r="B1121" s="1" t="s">
+        <v>2198</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1122" s="1" t="s">
+        <v>2199</v>
+      </c>
+      <c r="B1122" s="1" t="s">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1123" s="1" t="s">
+        <v>2201</v>
+      </c>
+      <c r="B1123" s="1" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1124" s="1" t="s">
+        <v>2203</v>
+      </c>
+      <c r="B1124" s="1" t="s">
+        <v>2204</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1125" s="1" t="s">
+        <v>2205</v>
+      </c>
+      <c r="B1125" s="1" t="s">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1126" s="1" t="s">
+        <v>2207</v>
+      </c>
+      <c r="B1126" s="1" t="s">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1127" s="1" t="s">
+        <v>2209</v>
+      </c>
+      <c r="B1127" s="1" t="s">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1128" s="1" t="s">
+        <v>2211</v>
+      </c>
+      <c r="B1128" s="1" t="s">
+        <v>2212</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1129" s="1" t="s">
+        <v>2213</v>
+      </c>
+      <c r="B1129" s="1" t="s">
+        <v>2213</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1130" s="1" t="s">
+        <v>2214</v>
+      </c>
+      <c r="B1130" s="1" t="s">
+        <v>2215</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1131" s="1" t="s">
+        <v>2216</v>
+      </c>
+      <c r="B1131" s="1" t="s">
+        <v>2217</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1132" s="1" t="s">
+        <v>2218</v>
+      </c>
+      <c r="B1132" s="1" t="s">
+        <v>2219</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1133" s="1" t="s">
+        <v>2220</v>
+      </c>
+      <c r="B1133" s="1" t="s">
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1134" s="1" t="s">
+        <v>2222</v>
+      </c>
+      <c r="B1134" s="1" t="s">
+        <v>2223</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1135" s="1" t="s">
+        <v>2224</v>
+      </c>
+      <c r="B1135" s="1" t="s">
+        <v>2225</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1136" s="1" t="s">
+        <v>2226</v>
+      </c>
+      <c r="B1136" s="1" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1137" s="1" t="s">
+        <v>2229</v>
+      </c>
+      <c r="B1137" s="1" t="s">
+        <v>2228</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1138" s="1" t="s">
+        <v>2230</v>
+      </c>
+      <c r="B1138" s="1" t="s">
+        <v>2231</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1139" s="1" t="s">
+        <v>2232</v>
+      </c>
+      <c r="B1139" s="1" t="s">
+        <v>2233</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1140" s="1" t="s">
+        <v>2234</v>
+      </c>
+      <c r="B1140" s="1" t="s">
+        <v>2235</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1141" s="1" t="s">
+        <v>2236</v>
+      </c>
+      <c r="B1141" s="1" t="s">
+        <v>2237</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1142" s="1" t="s">
+        <v>2238</v>
+      </c>
+      <c r="B1142" s="1" t="s">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1143" s="1" t="s">
+        <v>2240</v>
+      </c>
+      <c r="B1143" s="1" t="s">
+        <v>2241</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1144" s="1" t="s">
+        <v>2242</v>
+      </c>
+      <c r="B1144" s="1" t="s">
+        <v>2243</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1145" s="1" t="s">
+        <v>2244</v>
+      </c>
+      <c r="B1145" s="1" t="s">
+        <v>2245</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1146" s="1" t="s">
+        <v>2246</v>
+      </c>
+      <c r="B1146" s="1" t="s">
+        <v>2247</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1147" s="1" t="s">
+        <v>2248</v>
+      </c>
+      <c r="B1147" s="1" t="s">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1148" s="1" t="s">
+        <v>2250</v>
+      </c>
+      <c r="B1148" s="1" t="s">
+        <v>2251</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1149" s="1" t="s">
+        <v>2252</v>
+      </c>
+      <c r="B1149" s="1" t="s">
+        <v>2253</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1150" s="1" t="s">
+        <v>2254</v>
+      </c>
+      <c r="B1150" s="1" t="s">
+        <v>2255</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1151" s="1" t="s">
+        <v>2256</v>
+      </c>
+      <c r="B1151" s="1" t="s">
+        <v>2257</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1152" s="1" t="s">
+        <v>2258</v>
+      </c>
+      <c r="B1152" s="1" t="s">
+        <v>2259</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1153" s="1" t="s">
+        <v>2260</v>
+      </c>
+      <c r="B1153" s="1" t="s">
+        <v>2261</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1154" s="1" t="s">
+        <v>2262</v>
+      </c>
+      <c r="B1154" s="1" t="s">
+        <v>2263</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1155" s="1" t="s">
+        <v>2264</v>
+      </c>
+      <c r="B1155" s="1" t="s">
+        <v>2265</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1156" s="1" t="s">
+        <v>2266</v>
+      </c>
+      <c r="B1156" s="1" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1157" s="1" t="s">
+        <v>2268</v>
+      </c>
+      <c r="B1157" s="1" t="s">
+        <v>2269</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1158" s="1" t="s">
+        <v>2270</v>
+      </c>
+      <c r="B1158" s="1" t="s">
+        <v>2271</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1159" s="1" t="s">
+        <v>2272</v>
+      </c>
+      <c r="B1159" s="1" t="s">
+        <v>2273</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1160" s="1" t="s">
+        <v>2274</v>
+      </c>
+      <c r="B1160" s="1" t="s">
+        <v>2275</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1161" s="1" t="s">
+        <v>2276</v>
+      </c>
+      <c r="B1161" s="1" t="s">
+        <v>2277</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1162" s="1" t="s">
+        <v>2278</v>
+      </c>
+      <c r="B1162" s="1" t="s">
+        <v>2279</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1163" s="1" t="s">
+        <v>2280</v>
+      </c>
+      <c r="B1163" s="1" t="s">
+        <v>2281</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1164" s="1" t="s">
+        <v>2282</v>
+      </c>
+      <c r="B1164" s="1" t="s">
+        <v>2283</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1165" s="1" t="s">
+        <v>2284</v>
+      </c>
+      <c r="B1165" s="1" t="s">
+        <v>2285</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1166" s="1" t="s">
+        <v>2286</v>
+      </c>
+      <c r="B1166" s="1" t="s">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1167" s="1" t="s">
+        <v>2288</v>
+      </c>
+      <c r="B1167" s="1" t="s">
+        <v>2289</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1168" s="1" t="s">
+        <v>2290</v>
+      </c>
+      <c r="B1168" s="1" t="s">
+        <v>2291</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1169" s="1" t="s">
+        <v>2292</v>
+      </c>
+      <c r="B1169" s="1" t="s">
+        <v>2293</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1170" s="1" t="s">
+        <v>2294</v>
+      </c>
+      <c r="B1170" s="1" t="s">
+        <v>2295</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1171" s="1" t="s">
+        <v>2297</v>
+      </c>
+      <c r="B1171" s="1" t="s">
+        <v>2296</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1172" s="1" t="s">
+        <v>2298</v>
+      </c>
+      <c r="B1172" s="1" t="s">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1173" s="1" t="s">
+        <v>2300</v>
+      </c>
+      <c r="B1173" s="1" t="s">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1174" s="1" t="s">
+        <v>2302</v>
+      </c>
+      <c r="B1174" s="1" t="s">
+        <v>2303</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1175" s="1" t="s">
+        <v>2304</v>
+      </c>
+      <c r="B1175" s="1" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1176" s="1" t="s">
+        <v>2306</v>
+      </c>
+      <c r="B1176" s="1" t="s">
+        <v>2307</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1177" s="1" t="s">
+        <v>2308</v>
+      </c>
+      <c r="B1177" s="1" t="s">
+        <v>2309</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1178" s="1" t="s">
+        <v>2310</v>
+      </c>
+      <c r="B1178" s="1" t="s">
+        <v>2311</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1179" s="1" t="s">
+        <v>2312</v>
+      </c>
+      <c r="B1179" s="1" t="s">
+        <v>2313</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1180" s="1" t="s">
+        <v>2314</v>
+      </c>
+      <c r="B1180" s="1" t="s">
+        <v>2315</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1181" s="1" t="s">
+        <v>2316</v>
+      </c>
+      <c r="B1181" s="1" t="s">
+        <v>2317</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1182" s="1" t="s">
+        <v>2318</v>
+      </c>
+      <c r="B1182" s="1" t="s">
+        <v>2319</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1183" s="1" t="s">
+        <v>2320</v>
+      </c>
+      <c r="B1183" s="1" t="s">
+        <v>2321</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/単語3000.xlsx
+++ b/単語3000.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2354" uniqueCount="2322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3150" uniqueCount="3113">
   <si>
     <t>足掛かり</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -9292,6 +9292,3164 @@
   </si>
   <si>
     <t>人多反误事。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>足固め</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あひがため</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改修</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かいしゅう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修繕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しゅうぜん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>憤る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いきどおる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>憤り</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いきどおり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>競売</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きょうばい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>競り売り</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>せりうり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心構え</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こころがまえ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>覚悟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かくご</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>澄ます／清ます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>シャア</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>share</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山岳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さんがく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出向く</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>でむく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>だいよう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>実質</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じっしつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>実質的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じっしつてき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>連なる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>つらなる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任務</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>にんむ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ドライ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はるばる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はるばる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分相応</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぶんそうおう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>間近</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>まぢか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>病む</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>やむ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一様</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いちよう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>縁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ふち</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>気難しい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きむずかしい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原爆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>げんばく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>デッサン</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dessin</t>
+  </si>
+  <si>
+    <t>逸らす</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そらす</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>歯止め</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はどめ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>着工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ちゃっこう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何らか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>なんらか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ひこく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>げんこく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本筋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ほんすじ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>見張る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>みはる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>エピソード</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>episode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逸話</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いつわ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>経理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>けいり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>処する</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しょする</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>座談会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ざだんかい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>貯蔵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ちょぞう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>どうやら</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>どうやら</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>波及</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はきゅう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迷信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>めいしん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴く</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あばく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欠如</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>けつじょ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かいじょ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解熱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>げねつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>げどく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>サボる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>コンテナー</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>container</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sabotage</t>
+  </si>
+  <si>
+    <t>従事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じゅうじ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>携わる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>たずさわる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恥じる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はじる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はじらう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恥らう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ねんしょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燃焼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ねんしょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ホームシック</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>homesick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故に</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ゆえに</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>濫用／乱用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>らんよう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>運送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>うんそう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>運送業</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>うんそうぎょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>愛しい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いとしい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>窮乏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きゅうぼう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>貧乏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>びんぼう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>趣旨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しゅし</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主旨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しゅし</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ごしごし</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ごしごし</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さむらい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>統制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>とうせい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>謹んで</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>つつしんで</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>謹む</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>つつしむ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矯正</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きょうせい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失調</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しっちょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>アタック</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑む</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いどむ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おうごん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こがね</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ゴールイン</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goal in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兼ね備える</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かねそなえる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兼備</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>けんび</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>座標</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ざひょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多様</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>たよう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>擂り潰す</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すりつぶす</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定着</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ていちゃく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破損</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はそん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>とりわけ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>とりわけ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人並み</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ひとなみ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ホルモン</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hormone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無茶苦茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>むちゃくちゃ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滅茶苦茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>めちゃくちゃ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>りてん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あり方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ありかた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>軋む</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きしむ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幾分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いくぶん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>演出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>えんしゅつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拘る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こだわる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>くかく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定規</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じょうぎ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>それは</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>それは</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>それはそれは</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>労う</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ねぎらう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>調印</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ちょういん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>説く</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>とく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>とく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梳く</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手筈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>てはず</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ねんじ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晴れ晴れしい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はればれしい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>プライド</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pride</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自尊心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じそんしん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未開</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>みかい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漏る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>もる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漏れる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>もれる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一連</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いちれん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>後悔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こうかい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>押し寄せる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おしよせる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打ち寄せる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>うちよせる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恐怖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きょうふ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嫉妬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しっと</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妬む</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ねたむ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こうむる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政権</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>せいけん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>途上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>とじょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>発展途上国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はってんとじょうこく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しかるべき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しかるべき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>適当</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>てきとう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>パフォーマンス</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>performance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朝方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あさがた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早朝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そうちょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪獣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かいじゅう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>野獣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>やじゅう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しなやか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しなやか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>落ち度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おちど</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>過失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かしつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>キャッチ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>catch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>キャッチフレーズ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>catch phrase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こつこつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こつこつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>製法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>せいほう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>単独</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>たんとく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耽読</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>たんどく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>擦れる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すれる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>動的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>どうてき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>静的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>せいてき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>堤防</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ていぼう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>慣らす</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ならす</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迫害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はくがい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無難</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>もじもじ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>もじもじ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぶなん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ヤング</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>やんぐ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あだ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>埋め込む</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>うめこむ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>権限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>けんげん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桟橋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さんばし</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>港</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>みなと</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>くっきり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>くっきり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ストロボ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strobo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>駄作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ださく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>めいさく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>どうにか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>どうにか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>発散</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はっさん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>変形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>へんけい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>よって</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>よって</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飲用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いんよう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴飲暴食</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぼういんぼうしょく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肩代わり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かたがわり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>従える</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>したがえる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>起源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きげん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きげん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>軸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>縦軸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>たてじく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>横軸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>よこじく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先だって</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>せんだって</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>棚卸し</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>たなおろし</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>シャープ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sharp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抓る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>つねる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必修</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ひっしゅう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冒頭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぼうとう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>居座る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いすわる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かんむり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>興業</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こうぎょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彷徨う</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さまよう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精細</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>せいさい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摘出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>てきしゅつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しょんぼり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しょんぼり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>貯蓄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ちょちく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>野放し</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>のばなし</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放任</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ほうにん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秀でる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ひいでる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没頭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぼっとう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>もうてん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盲点</t>
+  </si>
+  <si>
+    <t>塵（ちり）も積（つ）もれば山（やま）となる。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>积少成多。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今にして</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いまにして</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今になって</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いまになって</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>クライマックス</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>climax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高潮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さいこうちょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>審議</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しんぎ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拗れる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こじれる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拗らせる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こじらせる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多忙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>たぼう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布巾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ふきん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>どだい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漠然</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ばくぜん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保温</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ほおん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保温性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ほおんせい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>まんざら</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>まんざら</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>閲覧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>えつらん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脚立</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きゃたつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梯子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はしご</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>悟る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さとる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>コントラスト</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contrast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接待</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>せったい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>てんで</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>賃上げ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ちんあげ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>賃下げ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ちんさげ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>独り身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ひとりみ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>独身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>どくしん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>とどこおる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滞る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>難局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>なんきょく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腐敗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ふはい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぽっと</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぽっと</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万引き</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>まんびき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>リード</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lead</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あべこべ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逆さま</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さかさま</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄与</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きよ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こくてい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嵩む</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かさむ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嵩張る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かさばる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>エリート</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>elite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失念</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しつねん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>度忘れ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>どわすれ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鋭い</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>するどい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鈍い</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>にぶい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>畜産</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ちくさん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>トラウマ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trauma</t>
+  </si>
+  <si>
+    <t>並外れる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>なみはずれる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>番人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ばんにん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>見込み</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>みこみ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嗄れる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かれる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枯れる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打ち上げ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>うちあげ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打ち上げる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>うちあげる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下落</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>げらく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>落下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>らっか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おまけに</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おまけに</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>その上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そのうえ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑稽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こっけい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荒唐無稽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こうとうむけい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>様変わり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さまがわり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さま</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>様</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>タイムサービス</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time service</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>タイムセール</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time sale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道徳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>どうとく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>モラル</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moral</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和む</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>なごむ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和やか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>なごやか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はんのう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はんのう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>もってのほか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>もってのほか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彫る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ほる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掘る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ほる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将棋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しょうぎ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当たり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あたり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>～当たり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>～あたり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>概念</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>がいねん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戒める</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いましめる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>懲戒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ちょうかい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兆し</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きざし</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兆候</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ちょうこう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自営</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じえい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>擽る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>くすぐる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>せいさく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宙返り</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ちゅうがえり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>連ねる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>つらねる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>連なる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>つらなる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>タイル</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戸締まり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>とじまり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>悩ましい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>なやましい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破綻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はたん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>崩壊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ほうかい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ひょっとすると</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ひょっとすると</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ひょっとしたら</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ひょっとしたら</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>峰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>みね</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出題</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しゅつだい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄り掛かる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>よりかかる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写し</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>うつし</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>けた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仕切る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しきる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仕切り</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しきり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山腹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さんぷく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山麓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さんろく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山頂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さんちょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>コンプレックス</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>complex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>劣等感</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>れっとうかん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>告げる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>つげる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土壇場</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>どたんば</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手芸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しゅげい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>臨む</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>のぞむ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配属</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はいぞく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奮闘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ふんとう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>褒め称える</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ほめたたえる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技師</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぎし</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自我</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じが</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>課する</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かする</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>率直</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そっちょく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こうすい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こうすい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘んじる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あまんじる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>窃盗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>せっとう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不備</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ふび</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ひたすら</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ひたすら</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ホース</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>連盟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>れいめい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>憂える／愁える</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>うれえる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>憂い／愁い</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>うれい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近眼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きんがん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遠視</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>えんし</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乱視</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>らんし</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しゃこう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交わす</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かわす</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>アットホーム</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>at home</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>せいし</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生死</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>せいし</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>馴らす</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ならす</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>増減</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぞうげん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出動</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しゅつどう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肌寒い</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はださむい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出番</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>でばん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ホームレス</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>homeless</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>催す</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>もよおす</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>賛否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さんぴ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公開</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こうかい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>航海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こうかい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攫う</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さらう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浚う</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さらう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大柄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おおがら</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小柄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こがら</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆破</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ばくは</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あやかる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肖る</t>
+  </si>
+  <si>
+    <t>気質</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きしつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>気質</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かたぎ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教え子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おしえご</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ふたご</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一人っ子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ひっとりこ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>口ずさむ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>くちずさむ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下調べ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>したしらべ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>予習</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>よしゅう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>テンション</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tension</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さては</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さては</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入り江</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いりえ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>港湾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こうわん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>だいほん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脚本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きゃくほん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>擦れ合う</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すれあう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>試行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しこう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嗜好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しこう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中継</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ちゅうけい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取り混ぜる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>とりまぜる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>バーコード</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bar code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>節</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ふし</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恵む</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>めぐむ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恵み</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>めぐみ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>異見</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いけん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じざい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>形作る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かたちづくる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当て</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快晴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かいせい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今にも</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いまにも</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自転</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じてん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公転</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こうてん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>オリジナル</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>original</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>独創的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>どくそうてき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>貶す</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>けなす</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>褒める</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ほめる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凝縮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぎょうしゅく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凝固</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぎょうこ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>対談</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>たいだん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>くれぐれも</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>くれぐれも</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>責務</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>せきむ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蕾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>つぼみ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>綴じる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>とじる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>イベント</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>event</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雑木</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぞうき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>臓器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飲み込む</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>のみこむ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必然</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ひつぜん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偶然</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぐうぜん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重役</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じゅうやく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漏れる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>もれる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漏らす</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>もらす</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沿線</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>えんせん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>川沿い</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かわぞい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>まだしも</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未だしも</t>
+  </si>
+  <si>
+    <t>戸惑う</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>とまどう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戸惑い</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>とまどい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しんこく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灯台（とうだい）下（もと）暗（くら）し。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丈八高的灯台，照远不照近。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -9652,10 +12810,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1183"/>
+  <dimension ref="A1:B1583"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A761" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B775" sqref="B775"/>
+    <sheetView tabSelected="1" topLeftCell="A1563" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B1584" sqref="B1584"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
@@ -19081,6 +22239,3190 @@
         <v>2321</v>
       </c>
     </row>
+    <row r="1185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1185" s="1" t="s">
+        <v>2322</v>
+      </c>
+      <c r="B1185" s="1" t="s">
+        <v>2323</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1186" s="1" t="s">
+        <v>2324</v>
+      </c>
+      <c r="B1186" s="1" t="s">
+        <v>2325</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1187" s="1" t="s">
+        <v>2326</v>
+      </c>
+      <c r="B1187" s="1" t="s">
+        <v>2327</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1188" s="1" t="s">
+        <v>2328</v>
+      </c>
+      <c r="B1188" s="1" t="s">
+        <v>2329</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1189" s="1" t="s">
+        <v>2330</v>
+      </c>
+      <c r="B1189" s="1" t="s">
+        <v>2331</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1190" s="1" t="s">
+        <v>2332</v>
+      </c>
+      <c r="B1190" s="1" t="s">
+        <v>2333</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1191" s="1" t="s">
+        <v>2334</v>
+      </c>
+      <c r="B1191" s="1" t="s">
+        <v>2335</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1192" s="1" t="s">
+        <v>2336</v>
+      </c>
+      <c r="B1192" s="1" t="s">
+        <v>2337</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1193" s="1" t="s">
+        <v>2338</v>
+      </c>
+      <c r="B1193" s="1" t="s">
+        <v>2339</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1194" s="1" t="s">
+        <v>2341</v>
+      </c>
+      <c r="B1194" s="1" t="s">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1195" s="1" t="s">
+        <v>2342</v>
+      </c>
+      <c r="B1195" s="1" t="s">
+        <v>2343</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1196" s="1" t="s">
+        <v>2344</v>
+      </c>
+      <c r="B1196" s="1" t="s">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1197" s="1" t="s">
+        <v>2346</v>
+      </c>
+      <c r="B1197" s="1" t="s">
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1198" s="1" t="s">
+        <v>2348</v>
+      </c>
+      <c r="B1198" s="1" t="s">
+        <v>2349</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1199" s="1" t="s">
+        <v>2350</v>
+      </c>
+      <c r="B1199" s="1" t="s">
+        <v>2351</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1200" s="1" t="s">
+        <v>2352</v>
+      </c>
+      <c r="B1200" s="1" t="s">
+        <v>2353</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1201" s="1" t="s">
+        <v>2354</v>
+      </c>
+      <c r="B1201" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1202" s="1" t="s">
+        <v>2356</v>
+      </c>
+      <c r="B1202" s="1" t="s">
+        <v>2357</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1203" s="1" t="s">
+        <v>2358</v>
+      </c>
+      <c r="B1203" s="1" t="s">
+        <v>2359</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1204" s="1" t="s">
+        <v>2360</v>
+      </c>
+      <c r="B1204" s="1" t="s">
+        <v>2361</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1205" s="1" t="s">
+        <v>2362</v>
+      </c>
+      <c r="B1205" s="1" t="s">
+        <v>2363</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1206" s="1" t="s">
+        <v>2364</v>
+      </c>
+      <c r="B1206" s="1" t="s">
+        <v>2365</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1207" s="1" t="s">
+        <v>2366</v>
+      </c>
+      <c r="B1207" s="1" t="s">
+        <v>2367</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1208" s="1" t="s">
+        <v>2368</v>
+      </c>
+      <c r="B1208" s="1" t="s">
+        <v>2369</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1209" s="1" t="s">
+        <v>2370</v>
+      </c>
+      <c r="B1209" s="1" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1210" s="1" t="s">
+        <v>2372</v>
+      </c>
+      <c r="B1210" s="1" t="s">
+        <v>2373</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1211" s="1" t="s">
+        <v>2374</v>
+      </c>
+      <c r="B1211" s="1" t="s">
+        <v>2375</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1212" s="1" t="s">
+        <v>2376</v>
+      </c>
+      <c r="B1212" s="1" t="s">
+        <v>2377</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1213" s="1" t="s">
+        <v>2378</v>
+      </c>
+      <c r="B1213" s="1" t="s">
+        <v>2379</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1214" s="1" t="s">
+        <v>2380</v>
+      </c>
+      <c r="B1214" s="1" t="s">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1215" s="1" t="s">
+        <v>2382</v>
+      </c>
+      <c r="B1215" s="1" t="s">
+        <v>2383</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1216" s="1" t="s">
+        <v>2384</v>
+      </c>
+      <c r="B1216" s="1" t="s">
+        <v>2385</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1217" s="1" t="s">
+        <v>2386</v>
+      </c>
+      <c r="B1217" s="1" t="s">
+        <v>2387</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1218" s="1" t="s">
+        <v>2388</v>
+      </c>
+      <c r="B1218" s="1" t="s">
+        <v>2389</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1219" s="1" t="s">
+        <v>2390</v>
+      </c>
+      <c r="B1219" s="1" t="s">
+        <v>2391</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1220" s="1" t="s">
+        <v>2392</v>
+      </c>
+      <c r="B1220" s="1" t="s">
+        <v>2393</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1221" s="1" t="s">
+        <v>2394</v>
+      </c>
+      <c r="B1221" s="1" t="s">
+        <v>2395</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1222" s="1" t="s">
+        <v>2396</v>
+      </c>
+      <c r="B1222" s="1" t="s">
+        <v>2397</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1223" s="1" t="s">
+        <v>2398</v>
+      </c>
+      <c r="B1223" s="1" t="s">
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1224" s="1" t="s">
+        <v>2400</v>
+      </c>
+      <c r="B1224" s="1" t="s">
+        <v>2401</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1225" s="1" t="s">
+        <v>2402</v>
+      </c>
+      <c r="B1225" s="1" t="s">
+        <v>2403</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1226" s="1" t="s">
+        <v>2404</v>
+      </c>
+      <c r="B1226" s="1" t="s">
+        <v>2405</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1227" s="1" t="s">
+        <v>2406</v>
+      </c>
+      <c r="B1227" s="1" t="s">
+        <v>2407</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1228" s="1" t="s">
+        <v>2408</v>
+      </c>
+      <c r="B1228" s="1" t="s">
+        <v>2409</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1229" s="1" t="s">
+        <v>2410</v>
+      </c>
+      <c r="B1229" s="1" t="s">
+        <v>2411</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1230" s="1" t="s">
+        <v>2412</v>
+      </c>
+      <c r="B1230" s="1" t="s">
+        <v>2413</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1231" s="1" t="s">
+        <v>2414</v>
+      </c>
+      <c r="B1231" s="1" t="s">
+        <v>2415</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1232" s="1" t="s">
+        <v>2416</v>
+      </c>
+      <c r="B1232" s="1" t="s">
+        <v>2417</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1233" s="1" t="s">
+        <v>2418</v>
+      </c>
+      <c r="B1233" s="1" t="s">
+        <v>2419</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1234" s="1" t="s">
+        <v>2420</v>
+      </c>
+      <c r="B1234" s="1" t="s">
+        <v>2421</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1235" s="1" t="s">
+        <v>2422</v>
+      </c>
+      <c r="B1235" s="1" t="s">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1236" s="1" t="s">
+        <v>2423</v>
+      </c>
+      <c r="B1236" s="1" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1237" s="1" t="s">
+        <v>2426</v>
+      </c>
+      <c r="B1237" s="1" t="s">
+        <v>2427</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1238" s="1" t="s">
+        <v>2428</v>
+      </c>
+      <c r="B1238" s="1" t="s">
+        <v>2429</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1239" s="1" t="s">
+        <v>2430</v>
+      </c>
+      <c r="B1239" s="1" t="s">
+        <v>2431</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1240" s="1" t="s">
+        <v>2433</v>
+      </c>
+      <c r="B1240" s="1" t="s">
+        <v>2432</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1241" s="1" t="s">
+        <v>2434</v>
+      </c>
+      <c r="B1241" s="1" t="s">
+        <v>2435</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1242" s="1" t="s">
+        <v>2436</v>
+      </c>
+      <c r="B1242" s="1" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1243" s="1" t="s">
+        <v>2438</v>
+      </c>
+      <c r="B1243" s="1" t="s">
+        <v>2439</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1244" s="1" t="s">
+        <v>2440</v>
+      </c>
+      <c r="B1244" s="1" t="s">
+        <v>2441</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1245" s="1" t="s">
+        <v>2442</v>
+      </c>
+      <c r="B1245" s="1" t="s">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1246" s="1" t="s">
+        <v>2444</v>
+      </c>
+      <c r="B1246" s="1" t="s">
+        <v>2445</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1247" s="1" t="s">
+        <v>2446</v>
+      </c>
+      <c r="B1247" s="1" t="s">
+        <v>2447</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1248" s="1" t="s">
+        <v>2448</v>
+      </c>
+      <c r="B1248" s="1" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1249" s="1" t="s">
+        <v>2450</v>
+      </c>
+      <c r="B1249" s="1" t="s">
+        <v>2451</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1250" s="1" t="s">
+        <v>2452</v>
+      </c>
+      <c r="B1250" s="1" t="s">
+        <v>2453</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1251" s="1" t="s">
+        <v>2454</v>
+      </c>
+      <c r="B1251" s="1" t="s">
+        <v>2455</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1252" s="1" t="s">
+        <v>2456</v>
+      </c>
+      <c r="B1252" s="1" t="s">
+        <v>2457</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1253" s="1" t="s">
+        <v>2458</v>
+      </c>
+      <c r="B1253" s="1" t="s">
+        <v>2459</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1254" s="1" t="s">
+        <v>2460</v>
+      </c>
+      <c r="B1254" s="1" t="s">
+        <v>2461</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1255" s="1" t="s">
+        <v>2462</v>
+      </c>
+      <c r="B1255" s="1" t="s">
+        <v>2463</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1256" s="1" t="s">
+        <v>2464</v>
+      </c>
+      <c r="B1256" s="1" t="s">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1257" s="1" t="s">
+        <v>2466</v>
+      </c>
+      <c r="B1257" s="1" t="s">
+        <v>2467</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1258" s="1" t="s">
+        <v>2468</v>
+      </c>
+      <c r="B1258" s="1" t="s">
+        <v>2469</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1259" s="1" t="s">
+        <v>2470</v>
+      </c>
+      <c r="B1259" s="1" t="s">
+        <v>2471</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1260" s="1" t="s">
+        <v>2472</v>
+      </c>
+      <c r="B1260" s="1" t="s">
+        <v>2473</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1261" s="1" t="s">
+        <v>2474</v>
+      </c>
+      <c r="B1261" s="1" t="s">
+        <v>2475</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1262" s="1" t="s">
+        <v>2476</v>
+      </c>
+      <c r="B1262" s="1" t="s">
+        <v>2477</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1263" s="1" t="s">
+        <v>2478</v>
+      </c>
+      <c r="B1263" s="1" t="s">
+        <v>2479</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1264" s="1" t="s">
+        <v>2480</v>
+      </c>
+      <c r="B1264" s="1" t="s">
+        <v>2481</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1265" s="1" t="s">
+        <v>2482</v>
+      </c>
+      <c r="B1265" s="1" t="s">
+        <v>2483</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1266" s="1" t="s">
+        <v>2484</v>
+      </c>
+      <c r="B1266" s="1" t="s">
+        <v>2485</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1267" s="1" t="s">
+        <v>2486</v>
+      </c>
+      <c r="B1267" s="1" t="s">
+        <v>2487</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1268" s="1" t="s">
+        <v>2488</v>
+      </c>
+      <c r="B1268" s="1" t="s">
+        <v>2489</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1269" s="1" t="s">
+        <v>2490</v>
+      </c>
+      <c r="B1269" s="1" t="s">
+        <v>2491</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1270" s="1" t="s">
+        <v>2492</v>
+      </c>
+      <c r="B1270" s="1" t="s">
+        <v>2493</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1271" s="1" t="s">
+        <v>2494</v>
+      </c>
+      <c r="B1271" s="1" t="s">
+        <v>2495</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1272" s="1" t="s">
+        <v>2496</v>
+      </c>
+      <c r="B1272" s="1" t="s">
+        <v>2497</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1273" s="1" t="s">
+        <v>2498</v>
+      </c>
+      <c r="B1273" s="1" t="s">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1274" s="1" t="s">
+        <v>2500</v>
+      </c>
+      <c r="B1274" s="1" t="s">
+        <v>2501</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1275" s="1" t="s">
+        <v>2502</v>
+      </c>
+      <c r="B1275" s="1" t="s">
+        <v>2503</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1276" s="1" t="s">
+        <v>2504</v>
+      </c>
+      <c r="B1276" s="1" t="s">
+        <v>2505</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1277" s="1" t="s">
+        <v>2506</v>
+      </c>
+      <c r="B1277" s="1" t="s">
+        <v>2507</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1278" s="1" t="s">
+        <v>2508</v>
+      </c>
+      <c r="B1278" s="1" t="s">
+        <v>2509</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1279" s="1" t="s">
+        <v>2510</v>
+      </c>
+      <c r="B1279" s="1" t="s">
+        <v>2511</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1280" s="1" t="s">
+        <v>2512</v>
+      </c>
+      <c r="B1280" s="1" t="s">
+        <v>2513</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1281" s="1" t="s">
+        <v>2514</v>
+      </c>
+      <c r="B1281" s="1" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1282" s="1" t="s">
+        <v>2516</v>
+      </c>
+      <c r="B1282" s="1" t="s">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1283" s="1" t="s">
+        <v>2518</v>
+      </c>
+      <c r="B1283" s="1" t="s">
+        <v>2519</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1284" s="1" t="s">
+        <v>2520</v>
+      </c>
+      <c r="B1284" s="1" t="s">
+        <v>2521</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1285" s="1" t="s">
+        <v>2522</v>
+      </c>
+      <c r="B1285" s="1" t="s">
+        <v>2523</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1286" s="1" t="s">
+        <v>2524</v>
+      </c>
+      <c r="B1286" s="1" t="s">
+        <v>2524</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1287" s="1" t="s">
+        <v>2525</v>
+      </c>
+      <c r="B1287" s="1" t="s">
+        <v>2526</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1288" s="1" t="s">
+        <v>2527</v>
+      </c>
+      <c r="B1288" s="1" t="s">
+        <v>2528</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1289" s="1" t="s">
+        <v>2529</v>
+      </c>
+      <c r="B1289" s="1" t="s">
+        <v>2530</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1290" s="1" t="s">
+        <v>2532</v>
+      </c>
+      <c r="B1290" s="1" t="s">
+        <v>2531</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1291" s="1" t="s">
+        <v>2533</v>
+      </c>
+      <c r="B1291" s="1" t="s">
+        <v>2534</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1292" s="1" t="s">
+        <v>2535</v>
+      </c>
+      <c r="B1292" s="1" t="s">
+        <v>2536</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1293" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="B1293" s="1" t="s">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1294" s="1" t="s">
+        <v>2539</v>
+      </c>
+      <c r="B1294" s="1" t="s">
+        <v>2540</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1295" s="1" t="s">
+        <v>2541</v>
+      </c>
+      <c r="B1295" s="1" t="s">
+        <v>2542</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1296" s="1" t="s">
+        <v>2543</v>
+      </c>
+      <c r="B1296" s="1" t="s">
+        <v>2544</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1297" s="1" t="s">
+        <v>2545</v>
+      </c>
+      <c r="B1297" s="1" t="s">
+        <v>2546</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1298" s="1" t="s">
+        <v>2547</v>
+      </c>
+      <c r="B1298" s="1" t="s">
+        <v>2548</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1299" s="1" t="s">
+        <v>2549</v>
+      </c>
+      <c r="B1299" s="1" t="s">
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1300" s="1" t="s">
+        <v>2551</v>
+      </c>
+      <c r="B1300" s="1" t="s">
+        <v>2552</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1301" s="1" t="s">
+        <v>2553</v>
+      </c>
+      <c r="B1301" s="1" t="s">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1302" s="1" t="s">
+        <v>2555</v>
+      </c>
+      <c r="B1302" s="1" t="s">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1303" s="1" t="s">
+        <v>2557</v>
+      </c>
+      <c r="B1303" s="1" t="s">
+        <v>2558</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1304" s="1" t="s">
+        <v>2559</v>
+      </c>
+      <c r="B1304" s="1" t="s">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1305" s="1" t="s">
+        <v>2561</v>
+      </c>
+      <c r="B1305" s="1" t="s">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1306" s="1" t="s">
+        <v>2563</v>
+      </c>
+      <c r="B1306" s="1" t="s">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1307" s="1" t="s">
+        <v>2565</v>
+      </c>
+      <c r="B1307" s="1" t="s">
+        <v>2566</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1308" s="1" t="s">
+        <v>2567</v>
+      </c>
+      <c r="B1308" s="1" t="s">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1309" s="1" t="s">
+        <v>2569</v>
+      </c>
+      <c r="B1309" s="1" t="s">
+        <v>2570</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1310" s="1" t="s">
+        <v>2571</v>
+      </c>
+      <c r="B1310" s="1" t="s">
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1311" s="1" t="s">
+        <v>2573</v>
+      </c>
+      <c r="B1311" s="1" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1312" s="1" t="s">
+        <v>2575</v>
+      </c>
+      <c r="B1312" s="1" t="s">
+        <v>2576</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1313" s="1" t="s">
+        <v>2577</v>
+      </c>
+      <c r="B1313" s="1" t="s">
+        <v>2578</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1314" s="1" t="s">
+        <v>2579</v>
+      </c>
+      <c r="B1314" s="1" t="s">
+        <v>2580</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1315" s="1" t="s">
+        <v>2581</v>
+      </c>
+      <c r="B1315" s="1" t="s">
+        <v>2582</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1316" s="1" t="s">
+        <v>2583</v>
+      </c>
+      <c r="B1316" s="1" t="s">
+        <v>2584</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1317" s="1" t="s">
+        <v>2585</v>
+      </c>
+      <c r="B1317" s="1" t="s">
+        <v>2586</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1318" s="1" t="s">
+        <v>2587</v>
+      </c>
+      <c r="B1318" s="1" t="s">
+        <v>2588</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1319" s="1" t="s">
+        <v>2589</v>
+      </c>
+      <c r="B1319" s="1" t="s">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1320" s="1" t="s">
+        <v>2591</v>
+      </c>
+      <c r="B1320" s="1" t="s">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1321" s="1" t="s">
+        <v>2593</v>
+      </c>
+      <c r="B1321" s="1" t="s">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1322" s="1" t="s">
+        <v>2595</v>
+      </c>
+      <c r="B1322" s="1" t="s">
+        <v>2596</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1323" s="1" t="s">
+        <v>2597</v>
+      </c>
+      <c r="B1323" s="1" t="s">
+        <v>2598</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1324" s="1" t="s">
+        <v>2599</v>
+      </c>
+      <c r="B1324" s="1" t="s">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1325" s="1" t="s">
+        <v>2601</v>
+      </c>
+      <c r="B1325" s="1" t="s">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1326" s="1" t="s">
+        <v>2603</v>
+      </c>
+      <c r="B1326" s="1" t="s">
+        <v>2604</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1327" s="1" t="s">
+        <v>2605</v>
+      </c>
+      <c r="B1327" s="1" t="s">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1328" s="1" t="s">
+        <v>2607</v>
+      </c>
+      <c r="B1328" s="1" t="s">
+        <v>2608</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1329" s="1" t="s">
+        <v>2609</v>
+      </c>
+      <c r="B1329" s="1" t="s">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1330" s="1" t="s">
+        <v>2611</v>
+      </c>
+      <c r="B1330" s="1" t="s">
+        <v>2612</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1331" s="1" t="s">
+        <v>2613</v>
+      </c>
+      <c r="B1331" s="1" t="s">
+        <v>2614</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1332" s="1" t="s">
+        <v>2615</v>
+      </c>
+      <c r="B1332" s="1" t="s">
+        <v>2618</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1333" s="1" t="s">
+        <v>2616</v>
+      </c>
+      <c r="B1333" s="1" t="s">
+        <v>2617</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1334" s="1" t="s">
+        <v>2619</v>
+      </c>
+      <c r="B1334" s="1" t="s">
+        <v>2620</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1335" s="1" t="s">
+        <v>2621</v>
+      </c>
+      <c r="B1335" s="1" t="s">
+        <v>2622</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1336" s="1" t="s">
+        <v>2623</v>
+      </c>
+      <c r="B1336" s="1" t="s">
+        <v>2624</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1337" s="1" t="s">
+        <v>2625</v>
+      </c>
+      <c r="B1337" s="1" t="s">
+        <v>2626</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1338" s="1" t="s">
+        <v>2627</v>
+      </c>
+      <c r="B1338" s="1" t="s">
+        <v>2628</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1339" s="1" t="s">
+        <v>2629</v>
+      </c>
+      <c r="B1339" s="1" t="s">
+        <v>2630</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1340" s="1" t="s">
+        <v>2631</v>
+      </c>
+      <c r="B1340" s="1" t="s">
+        <v>2632</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1341" s="1" t="s">
+        <v>2633</v>
+      </c>
+      <c r="B1341" s="1" t="s">
+        <v>2634</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1342" s="1" t="s">
+        <v>2635</v>
+      </c>
+      <c r="B1342" s="1" t="s">
+        <v>2636</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1343" s="1" t="s">
+        <v>2637</v>
+      </c>
+      <c r="B1343" s="1" t="s">
+        <v>2638</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1344" s="1" t="s">
+        <v>2639</v>
+      </c>
+      <c r="B1344" s="1" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1345" s="1" t="s">
+        <v>2641</v>
+      </c>
+      <c r="B1345" s="1" t="s">
+        <v>2642</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1346" s="1" t="s">
+        <v>2643</v>
+      </c>
+      <c r="B1346" s="1" t="s">
+        <v>2644</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1347" s="1" t="s">
+        <v>2645</v>
+      </c>
+      <c r="B1347" s="1" t="s">
+        <v>2646</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1348" s="1" t="s">
+        <v>2647</v>
+      </c>
+      <c r="B1348" s="1" t="s">
+        <v>2648</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1349" s="1" t="s">
+        <v>2649</v>
+      </c>
+      <c r="B1349" s="1" t="s">
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1350" s="1" t="s">
+        <v>2651</v>
+      </c>
+      <c r="B1350" s="1" t="s">
+        <v>2652</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1351" s="1" t="s">
+        <v>2653</v>
+      </c>
+      <c r="B1351" s="1" t="s">
+        <v>2654</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1352" s="1" t="s">
+        <v>2655</v>
+      </c>
+      <c r="B1352" s="1" t="s">
+        <v>2656</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1353" s="1" t="s">
+        <v>2657</v>
+      </c>
+      <c r="B1353" s="1" t="s">
+        <v>2658</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1354" s="1" t="s">
+        <v>2659</v>
+      </c>
+      <c r="B1354" s="1" t="s">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1355" s="1" t="s">
+        <v>2661</v>
+      </c>
+      <c r="B1355" s="1" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1356" s="1" t="s">
+        <v>2663</v>
+      </c>
+      <c r="B1356" s="1" t="s">
+        <v>2664</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1357" s="1" t="s">
+        <v>2665</v>
+      </c>
+      <c r="B1357" s="1" t="s">
+        <v>2666</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1358" s="1" t="s">
+        <v>2667</v>
+      </c>
+      <c r="B1358" s="1" t="s">
+        <v>2668</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1359" s="1" t="s">
+        <v>2669</v>
+      </c>
+      <c r="B1359" s="1" t="s">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1360" s="1" t="s">
+        <v>2671</v>
+      </c>
+      <c r="B1360" s="1" t="s">
+        <v>2672</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1361" s="1" t="s">
+        <v>2673</v>
+      </c>
+      <c r="B1361" s="1" t="s">
+        <v>2674</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1362" s="1" t="s">
+        <v>2675</v>
+      </c>
+      <c r="B1362" s="1" t="s">
+        <v>2676</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1363" s="1" t="s">
+        <v>2677</v>
+      </c>
+      <c r="B1363" s="1" t="s">
+        <v>2678</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1364" s="1" t="s">
+        <v>2679</v>
+      </c>
+      <c r="B1364" s="1" t="s">
+        <v>2680</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1365" s="1" t="s">
+        <v>2681</v>
+      </c>
+      <c r="B1365" s="1" t="s">
+        <v>2682</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1366" s="1" t="s">
+        <v>2683</v>
+      </c>
+      <c r="B1366" s="1" t="s">
+        <v>2684</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1367" s="1" t="s">
+        <v>2685</v>
+      </c>
+      <c r="B1367" s="1" t="s">
+        <v>2686</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1368" s="1" t="s">
+        <v>2687</v>
+      </c>
+      <c r="B1368" s="1" t="s">
+        <v>2688</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1369" s="1" t="s">
+        <v>2689</v>
+      </c>
+      <c r="B1369" s="1" t="s">
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1370" s="1" t="s">
+        <v>2691</v>
+      </c>
+      <c r="B1370" s="1" t="s">
+        <v>2692</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1371" s="1" t="s">
+        <v>2693</v>
+      </c>
+      <c r="B1371" s="1" t="s">
+        <v>2694</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1372" s="1" t="s">
+        <v>2695</v>
+      </c>
+      <c r="B1372" s="1" t="s">
+        <v>2696</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1373" s="1" t="s">
+        <v>2697</v>
+      </c>
+      <c r="B1373" s="1" t="s">
+        <v>2698</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1374" s="1" t="s">
+        <v>2699</v>
+      </c>
+      <c r="B1374" s="1" t="s">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1375" s="1" t="s">
+        <v>2702</v>
+      </c>
+      <c r="B1375" s="1" t="s">
+        <v>2701</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1376" s="1" t="s">
+        <v>2703</v>
+      </c>
+      <c r="B1376" s="1" t="s">
+        <v>2704</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1378" s="1" t="s">
+        <v>2705</v>
+      </c>
+      <c r="B1378" s="1" t="s">
+        <v>2706</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1379" s="1" t="s">
+        <v>2707</v>
+      </c>
+      <c r="B1379" s="1" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1380" s="1" t="s">
+        <v>2709</v>
+      </c>
+      <c r="B1380" s="1" t="s">
+        <v>2710</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1381" s="1" t="s">
+        <v>2711</v>
+      </c>
+      <c r="B1381" s="1" t="s">
+        <v>2712</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1382" s="1" t="s">
+        <v>2713</v>
+      </c>
+      <c r="B1382" s="1" t="s">
+        <v>2714</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1383" s="1" t="s">
+        <v>2715</v>
+      </c>
+      <c r="B1383" s="1" t="s">
+        <v>2716</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1384" s="1" t="s">
+        <v>2717</v>
+      </c>
+      <c r="B1384" s="1" t="s">
+        <v>2718</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1385" s="1" t="s">
+        <v>2719</v>
+      </c>
+      <c r="B1385" s="1" t="s">
+        <v>2720</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1386" s="1" t="s">
+        <v>2721</v>
+      </c>
+      <c r="B1386" s="1" t="s">
+        <v>2722</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1387" s="1" t="s">
+        <v>2723</v>
+      </c>
+      <c r="B1387" s="1" t="s">
+        <v>2724</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1388" s="1" t="s">
+        <v>2725</v>
+      </c>
+      <c r="B1388" s="1" t="s">
+        <v>2726</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1389" s="1" t="s">
+        <v>2727</v>
+      </c>
+      <c r="B1389" s="1" t="s">
+        <v>2728</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1390" s="1" t="s">
+        <v>2729</v>
+      </c>
+      <c r="B1390" s="1" t="s">
+        <v>2730</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1391" s="1" t="s">
+        <v>2731</v>
+      </c>
+      <c r="B1391" s="1" t="s">
+        <v>2732</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1392" s="1" t="s">
+        <v>2733</v>
+      </c>
+      <c r="B1392" s="1" t="s">
+        <v>2734</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1393" s="1" t="s">
+        <v>2735</v>
+      </c>
+      <c r="B1393" s="1" t="s">
+        <v>2736</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1394" s="1" t="s">
+        <v>2737</v>
+      </c>
+      <c r="B1394" s="1" t="s">
+        <v>2738</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1395" s="1" t="s">
+        <v>2739</v>
+      </c>
+      <c r="B1395" s="1" t="s">
+        <v>2740</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1396" s="1" t="s">
+        <v>2741</v>
+      </c>
+      <c r="B1396" s="1" t="s">
+        <v>2742</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1397" s="1" t="s">
+        <v>2743</v>
+      </c>
+      <c r="B1397" s="1" t="s">
+        <v>2744</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1398" s="1" t="s">
+        <v>2745</v>
+      </c>
+      <c r="B1398" s="1" t="s">
+        <v>2745</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1399" s="1" t="s">
+        <v>2746</v>
+      </c>
+      <c r="B1399" s="1" t="s">
+        <v>2747</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1400" s="1" t="s">
+        <v>2748</v>
+      </c>
+      <c r="B1400" s="1" t="s">
+        <v>2749</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1401" s="1" t="s">
+        <v>2750</v>
+      </c>
+      <c r="B1401" s="1" t="s">
+        <v>2751</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1402" s="1" t="s">
+        <v>2752</v>
+      </c>
+      <c r="B1402" s="1" t="s">
+        <v>2753</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1403" s="1" t="s">
+        <v>2755</v>
+      </c>
+      <c r="B1403" s="1" t="s">
+        <v>2754</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1404" s="1" t="s">
+        <v>2756</v>
+      </c>
+      <c r="B1404" s="1" t="s">
+        <v>2757</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1405" s="1" t="s">
+        <v>2758</v>
+      </c>
+      <c r="B1405" s="1" t="s">
+        <v>2759</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1406" s="1" t="s">
+        <v>2760</v>
+      </c>
+      <c r="B1406" s="1" t="s">
+        <v>2761</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1407" s="1" t="s">
+        <v>2762</v>
+      </c>
+      <c r="B1407" s="1" t="s">
+        <v>2763</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1408" s="1" t="s">
+        <v>2764</v>
+      </c>
+      <c r="B1408" s="1" t="s">
+        <v>2765</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1409" s="1" t="s">
+        <v>2766</v>
+      </c>
+      <c r="B1409" s="1" t="s">
+        <v>2766</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1410" s="1" t="s">
+        <v>2767</v>
+      </c>
+      <c r="B1410" s="1" t="s">
+        <v>2768</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1411" s="1" t="s">
+        <v>2769</v>
+      </c>
+      <c r="B1411" s="1" t="s">
+        <v>2770</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1412" s="1" t="s">
+        <v>2771</v>
+      </c>
+      <c r="B1412" s="1" t="s">
+        <v>2772</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1413" s="1" t="s">
+        <v>2773</v>
+      </c>
+      <c r="B1413" s="1" t="s">
+        <v>2774</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1414" s="1" t="s">
+        <v>2775</v>
+      </c>
+      <c r="B1414" s="1" t="s">
+        <v>2776</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1415" s="1" t="s">
+        <v>2777</v>
+      </c>
+      <c r="B1415" s="1" t="s">
+        <v>2778</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1416" s="1" t="s">
+        <v>2779</v>
+      </c>
+      <c r="B1416" s="1" t="s">
+        <v>2780</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1417" s="1" t="s">
+        <v>2781</v>
+      </c>
+      <c r="B1417" s="1" t="s">
+        <v>2782</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1418" s="1" t="s">
+        <v>2783</v>
+      </c>
+      <c r="B1418" s="1" t="s">
+        <v>2784</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1419" s="1" t="s">
+        <v>2785</v>
+      </c>
+      <c r="B1419" s="1" t="s">
+        <v>2786</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1420" s="1" t="s">
+        <v>2787</v>
+      </c>
+      <c r="B1420" s="1" t="s">
+        <v>2788</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1421" s="1" t="s">
+        <v>2789</v>
+      </c>
+      <c r="B1421" s="1" t="s">
+        <v>2790</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1422" s="1" t="s">
+        <v>2791</v>
+      </c>
+      <c r="B1422" s="1" t="s">
+        <v>2792</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1423" s="1" t="s">
+        <v>2793</v>
+      </c>
+      <c r="B1423" s="1" t="s">
+        <v>2794</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1424" s="1" t="s">
+        <v>2795</v>
+      </c>
+      <c r="B1424" s="1" t="s">
+        <v>2796</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1425" s="1" t="s">
+        <v>2797</v>
+      </c>
+      <c r="B1425" s="1" t="s">
+        <v>2798</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1426" s="1" t="s">
+        <v>2799</v>
+      </c>
+      <c r="B1426" s="1" t="s">
+        <v>2798</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1427" s="1" t="s">
+        <v>2800</v>
+      </c>
+      <c r="B1427" s="1" t="s">
+        <v>2801</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1428" s="1" t="s">
+        <v>2802</v>
+      </c>
+      <c r="B1428" s="1" t="s">
+        <v>2803</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1429" s="1" t="s">
+        <v>2804</v>
+      </c>
+      <c r="B1429" s="1" t="s">
+        <v>2805</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1430" s="1" t="s">
+        <v>2806</v>
+      </c>
+      <c r="B1430" s="1" t="s">
+        <v>2807</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1431" s="1" t="s">
+        <v>2808</v>
+      </c>
+      <c r="B1431" s="1" t="s">
+        <v>2809</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1432" s="1" t="s">
+        <v>2810</v>
+      </c>
+      <c r="B1432" s="1" t="s">
+        <v>2811</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1433" s="1" t="s">
+        <v>2812</v>
+      </c>
+      <c r="B1433" s="1" t="s">
+        <v>2813</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1434" s="1" t="s">
+        <v>2814</v>
+      </c>
+      <c r="B1434" s="1" t="s">
+        <v>2815</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1435" s="1" t="s">
+        <v>2816</v>
+      </c>
+      <c r="B1435" s="1" t="s">
+        <v>2817</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1436" s="1" t="s">
+        <v>2819</v>
+      </c>
+      <c r="B1436" s="1" t="s">
+        <v>2818</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1437" s="1" t="s">
+        <v>2820</v>
+      </c>
+      <c r="B1437" s="1" t="s">
+        <v>2821</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1438" s="1" t="s">
+        <v>2822</v>
+      </c>
+      <c r="B1438" s="1" t="s">
+        <v>2823</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1439" s="1" t="s">
+        <v>2824</v>
+      </c>
+      <c r="B1439" s="1" t="s">
+        <v>2825</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1440" s="1" t="s">
+        <v>2826</v>
+      </c>
+      <c r="B1440" s="1" t="s">
+        <v>2827</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1441" s="1" t="s">
+        <v>2828</v>
+      </c>
+      <c r="B1441" s="1" t="s">
+        <v>2829</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1442" s="1" t="s">
+        <v>2830</v>
+      </c>
+      <c r="B1442" s="1" t="s">
+        <v>2831</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1443" s="1" t="s">
+        <v>2832</v>
+      </c>
+      <c r="B1443" s="1" t="s">
+        <v>2833</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1444" s="1" t="s">
+        <v>2834</v>
+      </c>
+      <c r="B1444" s="1" t="s">
+        <v>2835</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1445" s="1" t="s">
+        <v>2836</v>
+      </c>
+      <c r="B1445" s="1" t="s">
+        <v>2837</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1446" s="1" t="s">
+        <v>2838</v>
+      </c>
+      <c r="B1446" s="1" t="s">
+        <v>2839</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1447" s="1" t="s">
+        <v>2840</v>
+      </c>
+      <c r="B1447" s="1" t="s">
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1448" s="1" t="s">
+        <v>2842</v>
+      </c>
+      <c r="B1448" s="1" t="s">
+        <v>2843</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1449" s="1" t="s">
+        <v>2844</v>
+      </c>
+      <c r="B1449" s="1" t="s">
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1450" s="1" t="s">
+        <v>2846</v>
+      </c>
+      <c r="B1450" s="1" t="s">
+        <v>2847</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1451" s="1" t="s">
+        <v>2848</v>
+      </c>
+      <c r="B1451" s="1" t="s">
+        <v>2849</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1452" s="1" t="s">
+        <v>2850</v>
+      </c>
+      <c r="B1452" s="1" t="s">
+        <v>2851</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1453" s="1" t="s">
+        <v>2852</v>
+      </c>
+      <c r="B1453" s="1" t="s">
+        <v>2853</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1454" s="1" t="s">
+        <v>2854</v>
+      </c>
+      <c r="B1454" s="1" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1455" s="1" t="s">
+        <v>2856</v>
+      </c>
+      <c r="B1455" s="1" t="s">
+        <v>2857</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1456" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="B1456" s="1" t="s">
+        <v>2859</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1457" s="1" t="s">
+        <v>2860</v>
+      </c>
+      <c r="B1457" s="1" t="s">
+        <v>2861</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1458" s="1" t="s">
+        <v>2862</v>
+      </c>
+      <c r="B1458" s="1" t="s">
+        <v>2863</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1459" s="1" t="s">
+        <v>2864</v>
+      </c>
+      <c r="B1459" s="1" t="s">
+        <v>2865</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1460" s="1" t="s">
+        <v>2866</v>
+      </c>
+      <c r="B1460" s="1" t="s">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1461" s="1" t="s">
+        <v>2868</v>
+      </c>
+      <c r="B1461" s="1" t="s">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1462" s="1" t="s">
+        <v>2870</v>
+      </c>
+      <c r="B1462" s="1" t="s">
+        <v>2871</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1463" s="1" t="s">
+        <v>2872</v>
+      </c>
+      <c r="B1463" s="1" t="s">
+        <v>2873</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1464" s="1" t="s">
+        <v>2874</v>
+      </c>
+      <c r="B1464" s="1" t="s">
+        <v>2875</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1465" s="1" t="s">
+        <v>2876</v>
+      </c>
+      <c r="B1465" s="1" t="s">
+        <v>2877</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1466" s="1" t="s">
+        <v>2878</v>
+      </c>
+      <c r="B1466" s="1" t="s">
+        <v>2879</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1467" s="1" t="s">
+        <v>2880</v>
+      </c>
+      <c r="B1467" s="1" t="s">
+        <v>2881</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1468" s="1" t="s">
+        <v>2882</v>
+      </c>
+      <c r="B1468" s="1" t="s">
+        <v>2883</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1469" s="1" t="s">
+        <v>2884</v>
+      </c>
+      <c r="B1469" s="1" t="s">
+        <v>2885</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1470" s="1" t="s">
+        <v>2886</v>
+      </c>
+      <c r="B1470" s="1" t="s">
+        <v>2887</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1471" s="1" t="s">
+        <v>2888</v>
+      </c>
+      <c r="B1471" s="1" t="s">
+        <v>2889</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1472" s="1" t="s">
+        <v>2890</v>
+      </c>
+      <c r="B1472" s="1" t="s">
+        <v>2891</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1473" s="1" t="s">
+        <v>2892</v>
+      </c>
+      <c r="B1473" s="1" t="s">
+        <v>2893</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1474" s="1" t="s">
+        <v>2894</v>
+      </c>
+      <c r="B1474" s="1" t="s">
+        <v>2895</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1475" s="1" t="s">
+        <v>2896</v>
+      </c>
+      <c r="B1475" s="1" t="s">
+        <v>2897</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1476" s="1" t="s">
+        <v>2898</v>
+      </c>
+      <c r="B1476" s="1" t="s">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1477" s="1" t="s">
+        <v>2900</v>
+      </c>
+      <c r="B1477" s="1" t="s">
+        <v>2901</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1478" s="1" t="s">
+        <v>2902</v>
+      </c>
+      <c r="B1478" s="1" t="s">
+        <v>2903</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1479" s="1" t="s">
+        <v>2904</v>
+      </c>
+      <c r="B1479" s="1" t="s">
+        <v>2905</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1480" s="1" t="s">
+        <v>2906</v>
+      </c>
+      <c r="B1480" s="1" t="s">
+        <v>2907</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1481" s="1" t="s">
+        <v>2908</v>
+      </c>
+      <c r="B1481" s="1" t="s">
+        <v>2909</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1482" s="1" t="s">
+        <v>2910</v>
+      </c>
+      <c r="B1482" s="1" t="s">
+        <v>2911</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1483" s="1" t="s">
+        <v>2912</v>
+      </c>
+      <c r="B1483" s="1" t="s">
+        <v>2913</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1484" s="1" t="s">
+        <v>2914</v>
+      </c>
+      <c r="B1484" s="1" t="s">
+        <v>2915</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1485" s="1" t="s">
+        <v>2916</v>
+      </c>
+      <c r="B1485" s="1" t="s">
+        <v>2917</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1486" s="1" t="s">
+        <v>2918</v>
+      </c>
+      <c r="B1486" s="1" t="s">
+        <v>2919</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1487" s="1" t="s">
+        <v>2920</v>
+      </c>
+      <c r="B1487" s="1" t="s">
+        <v>2921</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1488" s="1" t="s">
+        <v>2922</v>
+      </c>
+      <c r="B1488" s="1" t="s">
+        <v>2923</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1489" s="1" t="s">
+        <v>2924</v>
+      </c>
+      <c r="B1489" s="1" t="s">
+        <v>2925</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1490" s="1" t="s">
+        <v>2926</v>
+      </c>
+      <c r="B1490" s="1" t="s">
+        <v>2927</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1491" s="1" t="s">
+        <v>2928</v>
+      </c>
+      <c r="B1491" s="1" t="s">
+        <v>2929</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1492" s="1" t="s">
+        <v>2930</v>
+      </c>
+      <c r="B1492" s="1" t="s">
+        <v>2931</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1493" s="1" t="s">
+        <v>2932</v>
+      </c>
+      <c r="B1493" s="1" t="s">
+        <v>2933</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1494" s="1" t="s">
+        <v>2934</v>
+      </c>
+      <c r="B1494" s="1" t="s">
+        <v>2935</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1495" s="1" t="s">
+        <v>2936</v>
+      </c>
+      <c r="B1495" s="1" t="s">
+        <v>2937</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1496" s="1" t="s">
+        <v>2938</v>
+      </c>
+      <c r="B1496" s="1" t="s">
+        <v>2939</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1497" s="1" t="s">
+        <v>2940</v>
+      </c>
+      <c r="B1497" s="1" t="s">
+        <v>2941</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1498" s="1" t="s">
+        <v>2942</v>
+      </c>
+      <c r="B1498" s="1" t="s">
+        <v>2943</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1499" s="1" t="s">
+        <v>2944</v>
+      </c>
+      <c r="B1499" s="1" t="s">
+        <v>2945</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1500" s="1" t="s">
+        <v>2946</v>
+      </c>
+      <c r="B1500" s="1" t="s">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1501" s="1" t="s">
+        <v>2948</v>
+      </c>
+      <c r="B1501" s="1" t="s">
+        <v>2949</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1502" s="1" t="s">
+        <v>2950</v>
+      </c>
+      <c r="B1502" s="1" t="s">
+        <v>2951</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1503" s="1" t="s">
+        <v>2952</v>
+      </c>
+      <c r="B1503" s="1" t="s">
+        <v>2953</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1504" s="1" t="s">
+        <v>2954</v>
+      </c>
+      <c r="B1504" s="1" t="s">
+        <v>2955</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1505" s="1" t="s">
+        <v>2956</v>
+      </c>
+      <c r="B1505" s="1" t="s">
+        <v>2957</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1506" s="1" t="s">
+        <v>2958</v>
+      </c>
+      <c r="B1506" s="1" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1507" s="1" t="s">
+        <v>2960</v>
+      </c>
+      <c r="B1507" s="1" t="s">
+        <v>2961</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1508" s="1" t="s">
+        <v>2962</v>
+      </c>
+      <c r="B1508" s="1" t="s">
+        <v>2963</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1509" s="1" t="s">
+        <v>2964</v>
+      </c>
+      <c r="B1509" s="1" t="s">
+        <v>2965</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1510" s="1" t="s">
+        <v>2966</v>
+      </c>
+      <c r="B1510" s="1" t="s">
+        <v>2967</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1511" s="1" t="s">
+        <v>2968</v>
+      </c>
+      <c r="B1511" s="1" t="s">
+        <v>2969</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1512" s="1" t="s">
+        <v>2970</v>
+      </c>
+      <c r="B1512" s="1" t="s">
+        <v>2971</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1513" s="1" t="s">
+        <v>2972</v>
+      </c>
+      <c r="B1513" s="1" t="s">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1514" s="1" t="s">
+        <v>2974</v>
+      </c>
+      <c r="B1514" s="1" t="s">
+        <v>2975</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1515" s="1" t="s">
+        <v>2976</v>
+      </c>
+      <c r="B1515" s="1" t="s">
+        <v>2977</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1516" s="1" t="s">
+        <v>2978</v>
+      </c>
+      <c r="B1516" s="1" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1517" s="1" t="s">
+        <v>2980</v>
+      </c>
+      <c r="B1517" s="1" t="s">
+        <v>2981</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1518" s="1" t="s">
+        <v>2982</v>
+      </c>
+      <c r="B1518" s="1" t="s">
+        <v>2983</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1519" s="1" t="s">
+        <v>2984</v>
+      </c>
+      <c r="B1519" s="1" t="s">
+        <v>2985</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1520" s="1" t="s">
+        <v>2986</v>
+      </c>
+      <c r="B1520" s="1" t="s">
+        <v>2987</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1521" s="1" t="s">
+        <v>2988</v>
+      </c>
+      <c r="B1521" s="1" t="s">
+        <v>2989</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1522" s="1" t="s">
+        <v>2990</v>
+      </c>
+      <c r="B1522" s="1" t="s">
+        <v>2991</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1523" s="1" t="s">
+        <v>2992</v>
+      </c>
+      <c r="B1523" s="1" t="s">
+        <v>2993</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1524" s="1" t="s">
+        <v>2994</v>
+      </c>
+      <c r="B1524" s="1" t="s">
+        <v>2995</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1525" s="1" t="s">
+        <v>2997</v>
+      </c>
+      <c r="B1525" s="1" t="s">
+        <v>2996</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1526" s="1" t="s">
+        <v>2998</v>
+      </c>
+      <c r="B1526" s="1" t="s">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1527" s="1" t="s">
+        <v>3000</v>
+      </c>
+      <c r="B1527" s="1" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="1528" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1528" s="1" t="s">
+        <v>3002</v>
+      </c>
+      <c r="B1528" s="1" t="s">
+        <v>3003</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1529" s="1" t="s">
+        <v>3004</v>
+      </c>
+      <c r="B1529" s="1" t="s">
+        <v>3005</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1530" s="1" t="s">
+        <v>3006</v>
+      </c>
+      <c r="B1530" s="1" t="s">
+        <v>3007</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1531" s="1" t="s">
+        <v>3008</v>
+      </c>
+      <c r="B1531" s="1" t="s">
+        <v>3009</v>
+      </c>
+    </row>
+    <row r="1532" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1532" s="1" t="s">
+        <v>3010</v>
+      </c>
+      <c r="B1532" s="1" t="s">
+        <v>3011</v>
+      </c>
+    </row>
+    <row r="1533" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1533" s="1" t="s">
+        <v>3012</v>
+      </c>
+      <c r="B1533" s="1" t="s">
+        <v>3013</v>
+      </c>
+    </row>
+    <row r="1534" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1534" s="1" t="s">
+        <v>3014</v>
+      </c>
+      <c r="B1534" s="1" t="s">
+        <v>3015</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1535" s="1" t="s">
+        <v>3016</v>
+      </c>
+      <c r="B1535" s="1" t="s">
+        <v>3017</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1536" s="1" t="s">
+        <v>3018</v>
+      </c>
+      <c r="B1536" s="1" t="s">
+        <v>3019</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1537" s="1" t="s">
+        <v>3020</v>
+      </c>
+      <c r="B1537" s="1" t="s">
+        <v>3021</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1538" s="1" t="s">
+        <v>3022</v>
+      </c>
+      <c r="B1538" s="1" t="s">
+        <v>3023</v>
+      </c>
+    </row>
+    <row r="1539" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1539" s="1" t="s">
+        <v>3024</v>
+      </c>
+      <c r="B1539" s="1" t="s">
+        <v>3025</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1540" s="1" t="s">
+        <v>3026</v>
+      </c>
+      <c r="B1540" s="1" t="s">
+        <v>3027</v>
+      </c>
+    </row>
+    <row r="1541" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1541" s="1" t="s">
+        <v>3028</v>
+      </c>
+      <c r="B1541" s="1" t="s">
+        <v>3029</v>
+      </c>
+    </row>
+    <row r="1542" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1542" s="1" t="s">
+        <v>3030</v>
+      </c>
+      <c r="B1542" s="1" t="s">
+        <v>3031</v>
+      </c>
+    </row>
+    <row r="1543" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1543" s="1" t="s">
+        <v>3032</v>
+      </c>
+      <c r="B1543" s="1" t="s">
+        <v>3033</v>
+      </c>
+    </row>
+    <row r="1544" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1544" s="1" t="s">
+        <v>3034</v>
+      </c>
+      <c r="B1544" s="1" t="s">
+        <v>3035</v>
+      </c>
+    </row>
+    <row r="1545" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1545" s="1" t="s">
+        <v>3036</v>
+      </c>
+      <c r="B1545" s="1" t="s">
+        <v>3037</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1546" s="1" t="s">
+        <v>3038</v>
+      </c>
+      <c r="B1546" s="1" t="s">
+        <v>3039</v>
+      </c>
+    </row>
+    <row r="1547" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1547" s="1" t="s">
+        <v>3040</v>
+      </c>
+      <c r="B1547" s="1" t="s">
+        <v>3041</v>
+      </c>
+    </row>
+    <row r="1548" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1548" s="1" t="s">
+        <v>3042</v>
+      </c>
+      <c r="B1548" s="1" t="s">
+        <v>3043</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1549" s="1" t="s">
+        <v>3044</v>
+      </c>
+      <c r="B1549" s="1" t="s">
+        <v>3045</v>
+      </c>
+    </row>
+    <row r="1550" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1550" s="1" t="s">
+        <v>3046</v>
+      </c>
+      <c r="B1550" s="1" t="s">
+        <v>3047</v>
+      </c>
+    </row>
+    <row r="1551" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1551" s="1" t="s">
+        <v>3048</v>
+      </c>
+      <c r="B1551" s="1" t="s">
+        <v>3049</v>
+      </c>
+    </row>
+    <row r="1552" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1552" s="1" t="s">
+        <v>3050</v>
+      </c>
+      <c r="B1552" s="1" t="s">
+        <v>3051</v>
+      </c>
+    </row>
+    <row r="1553" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1553" s="1" t="s">
+        <v>3052</v>
+      </c>
+      <c r="B1553" s="1" t="s">
+        <v>3053</v>
+      </c>
+    </row>
+    <row r="1554" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1554" s="1" t="s">
+        <v>3054</v>
+      </c>
+      <c r="B1554" s="1" t="s">
+        <v>3055</v>
+      </c>
+    </row>
+    <row r="1555" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1555" s="1" t="s">
+        <v>3056</v>
+      </c>
+      <c r="B1555" s="1" t="s">
+        <v>3057</v>
+      </c>
+    </row>
+    <row r="1556" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1556" s="1" t="s">
+        <v>3058</v>
+      </c>
+      <c r="B1556" s="1" t="s">
+        <v>3059</v>
+      </c>
+    </row>
+    <row r="1557" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1557" s="1" t="s">
+        <v>3060</v>
+      </c>
+      <c r="B1557" s="1" t="s">
+        <v>3061</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1558" s="1" t="s">
+        <v>3062</v>
+      </c>
+      <c r="B1558" s="1" t="s">
+        <v>3063</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1559" s="1" t="s">
+        <v>3064</v>
+      </c>
+      <c r="B1559" s="1" t="s">
+        <v>3065</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1560" s="1" t="s">
+        <v>3066</v>
+      </c>
+      <c r="B1560" s="1" t="s">
+        <v>3067</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1561" s="1" t="s">
+        <v>3068</v>
+      </c>
+      <c r="B1561" s="1" t="s">
+        <v>3069</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1562" s="1" t="s">
+        <v>3070</v>
+      </c>
+      <c r="B1562" s="1" t="s">
+        <v>3071</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1563" s="1" t="s">
+        <v>3072</v>
+      </c>
+      <c r="B1563" s="1" t="s">
+        <v>3073</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1564" s="1" t="s">
+        <v>3074</v>
+      </c>
+      <c r="B1564" s="1" t="s">
+        <v>3075</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1565" s="1" t="s">
+        <v>3076</v>
+      </c>
+      <c r="B1565" s="1" t="s">
+        <v>3077</v>
+      </c>
+    </row>
+    <row r="1566" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1566" s="1" t="s">
+        <v>3078</v>
+      </c>
+      <c r="B1566" s="1" t="s">
+        <v>3079</v>
+      </c>
+    </row>
+    <row r="1567" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1567" s="1" t="s">
+        <v>3080</v>
+      </c>
+      <c r="B1567" s="1" t="s">
+        <v>3081</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1568" s="1" t="s">
+        <v>3082</v>
+      </c>
+      <c r="B1568" s="1" t="s">
+        <v>3083</v>
+      </c>
+    </row>
+    <row r="1569" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1569" s="1" t="s">
+        <v>3084</v>
+      </c>
+      <c r="B1569" s="1" t="s">
+        <v>3085</v>
+      </c>
+    </row>
+    <row r="1570" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1570" s="1" t="s">
+        <v>3086</v>
+      </c>
+      <c r="B1570" s="1" t="s">
+        <v>3085</v>
+      </c>
+    </row>
+    <row r="1571" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1571" s="1" t="s">
+        <v>3087</v>
+      </c>
+      <c r="B1571" s="1" t="s">
+        <v>3088</v>
+      </c>
+    </row>
+    <row r="1572" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1572" s="1" t="s">
+        <v>3089</v>
+      </c>
+      <c r="B1572" s="1" t="s">
+        <v>3090</v>
+      </c>
+    </row>
+    <row r="1573" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1573" s="1" t="s">
+        <v>3091</v>
+      </c>
+      <c r="B1573" s="1" t="s">
+        <v>3092</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1574" s="1" t="s">
+        <v>3093</v>
+      </c>
+      <c r="B1574" s="1" t="s">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="1575" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1575" s="1" t="s">
+        <v>3095</v>
+      </c>
+      <c r="B1575" s="1" t="s">
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1576" s="1" t="s">
+        <v>3097</v>
+      </c>
+      <c r="B1576" s="1" t="s">
+        <v>3098</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1577" s="1" t="s">
+        <v>3099</v>
+      </c>
+      <c r="B1577" s="1" t="s">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="1578" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1578" s="1" t="s">
+        <v>3101</v>
+      </c>
+      <c r="B1578" s="1" t="s">
+        <v>3102</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1579" s="1" t="s">
+        <v>3104</v>
+      </c>
+      <c r="B1579" s="1" t="s">
+        <v>3103</v>
+      </c>
+    </row>
+    <row r="1580" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1580" s="1" t="s">
+        <v>3105</v>
+      </c>
+      <c r="B1580" s="1" t="s">
+        <v>3106</v>
+      </c>
+    </row>
+    <row r="1581" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1581" s="1" t="s">
+        <v>3107</v>
+      </c>
+      <c r="B1581" s="1" t="s">
+        <v>3108</v>
+      </c>
+    </row>
+    <row r="1582" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1582" s="1" t="s">
+        <v>3109</v>
+      </c>
+      <c r="B1582" s="1" t="s">
+        <v>3110</v>
+      </c>
+    </row>
+    <row r="1583" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1583" s="1" t="s">
+        <v>3111</v>
+      </c>
+      <c r="B1583" s="1" t="s">
+        <v>3112</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/単語3000.xlsx
+++ b/単語3000.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3150" uniqueCount="3113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3542" uniqueCount="3499">
   <si>
     <t>足掛かり</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -12450,6 +12450,1548 @@
   </si>
   <si>
     <t>丈八高的灯台，照远不照近。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あまくち</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かにゅう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脱退</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>だったい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>埋め立てる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>うめたてる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>埋め立て</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>けいれつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浄化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じょうか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切り開く</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きりひらく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>サイクル</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cycle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外回り</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そとまわり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速やか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すみやか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手引き</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>てびき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はなたば</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花弁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はなびら</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>長々</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ながなが</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妨害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぼうがい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>みちばた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>濯ぐ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すすぐ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>濯ぐ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ゆすぐ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ピーアール</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>広報</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こうほう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受診</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じゅしん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一か八か</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いちかばちか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きじつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忌日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きじつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切迫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>せっぱく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交互に</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こうごに</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こうご</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>口語</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>くま</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>くま</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>スイング</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阻む</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はばむ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持続</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じぞく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ちゅうだん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>到達</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>とうたつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>到着</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>とうちゃく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>久しい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ひさしい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ポジション</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大御所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おおごしょ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>たいか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>とうぶん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>謝罪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しゃざい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撤廃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>てっぱい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘える</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あまえる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>健在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>けんざい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先代</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>せんだい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>からかう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>からかう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じょうくう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上の空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>うわそらう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>チームワーク</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>team work</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ささやか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ささやか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恩恵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おんけい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>たましい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滲む</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>にじむ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直感</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ちょっかん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直観</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ちょっかん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>発注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はっちゅう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じゅちゅう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>葬る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ほうむる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無念</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>むねん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常務</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じょうむ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乗務</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行き違う</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いきちがう／ゆきちがう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行き違い</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いきちがい／ゆきちがい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>犠牲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぎせい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>創立</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そうりつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぐずつく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぐずつく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衣替え</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ころもがえ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清聴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>せいちょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>省みる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かえりみる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>実費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じっぴ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>タイムレコーダー</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time recorder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>タイムカード</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time card</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乗り出す</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>のりだす</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等級</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>とうきゅう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>とうきゅう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>びりょく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ネチネチ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ねちねち</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>フラストレーション</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frustration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>まとまり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>まとまる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>まとまる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>押し付けがましい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おしつけがましい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>理念</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>りねん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移植</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いしょく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>決まって</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きまって</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>始末</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しまつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>始末書</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しまつしょ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潜入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>せんにゅう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>アピール</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appeal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看護</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かんご</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漢語</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かんご</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>歳月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さいげつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>織る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>窮屈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きゅうくつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じょこう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂う</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>くるう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>対等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>たいとう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>トライ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>即する</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そくする</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏場</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>なつば</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冬場</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ふゆば</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>繁盛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はんじょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>予め</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あらかじめ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滅亡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>めつぼう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>うつわ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敵わない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かなわない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仕掛け</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しかけ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しかける</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仕掛ける</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>古今</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ここん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>懇ろ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ねんごろ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さかずき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台無し</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>だいなし</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潜む</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ひそむ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低迷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ていめい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>砂利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じゃり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>もって</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>もって</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>バージョンアップ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>version up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ほうがく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ほうい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厳か</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おごそか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荘厳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そうごん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>みもと</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>リフレッシュ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>refresh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>気取る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きどる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勿体ぶる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>もったいぶる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>視点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>してん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗雲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あんうん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肝心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かんじん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>細胞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さいぼう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同胞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>どうほう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ちょっけい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はんけい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いざ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いざ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>記述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きじゅつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下取り</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>したどり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>懲役</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ちょうえき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浜辺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はまべ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>絡む</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>からむ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>増し</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>まし</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>～増し</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>～まし</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>リモコン</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remote control</t>
+  </si>
+  <si>
+    <t>自給</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じきゅう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>時給</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>色直し</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いろなおし</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>それなり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>それなり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>絆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きずな</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>繋がり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>つながり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数値</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すうち</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>追跡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ついせき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日取り</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ひどり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かすか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かすか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仄か</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ほのか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>僅か</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>わずか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模範</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>もはん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>演壇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>えんだん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>倹約</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>けんやく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>節約</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>せつやく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>選考</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>せんこう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>専攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>せんこう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>パトロール</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>patrol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>パトカー</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>patrol car</t>
+  </si>
+  <si>
+    <t>出品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しゅっぴん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>とうほう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不可避</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ふかひ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>みっしゅう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>危ぶむ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あやぶむ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寛容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かんよう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おおやけ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公私</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こうし</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>執筆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しっぴつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手薄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>てうす</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品薄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しなうす</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>口走る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>くちばしる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>懇親会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こんしんかい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>懇談会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こんだんかい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>探検／探険</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>たんけん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>とくしゅう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>パートナー</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>partner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>パートナシップ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>partnership</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>強いる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しいる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>褒美</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ほうび</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面談</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>めんだん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>条約</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じょうやく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>見聞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>けんぶん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前代未聞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぜんだいみもん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常々</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>つねづね</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一括</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いっかつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分割</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぶんかつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>既成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きせい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帰省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>サイレン</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>siren</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>せいてい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生温い</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>なまぬるい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無（な）い袖（そで）は振（ふ）れぬ。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巧妇难为无米之炊。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手厚い</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>てあつい</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -12810,10 +14352,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1583"/>
+  <dimension ref="A1:B1780"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1563" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B1584" sqref="B1584"/>
+    <sheetView tabSelected="1" topLeftCell="A1684" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B1691" sqref="B1691"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
@@ -25423,6 +26965,1574 @@
         <v>3112</v>
       </c>
     </row>
+    <row r="1585" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1585" s="1" t="s">
+        <v>3113</v>
+      </c>
+      <c r="B1585" s="1" t="s">
+        <v>3114</v>
+      </c>
+    </row>
+    <row r="1586" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1586" s="1" t="s">
+        <v>3115</v>
+      </c>
+      <c r="B1586" s="1" t="s">
+        <v>3116</v>
+      </c>
+    </row>
+    <row r="1587" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1587" s="1" t="s">
+        <v>3117</v>
+      </c>
+      <c r="B1587" s="1" t="s">
+        <v>3118</v>
+      </c>
+    </row>
+    <row r="1588" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1588" s="1" t="s">
+        <v>3119</v>
+      </c>
+      <c r="B1588" s="1" t="s">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1589" s="1" t="s">
+        <v>3121</v>
+      </c>
+      <c r="B1589" s="1" t="s">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1590" s="1" t="s">
+        <v>3122</v>
+      </c>
+      <c r="B1590" s="1" t="s">
+        <v>3123</v>
+      </c>
+    </row>
+    <row r="1591" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1591" s="1" t="s">
+        <v>3124</v>
+      </c>
+      <c r="B1591" s="1" t="s">
+        <v>3125</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1592" s="1" t="s">
+        <v>3126</v>
+      </c>
+      <c r="B1592" s="1" t="s">
+        <v>3127</v>
+      </c>
+    </row>
+    <row r="1593" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1593" s="1" t="s">
+        <v>3128</v>
+      </c>
+      <c r="B1593" s="1" t="s">
+        <v>3129</v>
+      </c>
+    </row>
+    <row r="1594" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1594" s="1" t="s">
+        <v>3130</v>
+      </c>
+      <c r="B1594" s="1" t="s">
+        <v>3131</v>
+      </c>
+    </row>
+    <row r="1595" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1595" s="1" t="s">
+        <v>3132</v>
+      </c>
+      <c r="B1595" s="1" t="s">
+        <v>3133</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1596" s="1" t="s">
+        <v>3134</v>
+      </c>
+      <c r="B1596" s="1" t="s">
+        <v>3135</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1597" s="1" t="s">
+        <v>3136</v>
+      </c>
+      <c r="B1597" s="1" t="s">
+        <v>3137</v>
+      </c>
+    </row>
+    <row r="1598" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1598" s="1" t="s">
+        <v>3138</v>
+      </c>
+      <c r="B1598" s="1" t="s">
+        <v>3139</v>
+      </c>
+    </row>
+    <row r="1599" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1599" s="1" t="s">
+        <v>3140</v>
+      </c>
+      <c r="B1599" s="1" t="s">
+        <v>3141</v>
+      </c>
+    </row>
+    <row r="1600" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1600" s="1" t="s">
+        <v>3142</v>
+      </c>
+      <c r="B1600" s="1" t="s">
+        <v>3143</v>
+      </c>
+    </row>
+    <row r="1601" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1601" s="1" t="s">
+        <v>3144</v>
+      </c>
+      <c r="B1601" s="1" t="s">
+        <v>3145</v>
+      </c>
+    </row>
+    <row r="1602" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1602" s="1" t="s">
+        <v>3146</v>
+      </c>
+      <c r="B1602" s="1" t="s">
+        <v>3147</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1603" s="1" t="s">
+        <v>3148</v>
+      </c>
+      <c r="B1603" s="1" t="s">
+        <v>3149</v>
+      </c>
+    </row>
+    <row r="1604" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1604" s="1" t="s">
+        <v>3150</v>
+      </c>
+      <c r="B1604" s="1" t="s">
+        <v>3151</v>
+      </c>
+    </row>
+    <row r="1605" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1605" s="1" t="s">
+        <v>3152</v>
+      </c>
+      <c r="B1605" s="1" t="s">
+        <v>3153</v>
+      </c>
+    </row>
+    <row r="1606" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1606" s="1" t="s">
+        <v>3154</v>
+      </c>
+      <c r="B1606" s="1" t="s">
+        <v>3155</v>
+      </c>
+    </row>
+    <row r="1607" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1607" s="1" t="s">
+        <v>3156</v>
+      </c>
+      <c r="B1607" s="1" t="s">
+        <v>3157</v>
+      </c>
+    </row>
+    <row r="1608" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1608" s="1" t="s">
+        <v>3158</v>
+      </c>
+      <c r="B1608" s="1" t="s">
+        <v>3159</v>
+      </c>
+    </row>
+    <row r="1609" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1609" s="1" t="s">
+        <v>3160</v>
+      </c>
+      <c r="B1609" s="1" t="s">
+        <v>3161</v>
+      </c>
+    </row>
+    <row r="1610" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1610" s="1" t="s">
+        <v>3162</v>
+      </c>
+      <c r="B1610" s="1" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="1611" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1611" s="1" t="s">
+        <v>3164</v>
+      </c>
+      <c r="B1611" s="1" t="s">
+        <v>3165</v>
+      </c>
+    </row>
+    <row r="1612" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1612" s="1" t="s">
+        <v>3167</v>
+      </c>
+      <c r="B1612" s="1" t="s">
+        <v>3166</v>
+      </c>
+    </row>
+    <row r="1613" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1613" s="1" t="s">
+        <v>3168</v>
+      </c>
+      <c r="B1613" s="1" t="s">
+        <v>3169</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1614" s="1" t="s">
+        <v>3170</v>
+      </c>
+      <c r="B1614" s="1" t="s">
+        <v>3171</v>
+      </c>
+    </row>
+    <row r="1615" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1615" s="1" t="s">
+        <v>3172</v>
+      </c>
+      <c r="B1615" s="1" t="s">
+        <v>3173</v>
+      </c>
+    </row>
+    <row r="1616" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1616" s="1" t="s">
+        <v>3174</v>
+      </c>
+      <c r="B1616" s="1" t="s">
+        <v>3175</v>
+      </c>
+    </row>
+    <row r="1617" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1617" s="1" t="s">
+        <v>3176</v>
+      </c>
+      <c r="B1617" s="1" t="s">
+        <v>3177</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1618" s="1" t="s">
+        <v>3178</v>
+      </c>
+      <c r="B1618" s="1" t="s">
+        <v>3179</v>
+      </c>
+    </row>
+    <row r="1619" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1619" s="1" t="s">
+        <v>3180</v>
+      </c>
+      <c r="B1619" s="1" t="s">
+        <v>3181</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1620" s="1" t="s">
+        <v>3182</v>
+      </c>
+      <c r="B1620" s="1" t="s">
+        <v>3183</v>
+      </c>
+    </row>
+    <row r="1621" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1621" s="1" t="s">
+        <v>3184</v>
+      </c>
+      <c r="B1621" s="1" t="s">
+        <v>3185</v>
+      </c>
+    </row>
+    <row r="1622" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1622" s="1" t="s">
+        <v>3186</v>
+      </c>
+      <c r="B1622" s="1" t="s">
+        <v>3187</v>
+      </c>
+    </row>
+    <row r="1623" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1623" s="1" t="s">
+        <v>3188</v>
+      </c>
+      <c r="B1623" s="1" t="s">
+        <v>3189</v>
+      </c>
+    </row>
+    <row r="1624" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1624" s="1" t="s">
+        <v>3190</v>
+      </c>
+      <c r="B1624" s="1" t="s">
+        <v>3191</v>
+      </c>
+    </row>
+    <row r="1625" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1625" s="1" t="s">
+        <v>3192</v>
+      </c>
+      <c r="B1625" s="1" t="s">
+        <v>3193</v>
+      </c>
+    </row>
+    <row r="1626" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1626" s="1" t="s">
+        <v>3194</v>
+      </c>
+      <c r="B1626" s="1" t="s">
+        <v>3195</v>
+      </c>
+    </row>
+    <row r="1627" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1627" s="1" t="s">
+        <v>3196</v>
+      </c>
+      <c r="B1627" s="1" t="s">
+        <v>3197</v>
+      </c>
+    </row>
+    <row r="1628" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1628" s="1" t="s">
+        <v>3198</v>
+      </c>
+      <c r="B1628" s="1" t="s">
+        <v>3199</v>
+      </c>
+    </row>
+    <row r="1629" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1629" s="1" t="s">
+        <v>3200</v>
+      </c>
+      <c r="B1629" s="1" t="s">
+        <v>3201</v>
+      </c>
+    </row>
+    <row r="1630" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1630" s="1" t="s">
+        <v>3202</v>
+      </c>
+      <c r="B1630" s="1" t="s">
+        <v>3203</v>
+      </c>
+    </row>
+    <row r="1631" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1631" s="1" t="s">
+        <v>3204</v>
+      </c>
+      <c r="B1631" s="1" t="s">
+        <v>3205</v>
+      </c>
+    </row>
+    <row r="1632" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1632" s="1" t="s">
+        <v>3206</v>
+      </c>
+      <c r="B1632" s="1" t="s">
+        <v>3207</v>
+      </c>
+    </row>
+    <row r="1633" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1633" s="1" t="s">
+        <v>3208</v>
+      </c>
+      <c r="B1633" s="1" t="s">
+        <v>3209</v>
+      </c>
+    </row>
+    <row r="1634" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1634" s="1" t="s">
+        <v>3210</v>
+      </c>
+      <c r="B1634" s="1" t="s">
+        <v>3211</v>
+      </c>
+    </row>
+    <row r="1635" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1635" s="1" t="s">
+        <v>3212</v>
+      </c>
+      <c r="B1635" s="1" t="s">
+        <v>3213</v>
+      </c>
+    </row>
+    <row r="1636" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1636" s="1" t="s">
+        <v>3214</v>
+      </c>
+      <c r="B1636" s="1" t="s">
+        <v>3215</v>
+      </c>
+    </row>
+    <row r="1637" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1637" s="1" t="s">
+        <v>3216</v>
+      </c>
+      <c r="B1637" s="1" t="s">
+        <v>3217</v>
+      </c>
+    </row>
+    <row r="1638" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1638" s="1" t="s">
+        <v>3218</v>
+      </c>
+      <c r="B1638" s="1" t="s">
+        <v>3219</v>
+      </c>
+    </row>
+    <row r="1639" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1639" s="1" t="s">
+        <v>3220</v>
+      </c>
+      <c r="B1639" s="1" t="s">
+        <v>3221</v>
+      </c>
+    </row>
+    <row r="1640" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1640" s="1" t="s">
+        <v>3222</v>
+      </c>
+      <c r="B1640" s="1" t="s">
+        <v>3223</v>
+      </c>
+    </row>
+    <row r="1641" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1641" s="1" t="s">
+        <v>3224</v>
+      </c>
+      <c r="B1641" s="1" t="s">
+        <v>3225</v>
+      </c>
+    </row>
+    <row r="1642" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1642" s="1" t="s">
+        <v>3226</v>
+      </c>
+      <c r="B1642" s="1" t="s">
+        <v>3227</v>
+      </c>
+    </row>
+    <row r="1643" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1643" s="1" t="s">
+        <v>3228</v>
+      </c>
+      <c r="B1643" s="1" t="s">
+        <v>3229</v>
+      </c>
+    </row>
+    <row r="1644" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1644" s="1" t="s">
+        <v>3230</v>
+      </c>
+      <c r="B1644" s="1" t="s">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="1645" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1645" s="1" t="s">
+        <v>3232</v>
+      </c>
+      <c r="B1645" s="1" t="s">
+        <v>3233</v>
+      </c>
+    </row>
+    <row r="1646" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1646" s="1" t="s">
+        <v>3234</v>
+      </c>
+      <c r="B1646" s="1" t="s">
+        <v>3233</v>
+      </c>
+    </row>
+    <row r="1647" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1647" s="1" t="s">
+        <v>3235</v>
+      </c>
+      <c r="B1647" s="1" t="s">
+        <v>3236</v>
+      </c>
+    </row>
+    <row r="1648" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1648" s="1" t="s">
+        <v>3237</v>
+      </c>
+      <c r="B1648" s="1" t="s">
+        <v>3238</v>
+      </c>
+    </row>
+    <row r="1649" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1649" s="1" t="s">
+        <v>3239</v>
+      </c>
+      <c r="B1649" s="1" t="s">
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="1650" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1650" s="1" t="s">
+        <v>3241</v>
+      </c>
+      <c r="B1650" s="1" t="s">
+        <v>3242</v>
+      </c>
+    </row>
+    <row r="1651" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1651" s="1" t="s">
+        <v>3243</v>
+      </c>
+      <c r="B1651" s="1" t="s">
+        <v>3244</v>
+      </c>
+    </row>
+    <row r="1652" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1652" s="1" t="s">
+        <v>3245</v>
+      </c>
+      <c r="B1652" s="1" t="s">
+        <v>3246</v>
+      </c>
+    </row>
+    <row r="1653" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1653" s="1" t="s">
+        <v>3247</v>
+      </c>
+      <c r="B1653" s="1" t="s">
+        <v>3248</v>
+      </c>
+    </row>
+    <row r="1654" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1654" s="1" t="s">
+        <v>3249</v>
+      </c>
+      <c r="B1654" s="1" t="s">
+        <v>3250</v>
+      </c>
+    </row>
+    <row r="1655" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1655" s="1" t="s">
+        <v>3251</v>
+      </c>
+      <c r="B1655" s="1" t="s">
+        <v>3252</v>
+      </c>
+    </row>
+    <row r="1656" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1656" s="1" t="s">
+        <v>3253</v>
+      </c>
+      <c r="B1656" s="1" t="s">
+        <v>3254</v>
+      </c>
+    </row>
+    <row r="1657" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1657" s="1" t="s">
+        <v>3255</v>
+      </c>
+      <c r="B1657" s="1" t="s">
+        <v>3256</v>
+      </c>
+    </row>
+    <row r="1658" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1658" s="1" t="s">
+        <v>3257</v>
+      </c>
+      <c r="B1658" s="1" t="s">
+        <v>3258</v>
+      </c>
+    </row>
+    <row r="1659" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1659" s="1" t="s">
+        <v>3259</v>
+      </c>
+      <c r="B1659" s="1" t="s">
+        <v>3260</v>
+      </c>
+    </row>
+    <row r="1660" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1660" s="1" t="s">
+        <v>3261</v>
+      </c>
+      <c r="B1660" s="1" t="s">
+        <v>3262</v>
+      </c>
+    </row>
+    <row r="1661" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1661" s="1" t="s">
+        <v>3263</v>
+      </c>
+      <c r="B1661" s="1" t="s">
+        <v>3264</v>
+      </c>
+    </row>
+    <row r="1662" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1662" s="1" t="s">
+        <v>3265</v>
+      </c>
+      <c r="B1662" s="1" t="s">
+        <v>3266</v>
+      </c>
+    </row>
+    <row r="1663" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1663" s="1" t="s">
+        <v>3267</v>
+      </c>
+      <c r="B1663" s="1" t="s">
+        <v>3268</v>
+      </c>
+    </row>
+    <row r="1664" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1664" s="1" t="s">
+        <v>3269</v>
+      </c>
+      <c r="B1664" s="1" t="s">
+        <v>3269</v>
+      </c>
+    </row>
+    <row r="1665" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1665" s="1" t="s">
+        <v>3270</v>
+      </c>
+      <c r="B1665" s="1" t="s">
+        <v>3271</v>
+      </c>
+    </row>
+    <row r="1666" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1666" s="1" t="s">
+        <v>3272</v>
+      </c>
+      <c r="B1666" s="1" t="s">
+        <v>3273</v>
+      </c>
+    </row>
+    <row r="1667" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1667" s="1" t="s">
+        <v>3274</v>
+      </c>
+      <c r="B1667" s="1" t="s">
+        <v>3275</v>
+      </c>
+    </row>
+    <row r="1668" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1668" s="1" t="s">
+        <v>3276</v>
+      </c>
+      <c r="B1668" s="1" t="s">
+        <v>3277</v>
+      </c>
+    </row>
+    <row r="1669" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1669" s="1" t="s">
+        <v>3278</v>
+      </c>
+      <c r="B1669" s="1" t="s">
+        <v>3279</v>
+      </c>
+    </row>
+    <row r="1670" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1670" s="1" t="s">
+        <v>3280</v>
+      </c>
+      <c r="B1670" s="1" t="s">
+        <v>3281</v>
+      </c>
+    </row>
+    <row r="1671" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1671" s="1" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B1671" s="1" t="s">
+        <v>3283</v>
+      </c>
+    </row>
+    <row r="1672" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1672" s="1" t="s">
+        <v>3284</v>
+      </c>
+      <c r="B1672" s="1" t="s">
+        <v>3285</v>
+      </c>
+    </row>
+    <row r="1673" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1673" s="1" t="s">
+        <v>3286</v>
+      </c>
+      <c r="B1673" s="1" t="s">
+        <v>3287</v>
+      </c>
+    </row>
+    <row r="1674" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1674" s="1" t="s">
+        <v>3288</v>
+      </c>
+      <c r="B1674" s="1" t="s">
+        <v>3289</v>
+      </c>
+    </row>
+    <row r="1675" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1675" s="1" t="s">
+        <v>3290</v>
+      </c>
+      <c r="B1675" s="1" t="s">
+        <v>3291</v>
+      </c>
+    </row>
+    <row r="1676" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1676" s="1" t="s">
+        <v>3292</v>
+      </c>
+      <c r="B1676" s="1" t="s">
+        <v>3293</v>
+      </c>
+    </row>
+    <row r="1677" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1677" s="1" t="s">
+        <v>3294</v>
+      </c>
+      <c r="B1677" s="1" t="s">
+        <v>3295</v>
+      </c>
+    </row>
+    <row r="1678" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1678" s="1" t="s">
+        <v>3296</v>
+      </c>
+      <c r="B1678" s="1" t="s">
+        <v>3297</v>
+      </c>
+    </row>
+    <row r="1679" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1679" s="1" t="s">
+        <v>3298</v>
+      </c>
+      <c r="B1679" s="1" t="s">
+        <v>3299</v>
+      </c>
+    </row>
+    <row r="1680" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1680" s="1" t="s">
+        <v>3300</v>
+      </c>
+      <c r="B1680" s="1" t="s">
+        <v>3301</v>
+      </c>
+    </row>
+    <row r="1681" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1681" s="1" t="s">
+        <v>3302</v>
+      </c>
+      <c r="B1681" s="1" t="s">
+        <v>3303</v>
+      </c>
+    </row>
+    <row r="1682" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1682" s="1" t="s">
+        <v>3304</v>
+      </c>
+      <c r="B1682" s="1" t="s">
+        <v>3307</v>
+      </c>
+    </row>
+    <row r="1683" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1683" s="1" t="s">
+        <v>3305</v>
+      </c>
+      <c r="B1683" s="1" t="s">
+        <v>3306</v>
+      </c>
+    </row>
+    <row r="1684" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1684" s="1" t="s">
+        <v>3308</v>
+      </c>
+      <c r="B1684" s="1" t="s">
+        <v>3309</v>
+      </c>
+    </row>
+    <row r="1685" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1685" s="1" t="s">
+        <v>3310</v>
+      </c>
+      <c r="B1685" s="1" t="s">
+        <v>3311</v>
+      </c>
+    </row>
+    <row r="1686" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1686" s="1" t="s">
+        <v>3312</v>
+      </c>
+      <c r="B1686" s="1" t="s">
+        <v>3313</v>
+      </c>
+    </row>
+    <row r="1687" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1687" s="1" t="s">
+        <v>3314</v>
+      </c>
+      <c r="B1687" s="1" t="s">
+        <v>3315</v>
+      </c>
+    </row>
+    <row r="1688" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1688" s="1" t="s">
+        <v>3316</v>
+      </c>
+      <c r="B1688" s="1" t="s">
+        <v>3317</v>
+      </c>
+    </row>
+    <row r="1689" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1689" s="1" t="s">
+        <v>3318</v>
+      </c>
+      <c r="B1689" s="1" t="s">
+        <v>3319</v>
+      </c>
+    </row>
+    <row r="1690" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1690" s="1" t="s">
+        <v>3320</v>
+      </c>
+      <c r="B1690" s="1" t="s">
+        <v>3321</v>
+      </c>
+    </row>
+    <row r="1691" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1691" s="1" t="s">
+        <v>3322</v>
+      </c>
+      <c r="B1691" s="1" t="s">
+        <v>3323</v>
+      </c>
+    </row>
+    <row r="1692" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1692" s="1" t="s">
+        <v>3325</v>
+      </c>
+      <c r="B1692" s="1" t="s">
+        <v>3324</v>
+      </c>
+    </row>
+    <row r="1693" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1693" s="1" t="s">
+        <v>3326</v>
+      </c>
+      <c r="B1693" s="1" t="s">
+        <v>3327</v>
+      </c>
+    </row>
+    <row r="1694" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1694" s="1" t="s">
+        <v>3328</v>
+      </c>
+      <c r="B1694" s="1" t="s">
+        <v>3329</v>
+      </c>
+    </row>
+    <row r="1695" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1695" s="1" t="s">
+        <v>3497</v>
+      </c>
+      <c r="B1695" s="1" t="s">
+        <v>3498</v>
+      </c>
+    </row>
+    <row r="1696" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1696" s="1" t="s">
+        <v>3330</v>
+      </c>
+      <c r="B1696" s="1" t="s">
+        <v>3331</v>
+      </c>
+    </row>
+    <row r="1697" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1697" s="1" t="s">
+        <v>3332</v>
+      </c>
+      <c r="B1697" s="1" t="s">
+        <v>3333</v>
+      </c>
+    </row>
+    <row r="1698" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1698" s="1" t="s">
+        <v>3334</v>
+      </c>
+      <c r="B1698" s="1" t="s">
+        <v>3335</v>
+      </c>
+    </row>
+    <row r="1699" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1699" s="1" t="s">
+        <v>3336</v>
+      </c>
+      <c r="B1699" s="1" t="s">
+        <v>3337</v>
+      </c>
+    </row>
+    <row r="1700" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1700" s="1" t="s">
+        <v>3338</v>
+      </c>
+      <c r="B1700" s="1" t="s">
+        <v>3339</v>
+      </c>
+    </row>
+    <row r="1701" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1701" s="1" t="s">
+        <v>3340</v>
+      </c>
+      <c r="B1701" s="1" t="s">
+        <v>3341</v>
+      </c>
+    </row>
+    <row r="1702" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1702" s="1" t="s">
+        <v>3342</v>
+      </c>
+      <c r="B1702" s="1" t="s">
+        <v>3343</v>
+      </c>
+    </row>
+    <row r="1703" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1703" s="1" t="s">
+        <v>3344</v>
+      </c>
+      <c r="B1703" s="1" t="s">
+        <v>3345</v>
+      </c>
+    </row>
+    <row r="1704" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1704" s="1" t="s">
+        <v>3346</v>
+      </c>
+      <c r="B1704" s="1" t="s">
+        <v>3347</v>
+      </c>
+    </row>
+    <row r="1705" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1705" s="1" t="s">
+        <v>3348</v>
+      </c>
+      <c r="B1705" s="1" t="s">
+        <v>3349</v>
+      </c>
+    </row>
+    <row r="1706" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1706" s="1" t="s">
+        <v>3350</v>
+      </c>
+      <c r="B1706" s="1" t="s">
+        <v>3351</v>
+      </c>
+    </row>
+    <row r="1707" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1707" s="1" t="s">
+        <v>3352</v>
+      </c>
+      <c r="B1707" s="1" t="s">
+        <v>3353</v>
+      </c>
+    </row>
+    <row r="1708" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1708" s="1" t="s">
+        <v>3354</v>
+      </c>
+      <c r="B1708" s="1" t="s">
+        <v>3355</v>
+      </c>
+    </row>
+    <row r="1709" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1709" s="1" t="s">
+        <v>3356</v>
+      </c>
+      <c r="B1709" s="1" t="s">
+        <v>3357</v>
+      </c>
+    </row>
+    <row r="1710" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1710" s="1" t="s">
+        <v>3358</v>
+      </c>
+      <c r="B1710" s="1" t="s">
+        <v>3359</v>
+      </c>
+    </row>
+    <row r="1711" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1711" s="1" t="s">
+        <v>3360</v>
+      </c>
+      <c r="B1711" s="1" t="s">
+        <v>3361</v>
+      </c>
+    </row>
+    <row r="1712" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1712" s="1" t="s">
+        <v>3362</v>
+      </c>
+      <c r="B1712" s="1" t="s">
+        <v>3361</v>
+      </c>
+    </row>
+    <row r="1713" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1713" s="1" t="s">
+        <v>3363</v>
+      </c>
+      <c r="B1713" s="1" t="s">
+        <v>3364</v>
+      </c>
+    </row>
+    <row r="1714" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1714" s="1" t="s">
+        <v>3365</v>
+      </c>
+      <c r="B1714" s="1" t="s">
+        <v>3366</v>
+      </c>
+    </row>
+    <row r="1715" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1715" s="1" t="s">
+        <v>3367</v>
+      </c>
+      <c r="B1715" s="1" t="s">
+        <v>3368</v>
+      </c>
+    </row>
+    <row r="1716" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1716" s="1" t="s">
+        <v>3369</v>
+      </c>
+      <c r="B1716" s="1" t="s">
+        <v>3370</v>
+      </c>
+    </row>
+    <row r="1717" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1717" s="1" t="s">
+        <v>3371</v>
+      </c>
+      <c r="B1717" s="1" t="s">
+        <v>3372</v>
+      </c>
+    </row>
+    <row r="1718" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1718" s="1" t="s">
+        <v>3373</v>
+      </c>
+      <c r="B1718" s="1" t="s">
+        <v>3374</v>
+      </c>
+    </row>
+    <row r="1719" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1719" s="1" t="s">
+        <v>3375</v>
+      </c>
+      <c r="B1719" s="1" t="s">
+        <v>3376</v>
+      </c>
+    </row>
+    <row r="1720" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1720" s="1" t="s">
+        <v>3377</v>
+      </c>
+      <c r="B1720" s="1" t="s">
+        <v>3378</v>
+      </c>
+    </row>
+    <row r="1721" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1721" s="1" t="s">
+        <v>3379</v>
+      </c>
+      <c r="B1721" s="1" t="s">
+        <v>3380</v>
+      </c>
+    </row>
+    <row r="1722" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1722" s="1" t="s">
+        <v>3381</v>
+      </c>
+      <c r="B1722" s="1" t="s">
+        <v>3382</v>
+      </c>
+    </row>
+    <row r="1723" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1723" s="1" t="s">
+        <v>3383</v>
+      </c>
+      <c r="B1723" s="1" t="s">
+        <v>3384</v>
+      </c>
+    </row>
+    <row r="1724" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1724" s="1" t="s">
+        <v>3385</v>
+      </c>
+      <c r="B1724" s="1" t="s">
+        <v>3386</v>
+      </c>
+    </row>
+    <row r="1725" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1725" s="1" t="s">
+        <v>3387</v>
+      </c>
+      <c r="B1725" s="1" t="s">
+        <v>3388</v>
+      </c>
+    </row>
+    <row r="1726" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1726" s="1" t="s">
+        <v>3389</v>
+      </c>
+      <c r="B1726" s="1" t="s">
+        <v>3390</v>
+      </c>
+    </row>
+    <row r="1727" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1727" s="1" t="s">
+        <v>3391</v>
+      </c>
+      <c r="B1727" s="1" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="1728" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1728" s="1" t="s">
+        <v>3393</v>
+      </c>
+      <c r="B1728" s="1" t="s">
+        <v>3394</v>
+      </c>
+    </row>
+    <row r="1729" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1729" s="1" t="s">
+        <v>3395</v>
+      </c>
+      <c r="B1729" s="1" t="s">
+        <v>3394</v>
+      </c>
+    </row>
+    <row r="1730" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1730" s="1" t="s">
+        <v>3396</v>
+      </c>
+      <c r="B1730" s="1" t="s">
+        <v>3397</v>
+      </c>
+    </row>
+    <row r="1731" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1731" s="1" t="s">
+        <v>3398</v>
+      </c>
+      <c r="B1731" s="1" t="s">
+        <v>3399</v>
+      </c>
+    </row>
+    <row r="1732" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1732" s="1" t="s">
+        <v>3400</v>
+      </c>
+      <c r="B1732" s="1" t="s">
+        <v>3401</v>
+      </c>
+    </row>
+    <row r="1733" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1733" s="1" t="s">
+        <v>3402</v>
+      </c>
+      <c r="B1733" s="1" t="s">
+        <v>3403</v>
+      </c>
+    </row>
+    <row r="1734" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1734" s="1" t="s">
+        <v>3404</v>
+      </c>
+      <c r="B1734" s="1" t="s">
+        <v>3405</v>
+      </c>
+    </row>
+    <row r="1735" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1735" s="1" t="s">
+        <v>3406</v>
+      </c>
+      <c r="B1735" s="1" t="s">
+        <v>3407</v>
+      </c>
+    </row>
+    <row r="1736" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1736" s="1" t="s">
+        <v>3408</v>
+      </c>
+      <c r="B1736" s="1" t="s">
+        <v>3409</v>
+      </c>
+    </row>
+    <row r="1737" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1737" s="1" t="s">
+        <v>3410</v>
+      </c>
+      <c r="B1737" s="1" t="s">
+        <v>3411</v>
+      </c>
+    </row>
+    <row r="1738" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1738" s="1" t="s">
+        <v>3412</v>
+      </c>
+      <c r="B1738" s="1" t="s">
+        <v>3413</v>
+      </c>
+    </row>
+    <row r="1739" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1739" s="1" t="s">
+        <v>3414</v>
+      </c>
+      <c r="B1739" s="1" t="s">
+        <v>3415</v>
+      </c>
+    </row>
+    <row r="1740" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1740" s="1" t="s">
+        <v>3416</v>
+      </c>
+      <c r="B1740" s="1" t="s">
+        <v>3417</v>
+      </c>
+    </row>
+    <row r="1741" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1741" s="1" t="s">
+        <v>3418</v>
+      </c>
+      <c r="B1741" s="1" t="s">
+        <v>3419</v>
+      </c>
+    </row>
+    <row r="1742" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1742" s="1" t="s">
+        <v>3420</v>
+      </c>
+      <c r="B1742" s="1" t="s">
+        <v>3421</v>
+      </c>
+    </row>
+    <row r="1743" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1743" s="1" t="s">
+        <v>3422</v>
+      </c>
+      <c r="B1743" s="1" t="s">
+        <v>3423</v>
+      </c>
+    </row>
+    <row r="1744" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1744" s="1" t="s">
+        <v>3424</v>
+      </c>
+      <c r="B1744" s="1" t="s">
+        <v>3425</v>
+      </c>
+    </row>
+    <row r="1745" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1745" s="1" t="s">
+        <v>3426</v>
+      </c>
+      <c r="B1745" s="1" t="s">
+        <v>3427</v>
+      </c>
+    </row>
+    <row r="1746" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1746" s="1" t="s">
+        <v>3428</v>
+      </c>
+      <c r="B1746" s="1" t="s">
+        <v>3429</v>
+      </c>
+    </row>
+    <row r="1747" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1747" s="1" t="s">
+        <v>3430</v>
+      </c>
+      <c r="B1747" s="1" t="s">
+        <v>3431</v>
+      </c>
+    </row>
+    <row r="1748" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1748" s="1" t="s">
+        <v>3432</v>
+      </c>
+      <c r="B1748" s="1" t="s">
+        <v>3433</v>
+      </c>
+    </row>
+    <row r="1749" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1749" s="1" t="s">
+        <v>3435</v>
+      </c>
+      <c r="B1749" s="1" t="s">
+        <v>3434</v>
+      </c>
+    </row>
+    <row r="1750" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1750" s="1" t="s">
+        <v>3436</v>
+      </c>
+      <c r="B1750" s="1" t="s">
+        <v>3437</v>
+      </c>
+    </row>
+    <row r="1751" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1751" s="1" t="s">
+        <v>3438</v>
+      </c>
+      <c r="B1751" s="1" t="s">
+        <v>3439</v>
+      </c>
+    </row>
+    <row r="1752" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1752" s="1" t="s">
+        <v>3440</v>
+      </c>
+      <c r="B1752" s="1" t="s">
+        <v>3441</v>
+      </c>
+    </row>
+    <row r="1753" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1753" s="1" t="s">
+        <v>3442</v>
+      </c>
+      <c r="B1753" s="1" t="s">
+        <v>3443</v>
+      </c>
+    </row>
+    <row r="1754" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1754" s="1" t="s">
+        <v>3444</v>
+      </c>
+      <c r="B1754" s="1" t="s">
+        <v>3445</v>
+      </c>
+    </row>
+    <row r="1755" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1755" s="1" t="s">
+        <v>3446</v>
+      </c>
+      <c r="B1755" s="1" t="s">
+        <v>3447</v>
+      </c>
+    </row>
+    <row r="1756" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1756" s="1" t="s">
+        <v>3448</v>
+      </c>
+      <c r="B1756" s="1" t="s">
+        <v>3449</v>
+      </c>
+    </row>
+    <row r="1757" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1757" s="1" t="s">
+        <v>3450</v>
+      </c>
+      <c r="B1757" s="1" t="s">
+        <v>3451</v>
+      </c>
+    </row>
+    <row r="1758" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1758" s="1" t="s">
+        <v>3452</v>
+      </c>
+      <c r="B1758" s="1" t="s">
+        <v>3453</v>
+      </c>
+    </row>
+    <row r="1759" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1759" s="1" t="s">
+        <v>3454</v>
+      </c>
+      <c r="B1759" s="1" t="s">
+        <v>3455</v>
+      </c>
+    </row>
+    <row r="1760" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1760" s="1" t="s">
+        <v>3456</v>
+      </c>
+      <c r="B1760" s="1" t="s">
+        <v>3457</v>
+      </c>
+    </row>
+    <row r="1761" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1761" s="1" t="s">
+        <v>3458</v>
+      </c>
+      <c r="B1761" s="1" t="s">
+        <v>3459</v>
+      </c>
+    </row>
+    <row r="1762" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1762" s="1" t="s">
+        <v>3460</v>
+      </c>
+      <c r="B1762" s="1" t="s">
+        <v>3461</v>
+      </c>
+    </row>
+    <row r="1763" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1763" s="1" t="s">
+        <v>3462</v>
+      </c>
+      <c r="B1763" s="1" t="s">
+        <v>3463</v>
+      </c>
+    </row>
+    <row r="1764" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1764" s="1" t="s">
+        <v>3464</v>
+      </c>
+      <c r="B1764" s="1" t="s">
+        <v>3465</v>
+      </c>
+    </row>
+    <row r="1765" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1765" s="1" t="s">
+        <v>3466</v>
+      </c>
+      <c r="B1765" s="1" t="s">
+        <v>3467</v>
+      </c>
+    </row>
+    <row r="1766" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1766" s="1" t="s">
+        <v>3468</v>
+      </c>
+      <c r="B1766" s="1" t="s">
+        <v>3469</v>
+      </c>
+    </row>
+    <row r="1767" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1767" s="1" t="s">
+        <v>3470</v>
+      </c>
+      <c r="B1767" s="1" t="s">
+        <v>3471</v>
+      </c>
+    </row>
+    <row r="1768" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1768" s="1" t="s">
+        <v>3472</v>
+      </c>
+      <c r="B1768" s="1" t="s">
+        <v>3473</v>
+      </c>
+    </row>
+    <row r="1769" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1769" s="1" t="s">
+        <v>3474</v>
+      </c>
+      <c r="B1769" s="1" t="s">
+        <v>3475</v>
+      </c>
+    </row>
+    <row r="1770" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1770" s="1" t="s">
+        <v>3476</v>
+      </c>
+      <c r="B1770" s="1" t="s">
+        <v>3477</v>
+      </c>
+    </row>
+    <row r="1771" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1771" s="1" t="s">
+        <v>3478</v>
+      </c>
+      <c r="B1771" s="1" t="s">
+        <v>3479</v>
+      </c>
+    </row>
+    <row r="1772" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1772" s="1" t="s">
+        <v>3480</v>
+      </c>
+      <c r="B1772" s="1" t="s">
+        <v>3481</v>
+      </c>
+    </row>
+    <row r="1773" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1773" s="1" t="s">
+        <v>3482</v>
+      </c>
+      <c r="B1773" s="1" t="s">
+        <v>3483</v>
+      </c>
+    </row>
+    <row r="1774" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1774" s="1" t="s">
+        <v>3484</v>
+      </c>
+      <c r="B1774" s="1" t="s">
+        <v>3485</v>
+      </c>
+    </row>
+    <row r="1775" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1775" s="1" t="s">
+        <v>3486</v>
+      </c>
+      <c r="B1775" s="1" t="s">
+        <v>3487</v>
+      </c>
+    </row>
+    <row r="1776" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1776" s="1" t="s">
+        <v>3488</v>
+      </c>
+      <c r="B1776" s="1" t="s">
+        <v>3487</v>
+      </c>
+    </row>
+    <row r="1777" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1777" s="1" t="s">
+        <v>3489</v>
+      </c>
+      <c r="B1777" s="1" t="s">
+        <v>3490</v>
+      </c>
+    </row>
+    <row r="1778" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1778" s="1" t="s">
+        <v>3491</v>
+      </c>
+      <c r="B1778" s="1" t="s">
+        <v>3492</v>
+      </c>
+    </row>
+    <row r="1779" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1779" s="1" t="s">
+        <v>3493</v>
+      </c>
+      <c r="B1779" s="1" t="s">
+        <v>3494</v>
+      </c>
+    </row>
+    <row r="1780" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1780" s="1" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B1780" s="1" t="s">
+        <v>3496</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/単語3000.xlsx
+++ b/単語3000.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3542" uniqueCount="3499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3938" uniqueCount="3893">
   <si>
     <t>足掛かり</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -13992,6 +13992,1577 @@
   </si>
   <si>
     <t>てあつい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>知性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ちせい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地勢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ちせい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登下校</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>とうげこう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粘着</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ねんちゃく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ふち／ふじ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不治</t>
+  </si>
+  <si>
+    <t>嵌まる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はまる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ほうけん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>マニア</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mania</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主導</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しゅどう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>両極</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>りょうきょく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>余る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あまる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大筋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おおすじ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粗筋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あらすじ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交際</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こうさい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>為替</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かわせ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相殺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そうさ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燻る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>くすぶる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>シンポジウム</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>symposium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飛び入り</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>とびいり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>だんどり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>段取り</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疲労</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ひろう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いそいそ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いそいそ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手遅れ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ておくれ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はいち</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ふよう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不要／不用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>謝絶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しゃぜつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>張り合う</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はりあう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>競争</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きょうそう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ちゅうだん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>経路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>けいろ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>概説</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>がいせつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>概論</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>がいろん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手近</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>てぢか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>オーソドックス</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orthodox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正統的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>せいとうてき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕獲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ほかく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>簡潔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かんけつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完結</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かんけつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敷金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しききん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>れいきん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>候補</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こうほ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立候補</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>りっこうほ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今や</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いまや</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浅薄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>せんぱく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>船舶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>せんぱく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄贈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きぞう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>フリーター</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>freeter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ニート</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>neet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>だいこう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道理で</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>どうりで</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あんじ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ヒント</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下降</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かこう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上昇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じょうしょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さよう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>絶版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぜっぱん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しょはん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷やかす</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ひやかす</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ほんたい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>オーバー</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>over</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>収益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しゅうえき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こてい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>煙る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>けむる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>けむり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>煙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>アポ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appointment</t>
+  </si>
+  <si>
+    <t>王者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おうじゃ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兼業</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>けんぎょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兼ねる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かねる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首相</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しゅしょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主将</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しゅしょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>駆られる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かられる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>駆使</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>くし</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>絶望</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぜつぼう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>断行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>だんこう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>断交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>だんこう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逃亡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>とうぼう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>発育</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はついく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浚う</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さらう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>復習う</t>
+  </si>
+  <si>
+    <t>不調</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ふちょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鞠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>まり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>憩い</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いこい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>強行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きょうこう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恐慌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きょうこう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘆く</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>なげく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘆かわしい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>なげかわしい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>セクション</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>section</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手掛かり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>てがかり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>足掛かり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あしがかり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しょぞく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>賃貸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ちんたい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ばれる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特許</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>とっきょ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>情け</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>なさけ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>貧血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ひんけつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ロープウェー</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ropeway</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>クーブルカー</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cable car</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空しい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>むなしい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>親孝行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おやこうこう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>親不孝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おやふこう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡桃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>くるみ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杏仁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あんにん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>松の実</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>まつのみ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>賞与</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しょうよ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>コンパス</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>compass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一刻も早い</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いっこくもはやい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盛り</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さかり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>～盛り</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>～ざかり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>頭痛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ずつう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土俵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>どひょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土俵際</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>どひょうぎわ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部署</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぶしょ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>垣間見る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かいまみる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雨戸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あまど</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逆上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぎゃくじょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是正</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぜせい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>つばめ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しとやか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淑やか</t>
+  </si>
+  <si>
+    <t>パンク</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>puncture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>報酬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ほうしゅう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>応酬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おうしゅう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盛り付け</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>もりつけ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>横着</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おうちゃく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怠ける</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>なまける</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>断然</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>だんぜん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切れ目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きれめ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しょてい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脱線</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>だっせん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>編成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>へんせい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>専ら</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>もっぱら</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>みっせつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>アルカリ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alkali</t>
+  </si>
+  <si>
+    <t>酸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>救済</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きゅうさい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>救助</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きゅうじょ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すし詰め</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すしずめ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>萎れる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しおれる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>萎びる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しなびる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特権</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>とっけん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>発掘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はっくつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奉仕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ほうし</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目盛り</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>めもり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手堅い</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>てがたい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尽力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じんりょく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ちょうほ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>バックナンバー</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>back number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多数決</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>たすうけつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移り変わる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>うつりかわる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移り変わり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>うつりかわり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ひび</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>満月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>まんげつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疾病</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しっぺい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>スポンサー</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sponsor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>パトロン</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>patron</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取り除く</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>とりのぞく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滞納</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>たいのう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不順</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ふじゅん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不純</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ふじゅん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>至れり尽くせり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いたれりつくせり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>詐欺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さぎ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宥める</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>なだめる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算盤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そろばん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掛け</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かけ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>記名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きめい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無記名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>むきめい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芝居</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しばい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あやふや</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あやふや</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曖昧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あいまい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こうみょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>スプリング</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sping</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そのもの</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そのもの</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>～そのもの</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>～そのもの</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>てんか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汚らわしい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>けがらわしい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>発病</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はつびょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ブランド</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漁師</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>りょうし</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欠乏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>けつぼう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不足</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ふそく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根強い</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ねづよい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おおかた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>コード</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>コード</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cord</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さなか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さいちゅう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制約</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>せいやく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成約</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>せいやく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>歩む</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あゆむ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>歩み</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あゆみ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付け</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>つけ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>～付け</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>～つけ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不評</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ふひょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好評</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こうひょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勝算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しょうさん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勝ち目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かちめ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>類</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>たぐい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一筋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ひとすじ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能（のう）ある鷹（たか）は爪（つめ）を隠（かく）す。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真人不露相。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -14352,10 +15923,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1780"/>
+  <dimension ref="A1:B1979"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1684" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B1691" sqref="B1691"/>
+    <sheetView tabSelected="1" topLeftCell="A1951" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A1980" sqref="A1980"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
@@ -28533,6 +30104,1590 @@
         <v>3496</v>
       </c>
     </row>
+    <row r="1782" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1782" s="1" t="s">
+        <v>3499</v>
+      </c>
+      <c r="B1782" s="1" t="s">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="1783" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1783" s="1" t="s">
+        <v>3501</v>
+      </c>
+      <c r="B1783" s="1" t="s">
+        <v>3502</v>
+      </c>
+    </row>
+    <row r="1784" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1784" s="1" t="s">
+        <v>3503</v>
+      </c>
+      <c r="B1784" s="1" t="s">
+        <v>3504</v>
+      </c>
+    </row>
+    <row r="1785" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1785" s="1" t="s">
+        <v>3505</v>
+      </c>
+      <c r="B1785" s="1" t="s">
+        <v>3506</v>
+      </c>
+    </row>
+    <row r="1786" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1786" s="1" t="s">
+        <v>3508</v>
+      </c>
+      <c r="B1786" s="1" t="s">
+        <v>3507</v>
+      </c>
+    </row>
+    <row r="1787" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1787" s="1" t="s">
+        <v>3509</v>
+      </c>
+      <c r="B1787" s="1" t="s">
+        <v>3510</v>
+      </c>
+    </row>
+    <row r="1788" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1788" s="1" t="s">
+        <v>3511</v>
+      </c>
+      <c r="B1788" s="1" t="s">
+        <v>3512</v>
+      </c>
+    </row>
+    <row r="1789" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1789" s="1" t="s">
+        <v>3513</v>
+      </c>
+      <c r="B1789" s="1" t="s">
+        <v>3514</v>
+      </c>
+    </row>
+    <row r="1790" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1790" s="1" t="s">
+        <v>3515</v>
+      </c>
+      <c r="B1790" s="1" t="s">
+        <v>3516</v>
+      </c>
+    </row>
+    <row r="1791" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1791" s="1" t="s">
+        <v>3517</v>
+      </c>
+      <c r="B1791" s="1" t="s">
+        <v>3518</v>
+      </c>
+    </row>
+    <row r="1792" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1792" s="1" t="s">
+        <v>3519</v>
+      </c>
+      <c r="B1792" s="1" t="s">
+        <v>3520</v>
+      </c>
+    </row>
+    <row r="1793" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1793" s="1" t="s">
+        <v>3521</v>
+      </c>
+      <c r="B1793" s="1" t="s">
+        <v>3522</v>
+      </c>
+    </row>
+    <row r="1794" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1794" s="1" t="s">
+        <v>3523</v>
+      </c>
+      <c r="B1794" s="1" t="s">
+        <v>3524</v>
+      </c>
+    </row>
+    <row r="1795" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1795" s="1" t="s">
+        <v>3525</v>
+      </c>
+      <c r="B1795" s="1" t="s">
+        <v>3526</v>
+      </c>
+    </row>
+    <row r="1796" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1796" s="1" t="s">
+        <v>3527</v>
+      </c>
+      <c r="B1796" s="1" t="s">
+        <v>3528</v>
+      </c>
+    </row>
+    <row r="1797" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1797" s="1" t="s">
+        <v>3529</v>
+      </c>
+      <c r="B1797" s="1" t="s">
+        <v>3530</v>
+      </c>
+    </row>
+    <row r="1798" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1798" s="1" t="s">
+        <v>3531</v>
+      </c>
+      <c r="B1798" s="1" t="s">
+        <v>3532</v>
+      </c>
+    </row>
+    <row r="1799" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1799" s="1" t="s">
+        <v>3533</v>
+      </c>
+      <c r="B1799" s="1" t="s">
+        <v>3534</v>
+      </c>
+    </row>
+    <row r="1800" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1800" s="1" t="s">
+        <v>3535</v>
+      </c>
+      <c r="B1800" s="1" t="s">
+        <v>3536</v>
+      </c>
+    </row>
+    <row r="1801" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1801" s="1" t="s">
+        <v>3538</v>
+      </c>
+      <c r="B1801" s="1" t="s">
+        <v>3537</v>
+      </c>
+    </row>
+    <row r="1802" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1802" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B1802" s="1" t="s">
+        <v>3540</v>
+      </c>
+    </row>
+    <row r="1803" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1803" s="1" t="s">
+        <v>3541</v>
+      </c>
+      <c r="B1803" s="1" t="s">
+        <v>3542</v>
+      </c>
+    </row>
+    <row r="1804" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1804" s="1" t="s">
+        <v>3543</v>
+      </c>
+      <c r="B1804" s="1" t="s">
+        <v>3544</v>
+      </c>
+    </row>
+    <row r="1805" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1805" s="1" t="s">
+        <v>3545</v>
+      </c>
+      <c r="B1805" s="1" t="s">
+        <v>3546</v>
+      </c>
+    </row>
+    <row r="1806" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1806" s="1" t="s">
+        <v>3548</v>
+      </c>
+      <c r="B1806" s="1" t="s">
+        <v>3547</v>
+      </c>
+    </row>
+    <row r="1807" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1807" s="1" t="s">
+        <v>3549</v>
+      </c>
+      <c r="B1807" s="1" t="s">
+        <v>3550</v>
+      </c>
+    </row>
+    <row r="1808" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1808" s="1" t="s">
+        <v>3551</v>
+      </c>
+      <c r="B1808" s="1" t="s">
+        <v>3552</v>
+      </c>
+    </row>
+    <row r="1809" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1809" s="1" t="s">
+        <v>3553</v>
+      </c>
+      <c r="B1809" s="1" t="s">
+        <v>3554</v>
+      </c>
+    </row>
+    <row r="1810" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1810" s="1" t="s">
+        <v>3555</v>
+      </c>
+      <c r="B1810" s="1" t="s">
+        <v>3556</v>
+      </c>
+    </row>
+    <row r="1811" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1811" s="1" t="s">
+        <v>3557</v>
+      </c>
+      <c r="B1811" s="1" t="s">
+        <v>3558</v>
+      </c>
+    </row>
+    <row r="1812" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1812" s="1" t="s">
+        <v>3559</v>
+      </c>
+      <c r="B1812" s="1" t="s">
+        <v>3560</v>
+      </c>
+    </row>
+    <row r="1813" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1813" s="1" t="s">
+        <v>3561</v>
+      </c>
+      <c r="B1813" s="1" t="s">
+        <v>3562</v>
+      </c>
+    </row>
+    <row r="1814" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1814" s="1" t="s">
+        <v>3563</v>
+      </c>
+      <c r="B1814" s="1" t="s">
+        <v>3564</v>
+      </c>
+    </row>
+    <row r="1815" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1815" s="1" t="s">
+        <v>3565</v>
+      </c>
+      <c r="B1815" s="1" t="s">
+        <v>3566</v>
+      </c>
+    </row>
+    <row r="1816" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1816" s="1" t="s">
+        <v>3567</v>
+      </c>
+      <c r="B1816" s="1" t="s">
+        <v>3568</v>
+      </c>
+    </row>
+    <row r="1817" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1817" s="1" t="s">
+        <v>3569</v>
+      </c>
+      <c r="B1817" s="1" t="s">
+        <v>3570</v>
+      </c>
+    </row>
+    <row r="1818" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1818" s="1" t="s">
+        <v>3571</v>
+      </c>
+      <c r="B1818" s="1" t="s">
+        <v>3572</v>
+      </c>
+    </row>
+    <row r="1819" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1819" s="1" t="s">
+        <v>3573</v>
+      </c>
+      <c r="B1819" s="1" t="s">
+        <v>3574</v>
+      </c>
+    </row>
+    <row r="1820" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1820" s="1" t="s">
+        <v>3575</v>
+      </c>
+      <c r="B1820" s="1" t="s">
+        <v>3576</v>
+      </c>
+    </row>
+    <row r="1821" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1821" s="1" t="s">
+        <v>3577</v>
+      </c>
+      <c r="B1821" s="1" t="s">
+        <v>3578</v>
+      </c>
+    </row>
+    <row r="1822" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1822" s="1" t="s">
+        <v>3579</v>
+      </c>
+      <c r="B1822" s="1" t="s">
+        <v>3580</v>
+      </c>
+    </row>
+    <row r="1823" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1823" s="1" t="s">
+        <v>3581</v>
+      </c>
+      <c r="B1823" s="1" t="s">
+        <v>3582</v>
+      </c>
+    </row>
+    <row r="1824" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1824" s="1" t="s">
+        <v>3583</v>
+      </c>
+      <c r="B1824" s="1" t="s">
+        <v>3584</v>
+      </c>
+    </row>
+    <row r="1825" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1825" s="1" t="s">
+        <v>3585</v>
+      </c>
+      <c r="B1825" s="1" t="s">
+        <v>3586</v>
+      </c>
+    </row>
+    <row r="1826" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1826" s="1" t="s">
+        <v>3587</v>
+      </c>
+      <c r="B1826" s="1" t="s">
+        <v>3588</v>
+      </c>
+    </row>
+    <row r="1827" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1827" s="1" t="s">
+        <v>3589</v>
+      </c>
+      <c r="B1827" s="1" t="s">
+        <v>3590</v>
+      </c>
+    </row>
+    <row r="1828" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1828" s="1" t="s">
+        <v>3591</v>
+      </c>
+      <c r="B1828" s="1" t="s">
+        <v>3592</v>
+      </c>
+    </row>
+    <row r="1829" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1829" s="1" t="s">
+        <v>3593</v>
+      </c>
+      <c r="B1829" s="1" t="s">
+        <v>3594</v>
+      </c>
+    </row>
+    <row r="1830" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1830" s="1" t="s">
+        <v>3595</v>
+      </c>
+      <c r="B1830" s="1" t="s">
+        <v>3596</v>
+      </c>
+    </row>
+    <row r="1831" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1831" s="1" t="s">
+        <v>3597</v>
+      </c>
+      <c r="B1831" s="1" t="s">
+        <v>3598</v>
+      </c>
+    </row>
+    <row r="1832" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1832" s="1" t="s">
+        <v>3599</v>
+      </c>
+      <c r="B1832" s="1" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="1833" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1833" s="1" t="s">
+        <v>3601</v>
+      </c>
+      <c r="B1833" s="1" t="s">
+        <v>3602</v>
+      </c>
+    </row>
+    <row r="1834" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1834" s="1" t="s">
+        <v>3603</v>
+      </c>
+      <c r="B1834" s="1" t="s">
+        <v>3604</v>
+      </c>
+    </row>
+    <row r="1835" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1835" s="1" t="s">
+        <v>3605</v>
+      </c>
+      <c r="B1835" s="1" t="s">
+        <v>3606</v>
+      </c>
+    </row>
+    <row r="1836" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1836" s="1" t="s">
+        <v>3607</v>
+      </c>
+      <c r="B1836" s="1" t="s">
+        <v>3608</v>
+      </c>
+    </row>
+    <row r="1837" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1837" s="1" t="s">
+        <v>3609</v>
+      </c>
+      <c r="B1837" s="1" t="s">
+        <v>3610</v>
+      </c>
+    </row>
+    <row r="1838" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1838" s="1" t="s">
+        <v>3611</v>
+      </c>
+      <c r="B1838" s="1" t="s">
+        <v>3612</v>
+      </c>
+    </row>
+    <row r="1839" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1839" s="1" t="s">
+        <v>3613</v>
+      </c>
+      <c r="B1839" s="1" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1840" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1840" s="1" t="s">
+        <v>3615</v>
+      </c>
+      <c r="B1840" s="1" t="s">
+        <v>3616</v>
+      </c>
+    </row>
+    <row r="1841" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1841" s="1" t="s">
+        <v>3617</v>
+      </c>
+      <c r="B1841" s="1" t="s">
+        <v>3618</v>
+      </c>
+    </row>
+    <row r="1842" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1842" s="1" t="s">
+        <v>3619</v>
+      </c>
+      <c r="B1842" s="1" t="s">
+        <v>3620</v>
+      </c>
+    </row>
+    <row r="1843" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1843" s="1" t="s">
+        <v>3621</v>
+      </c>
+      <c r="B1843" s="1" t="s">
+        <v>3622</v>
+      </c>
+    </row>
+    <row r="1844" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1844" s="1" t="s">
+        <v>3623</v>
+      </c>
+      <c r="B1844" s="1" t="s">
+        <v>3624</v>
+      </c>
+    </row>
+    <row r="1845" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1845" s="1" t="s">
+        <v>3626</v>
+      </c>
+      <c r="B1845" s="1" t="s">
+        <v>3625</v>
+      </c>
+    </row>
+    <row r="1846" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1846" s="1" t="s">
+        <v>3627</v>
+      </c>
+      <c r="B1846" s="1" t="s">
+        <v>3628</v>
+      </c>
+    </row>
+    <row r="1847" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1847" s="1" t="s">
+        <v>3629</v>
+      </c>
+      <c r="B1847" s="1" t="s">
+        <v>3630</v>
+      </c>
+    </row>
+    <row r="1848" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1848" s="1" t="s">
+        <v>3631</v>
+      </c>
+      <c r="B1848" s="1" t="s">
+        <v>3632</v>
+      </c>
+    </row>
+    <row r="1849" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1849" s="1" t="s">
+        <v>3633</v>
+      </c>
+      <c r="B1849" s="1" t="s">
+        <v>3634</v>
+      </c>
+    </row>
+    <row r="1850" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1850" s="1" t="s">
+        <v>3635</v>
+      </c>
+      <c r="B1850" s="1" t="s">
+        <v>3636</v>
+      </c>
+    </row>
+    <row r="1851" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1851" s="1" t="s">
+        <v>3637</v>
+      </c>
+      <c r="B1851" s="1" t="s">
+        <v>3638</v>
+      </c>
+    </row>
+    <row r="1852" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1852" s="1" t="s">
+        <v>3639</v>
+      </c>
+      <c r="B1852" s="1" t="s">
+        <v>3640</v>
+      </c>
+    </row>
+    <row r="1853" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1853" s="1" t="s">
+        <v>3641</v>
+      </c>
+      <c r="B1853" s="1" t="s">
+        <v>3642</v>
+      </c>
+    </row>
+    <row r="1854" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1854" s="1" t="s">
+        <v>3643</v>
+      </c>
+      <c r="B1854" s="1" t="s">
+        <v>3644</v>
+      </c>
+    </row>
+    <row r="1855" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1855" s="1" t="s">
+        <v>3645</v>
+      </c>
+      <c r="B1855" s="1" t="s">
+        <v>3646</v>
+      </c>
+    </row>
+    <row r="1856" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1856" s="1" t="s">
+        <v>3647</v>
+      </c>
+      <c r="B1856" s="1" t="s">
+        <v>3648</v>
+      </c>
+    </row>
+    <row r="1857" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1857" s="1" t="s">
+        <v>3649</v>
+      </c>
+      <c r="B1857" s="1" t="s">
+        <v>3650</v>
+      </c>
+    </row>
+    <row r="1858" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1858" s="1" t="s">
+        <v>3651</v>
+      </c>
+      <c r="B1858" s="1" t="s">
+        <v>3652</v>
+      </c>
+    </row>
+    <row r="1859" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1859" s="1" t="s">
+        <v>3653</v>
+      </c>
+      <c r="B1859" s="1" t="s">
+        <v>3654</v>
+      </c>
+    </row>
+    <row r="1860" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1860" s="1" t="s">
+        <v>3655</v>
+      </c>
+      <c r="B1860" s="1" t="s">
+        <v>3654</v>
+      </c>
+    </row>
+    <row r="1861" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1861" s="1" t="s">
+        <v>3656</v>
+      </c>
+      <c r="B1861" s="1" t="s">
+        <v>3657</v>
+      </c>
+    </row>
+    <row r="1862" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1862" s="1" t="s">
+        <v>3658</v>
+      </c>
+      <c r="B1862" s="1" t="s">
+        <v>3659</v>
+      </c>
+    </row>
+    <row r="1863" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1863" s="1" t="s">
+        <v>3660</v>
+      </c>
+      <c r="B1863" s="1" t="s">
+        <v>3661</v>
+      </c>
+    </row>
+    <row r="1864" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1864" s="1" t="s">
+        <v>3662</v>
+      </c>
+      <c r="B1864" s="1" t="s">
+        <v>3663</v>
+      </c>
+    </row>
+    <row r="1865" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1865" s="1" t="s">
+        <v>3664</v>
+      </c>
+      <c r="B1865" s="1" t="s">
+        <v>3665</v>
+      </c>
+    </row>
+    <row r="1866" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1866" s="1" t="s">
+        <v>3666</v>
+      </c>
+      <c r="B1866" s="1" t="s">
+        <v>3667</v>
+      </c>
+    </row>
+    <row r="1867" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1867" s="1" t="s">
+        <v>3668</v>
+      </c>
+      <c r="B1867" s="1" t="s">
+        <v>3669</v>
+      </c>
+    </row>
+    <row r="1868" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1868" s="1" t="s">
+        <v>3670</v>
+      </c>
+      <c r="B1868" s="1" t="s">
+        <v>3671</v>
+      </c>
+    </row>
+    <row r="1869" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1869" s="1" t="s">
+        <v>3672</v>
+      </c>
+      <c r="B1869" s="1" t="s">
+        <v>3673</v>
+      </c>
+    </row>
+    <row r="1870" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1870" s="1" t="s">
+        <v>3674</v>
+      </c>
+      <c r="B1870" s="1" t="s">
+        <v>3675</v>
+      </c>
+    </row>
+    <row r="1871" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1871" s="1" t="s">
+        <v>3676</v>
+      </c>
+      <c r="B1871" s="1" t="s">
+        <v>3677</v>
+      </c>
+    </row>
+    <row r="1872" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1872" s="1" t="s">
+        <v>3678</v>
+      </c>
+      <c r="B1872" s="1" t="s">
+        <v>3679</v>
+      </c>
+    </row>
+    <row r="1873" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1873" s="1" t="s">
+        <v>3680</v>
+      </c>
+      <c r="B1873" s="1" t="s">
+        <v>3680</v>
+      </c>
+    </row>
+    <row r="1874" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1874" s="1" t="s">
+        <v>3681</v>
+      </c>
+      <c r="B1874" s="1" t="s">
+        <v>3682</v>
+      </c>
+    </row>
+    <row r="1875" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1875" s="1" t="s">
+        <v>3683</v>
+      </c>
+      <c r="B1875" s="1" t="s">
+        <v>3684</v>
+      </c>
+    </row>
+    <row r="1876" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1876" s="1" t="s">
+        <v>3685</v>
+      </c>
+      <c r="B1876" s="1" t="s">
+        <v>3686</v>
+      </c>
+    </row>
+    <row r="1877" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1877" s="1" t="s">
+        <v>3687</v>
+      </c>
+      <c r="B1877" s="1" t="s">
+        <v>3688</v>
+      </c>
+    </row>
+    <row r="1878" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1878" s="1" t="s">
+        <v>3689</v>
+      </c>
+      <c r="B1878" s="1" t="s">
+        <v>3690</v>
+      </c>
+    </row>
+    <row r="1879" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1879" s="1" t="s">
+        <v>3691</v>
+      </c>
+      <c r="B1879" s="1" t="s">
+        <v>3692</v>
+      </c>
+    </row>
+    <row r="1880" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1880" s="1" t="s">
+        <v>3693</v>
+      </c>
+      <c r="B1880" s="1" t="s">
+        <v>3694</v>
+      </c>
+    </row>
+    <row r="1881" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1881" s="1" t="s">
+        <v>3695</v>
+      </c>
+      <c r="B1881" s="1" t="s">
+        <v>3696</v>
+      </c>
+    </row>
+    <row r="1882" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1882" s="1" t="s">
+        <v>3697</v>
+      </c>
+      <c r="B1882" s="1" t="s">
+        <v>3698</v>
+      </c>
+    </row>
+    <row r="1883" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1883" s="1" t="s">
+        <v>3699</v>
+      </c>
+      <c r="B1883" s="1" t="s">
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="1884" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1884" s="1" t="s">
+        <v>3701</v>
+      </c>
+      <c r="B1884" s="1" t="s">
+        <v>3702</v>
+      </c>
+    </row>
+    <row r="1885" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1885" s="1" t="s">
+        <v>3703</v>
+      </c>
+      <c r="B1885" s="1" t="s">
+        <v>3704</v>
+      </c>
+    </row>
+    <row r="1886" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1886" s="1" t="s">
+        <v>3705</v>
+      </c>
+      <c r="B1886" s="1" t="s">
+        <v>3706</v>
+      </c>
+    </row>
+    <row r="1887" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1887" s="1" t="s">
+        <v>3707</v>
+      </c>
+      <c r="B1887" s="1" t="s">
+        <v>3708</v>
+      </c>
+    </row>
+    <row r="1888" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1888" s="1" t="s">
+        <v>3709</v>
+      </c>
+      <c r="B1888" s="1" t="s">
+        <v>3710</v>
+      </c>
+    </row>
+    <row r="1889" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1889" s="1" t="s">
+        <v>3711</v>
+      </c>
+      <c r="B1889" s="1" t="s">
+        <v>3712</v>
+      </c>
+    </row>
+    <row r="1890" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1890" s="1" t="s">
+        <v>3713</v>
+      </c>
+      <c r="B1890" s="1" t="s">
+        <v>3714</v>
+      </c>
+    </row>
+    <row r="1891" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1891" s="1" t="s">
+        <v>3715</v>
+      </c>
+      <c r="B1891" s="1" t="s">
+        <v>3716</v>
+      </c>
+    </row>
+    <row r="1892" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1892" s="1" t="s">
+        <v>3717</v>
+      </c>
+      <c r="B1892" s="1" t="s">
+        <v>3718</v>
+      </c>
+    </row>
+    <row r="1893" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1893" s="1" t="s">
+        <v>3719</v>
+      </c>
+      <c r="B1893" s="1" t="s">
+        <v>3720</v>
+      </c>
+    </row>
+    <row r="1894" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1894" s="1" t="s">
+        <v>3721</v>
+      </c>
+      <c r="B1894" s="1" t="s">
+        <v>3722</v>
+      </c>
+    </row>
+    <row r="1895" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1895" s="1" t="s">
+        <v>3723</v>
+      </c>
+      <c r="B1895" s="1" t="s">
+        <v>3724</v>
+      </c>
+    </row>
+    <row r="1896" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1896" s="1" t="s">
+        <v>3725</v>
+      </c>
+      <c r="B1896" s="1" t="s">
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="1897" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1897" s="1" t="s">
+        <v>3727</v>
+      </c>
+      <c r="B1897" s="1" t="s">
+        <v>3728</v>
+      </c>
+    </row>
+    <row r="1898" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1898" s="1" t="s">
+        <v>3729</v>
+      </c>
+      <c r="B1898" s="1" t="s">
+        <v>3730</v>
+      </c>
+    </row>
+    <row r="1899" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1899" s="1" t="s">
+        <v>3732</v>
+      </c>
+      <c r="B1899" s="1" t="s">
+        <v>3731</v>
+      </c>
+    </row>
+    <row r="1900" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1900" s="1" t="s">
+        <v>3733</v>
+      </c>
+      <c r="B1900" s="1" t="s">
+        <v>3734</v>
+      </c>
+    </row>
+    <row r="1901" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1901" s="1" t="s">
+        <v>3735</v>
+      </c>
+      <c r="B1901" s="1" t="s">
+        <v>3736</v>
+      </c>
+    </row>
+    <row r="1902" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1902" s="1" t="s">
+        <v>3737</v>
+      </c>
+      <c r="B1902" s="1" t="s">
+        <v>3738</v>
+      </c>
+    </row>
+    <row r="1903" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1903" s="1" t="s">
+        <v>3739</v>
+      </c>
+      <c r="B1903" s="1" t="s">
+        <v>3740</v>
+      </c>
+    </row>
+    <row r="1904" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1904" s="1" t="s">
+        <v>3741</v>
+      </c>
+      <c r="B1904" s="1" t="s">
+        <v>3742</v>
+      </c>
+    </row>
+    <row r="1905" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1905" s="1" t="s">
+        <v>3743</v>
+      </c>
+      <c r="B1905" s="1" t="s">
+        <v>3744</v>
+      </c>
+    </row>
+    <row r="1906" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1906" s="1" t="s">
+        <v>3745</v>
+      </c>
+      <c r="B1906" s="1" t="s">
+        <v>3746</v>
+      </c>
+    </row>
+    <row r="1907" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1907" s="1" t="s">
+        <v>3747</v>
+      </c>
+      <c r="B1907" s="1" t="s">
+        <v>3748</v>
+      </c>
+    </row>
+    <row r="1908" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1908" s="1" t="s">
+        <v>3749</v>
+      </c>
+      <c r="B1908" s="1" t="s">
+        <v>3750</v>
+      </c>
+    </row>
+    <row r="1909" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1909" s="1" t="s">
+        <v>3751</v>
+      </c>
+      <c r="B1909" s="1" t="s">
+        <v>3752</v>
+      </c>
+    </row>
+    <row r="1910" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1910" s="1" t="s">
+        <v>3753</v>
+      </c>
+      <c r="B1910" s="1" t="s">
+        <v>3754</v>
+      </c>
+    </row>
+    <row r="1911" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1911" s="1" t="s">
+        <v>3755</v>
+      </c>
+      <c r="B1911" s="1" t="s">
+        <v>3756</v>
+      </c>
+    </row>
+    <row r="1912" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1912" s="1" t="s">
+        <v>3757</v>
+      </c>
+      <c r="B1912" s="1" t="s">
+        <v>3758</v>
+      </c>
+    </row>
+    <row r="1913" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1913" s="1" t="s">
+        <v>3759</v>
+      </c>
+      <c r="B1913" s="1" t="s">
+        <v>3760</v>
+      </c>
+    </row>
+    <row r="1914" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1914" s="1" t="s">
+        <v>3761</v>
+      </c>
+      <c r="B1914" s="1" t="s">
+        <v>3762</v>
+      </c>
+    </row>
+    <row r="1915" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1915" s="1" t="s">
+        <v>3763</v>
+      </c>
+      <c r="B1915" s="1" t="s">
+        <v>3764</v>
+      </c>
+    </row>
+    <row r="1916" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1916" s="1" t="s">
+        <v>3765</v>
+      </c>
+      <c r="B1916" s="1" t="s">
+        <v>3766</v>
+      </c>
+    </row>
+    <row r="1917" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1917" s="1" t="s">
+        <v>3767</v>
+      </c>
+      <c r="B1917" s="1" t="s">
+        <v>3768</v>
+      </c>
+    </row>
+    <row r="1918" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1918" s="1" t="s">
+        <v>3769</v>
+      </c>
+      <c r="B1918" s="1" t="s">
+        <v>3770</v>
+      </c>
+    </row>
+    <row r="1919" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1919" s="1" t="s">
+        <v>3771</v>
+      </c>
+      <c r="B1919" s="1" t="s">
+        <v>3772</v>
+      </c>
+    </row>
+    <row r="1920" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1920" s="1" t="s">
+        <v>3773</v>
+      </c>
+      <c r="B1920" s="1" t="s">
+        <v>3774</v>
+      </c>
+    </row>
+    <row r="1921" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1921" s="1" t="s">
+        <v>3775</v>
+      </c>
+      <c r="B1921" s="1" t="s">
+        <v>3776</v>
+      </c>
+    </row>
+    <row r="1922" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1922" s="1" t="s">
+        <v>3777</v>
+      </c>
+      <c r="B1922" s="1" t="s">
+        <v>3778</v>
+      </c>
+    </row>
+    <row r="1923" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1923" s="1" t="s">
+        <v>3779</v>
+      </c>
+      <c r="B1923" s="1" t="s">
+        <v>3780</v>
+      </c>
+    </row>
+    <row r="1924" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1924" s="1" t="s">
+        <v>3781</v>
+      </c>
+      <c r="B1924" s="1" t="s">
+        <v>3782</v>
+      </c>
+    </row>
+    <row r="1925" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1925" s="1" t="s">
+        <v>3783</v>
+      </c>
+      <c r="B1925" s="1" t="s">
+        <v>3784</v>
+      </c>
+    </row>
+    <row r="1926" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1926" s="1" t="s">
+        <v>3785</v>
+      </c>
+      <c r="B1926" s="1" t="s">
+        <v>3786</v>
+      </c>
+    </row>
+    <row r="1927" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1927" s="1" t="s">
+        <v>3787</v>
+      </c>
+      <c r="B1927" s="1" t="s">
+        <v>3788</v>
+      </c>
+    </row>
+    <row r="1928" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1928" s="1" t="s">
+        <v>3789</v>
+      </c>
+      <c r="B1928" s="1" t="s">
+        <v>3790</v>
+      </c>
+    </row>
+    <row r="1929" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1929" s="1" t="s">
+        <v>3791</v>
+      </c>
+      <c r="B1929" s="1" t="s">
+        <v>3792</v>
+      </c>
+    </row>
+    <row r="1930" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1930" s="1" t="s">
+        <v>3793</v>
+      </c>
+      <c r="B1930" s="1" t="s">
+        <v>3794</v>
+      </c>
+    </row>
+    <row r="1931" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1931" s="1" t="s">
+        <v>3795</v>
+      </c>
+      <c r="B1931" s="1" t="s">
+        <v>3796</v>
+      </c>
+    </row>
+    <row r="1932" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1932" s="1" t="s">
+        <v>3797</v>
+      </c>
+      <c r="B1932" s="1" t="s">
+        <v>3798</v>
+      </c>
+    </row>
+    <row r="1933" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1933" s="1" t="s">
+        <v>3799</v>
+      </c>
+      <c r="B1933" s="1" t="s">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="1934" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1934" s="1" t="s">
+        <v>3801</v>
+      </c>
+      <c r="B1934" s="1" t="s">
+        <v>3802</v>
+      </c>
+    </row>
+    <row r="1935" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1935" s="1" t="s">
+        <v>3803</v>
+      </c>
+      <c r="B1935" s="1" t="s">
+        <v>3804</v>
+      </c>
+    </row>
+    <row r="1936" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1936" s="1" t="s">
+        <v>3805</v>
+      </c>
+      <c r="B1936" s="1" t="s">
+        <v>3806</v>
+      </c>
+    </row>
+    <row r="1937" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1937" s="1" t="s">
+        <v>3807</v>
+      </c>
+      <c r="B1937" s="1" t="s">
+        <v>3808</v>
+      </c>
+    </row>
+    <row r="1938" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1938" s="1" t="s">
+        <v>3809</v>
+      </c>
+      <c r="B1938" s="1" t="s">
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="1939" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1939" s="1" t="s">
+        <v>3811</v>
+      </c>
+      <c r="B1939" s="1" t="s">
+        <v>3812</v>
+      </c>
+    </row>
+    <row r="1940" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1940" s="1" t="s">
+        <v>3813</v>
+      </c>
+      <c r="B1940" s="1" t="s">
+        <v>3814</v>
+      </c>
+    </row>
+    <row r="1941" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1941" s="1" t="s">
+        <v>3815</v>
+      </c>
+      <c r="B1941" s="1" t="s">
+        <v>3816</v>
+      </c>
+    </row>
+    <row r="1942" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1942" s="1" t="s">
+        <v>3817</v>
+      </c>
+      <c r="B1942" s="1" t="s">
+        <v>3818</v>
+      </c>
+    </row>
+    <row r="1943" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1943" s="1" t="s">
+        <v>3819</v>
+      </c>
+      <c r="B1943" s="1" t="s">
+        <v>3820</v>
+      </c>
+    </row>
+    <row r="1944" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1944" s="1" t="s">
+        <v>3821</v>
+      </c>
+      <c r="B1944" s="1" t="s">
+        <v>3822</v>
+      </c>
+    </row>
+    <row r="1945" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1945" s="1" t="s">
+        <v>3823</v>
+      </c>
+      <c r="B1945" s="1" t="s">
+        <v>3824</v>
+      </c>
+    </row>
+    <row r="1946" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1946" s="1" t="s">
+        <v>3825</v>
+      </c>
+      <c r="B1946" s="1" t="s">
+        <v>3826</v>
+      </c>
+    </row>
+    <row r="1947" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1947" s="1" t="s">
+        <v>3827</v>
+      </c>
+      <c r="B1947" s="1" t="s">
+        <v>3828</v>
+      </c>
+    </row>
+    <row r="1948" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1948" s="1" t="s">
+        <v>3829</v>
+      </c>
+      <c r="B1948" s="1" t="s">
+        <v>3830</v>
+      </c>
+    </row>
+    <row r="1949" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1949" s="1" t="s">
+        <v>3831</v>
+      </c>
+      <c r="B1949" s="1" t="s">
+        <v>3832</v>
+      </c>
+    </row>
+    <row r="1950" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1950" s="1" t="s">
+        <v>3833</v>
+      </c>
+      <c r="B1950" s="1" t="s">
+        <v>3834</v>
+      </c>
+    </row>
+    <row r="1951" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1951" s="1" t="s">
+        <v>3835</v>
+      </c>
+      <c r="B1951" s="1" t="s">
+        <v>3836</v>
+      </c>
+    </row>
+    <row r="1952" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1952" s="1" t="s">
+        <v>3837</v>
+      </c>
+      <c r="B1952" s="1" t="s">
+        <v>3838</v>
+      </c>
+    </row>
+    <row r="1953" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1953" s="1" t="s">
+        <v>3839</v>
+      </c>
+      <c r="B1953" s="1" t="s">
+        <v>3840</v>
+      </c>
+    </row>
+    <row r="1954" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1954" s="1" t="s">
+        <v>3841</v>
+      </c>
+      <c r="B1954" s="1" t="s">
+        <v>3842</v>
+      </c>
+    </row>
+    <row r="1955" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1955" s="1" t="s">
+        <v>3843</v>
+      </c>
+      <c r="B1955" s="1" t="s">
+        <v>3844</v>
+      </c>
+    </row>
+    <row r="1956" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1956" s="1" t="s">
+        <v>3845</v>
+      </c>
+      <c r="B1956" s="1" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="1957" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1957" s="1" t="s">
+        <v>3847</v>
+      </c>
+      <c r="B1957" s="1" t="s">
+        <v>3848</v>
+      </c>
+    </row>
+    <row r="1958" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1958" s="1" t="s">
+        <v>3849</v>
+      </c>
+      <c r="B1958" s="1" t="s">
+        <v>3850</v>
+      </c>
+    </row>
+    <row r="1959" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1959" s="1" t="s">
+        <v>3851</v>
+      </c>
+      <c r="B1959" s="1" t="s">
+        <v>3852</v>
+      </c>
+    </row>
+    <row r="1960" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1960" s="1" t="s">
+        <v>3853</v>
+      </c>
+      <c r="B1960" s="1" t="s">
+        <v>3854</v>
+      </c>
+    </row>
+    <row r="1961" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1961" s="1" t="s">
+        <v>3855</v>
+      </c>
+      <c r="B1961" s="1" t="s">
+        <v>3856</v>
+      </c>
+    </row>
+    <row r="1962" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1962" s="1" t="s">
+        <v>3857</v>
+      </c>
+      <c r="B1962" s="1" t="s">
+        <v>3858</v>
+      </c>
+    </row>
+    <row r="1963" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1963" s="1" t="s">
+        <v>3859</v>
+      </c>
+      <c r="B1963" s="1" t="s">
+        <v>3860</v>
+      </c>
+    </row>
+    <row r="1964" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1964" s="1" t="s">
+        <v>3861</v>
+      </c>
+      <c r="B1964" s="1" t="s">
+        <v>3862</v>
+      </c>
+    </row>
+    <row r="1965" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1965" s="1" t="s">
+        <v>3863</v>
+      </c>
+      <c r="B1965" s="1" t="s">
+        <v>3864</v>
+      </c>
+    </row>
+    <row r="1966" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1966" s="1" t="s">
+        <v>3865</v>
+      </c>
+      <c r="B1966" s="1" t="s">
+        <v>3866</v>
+      </c>
+    </row>
+    <row r="1967" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1967" s="1" t="s">
+        <v>3867</v>
+      </c>
+      <c r="B1967" s="1" t="s">
+        <v>3868</v>
+      </c>
+    </row>
+    <row r="1968" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1968" s="1" t="s">
+        <v>3869</v>
+      </c>
+      <c r="B1968" s="1" t="s">
+        <v>3870</v>
+      </c>
+    </row>
+    <row r="1969" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1969" s="1" t="s">
+        <v>3871</v>
+      </c>
+      <c r="B1969" s="1" t="s">
+        <v>3872</v>
+      </c>
+    </row>
+    <row r="1970" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1970" s="1" t="s">
+        <v>3873</v>
+      </c>
+      <c r="B1970" s="1" t="s">
+        <v>3874</v>
+      </c>
+    </row>
+    <row r="1971" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1971" s="1" t="s">
+        <v>3875</v>
+      </c>
+      <c r="B1971" s="1" t="s">
+        <v>3876</v>
+      </c>
+    </row>
+    <row r="1972" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1972" s="1" t="s">
+        <v>3877</v>
+      </c>
+      <c r="B1972" s="1" t="s">
+        <v>3878</v>
+      </c>
+    </row>
+    <row r="1973" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1973" s="1" t="s">
+        <v>3879</v>
+      </c>
+      <c r="B1973" s="1" t="s">
+        <v>3880</v>
+      </c>
+    </row>
+    <row r="1974" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1974" s="1" t="s">
+        <v>3881</v>
+      </c>
+      <c r="B1974" s="1" t="s">
+        <v>3882</v>
+      </c>
+    </row>
+    <row r="1975" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1975" s="1" t="s">
+        <v>3883</v>
+      </c>
+      <c r="B1975" s="1" t="s">
+        <v>3884</v>
+      </c>
+    </row>
+    <row r="1976" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1976" s="1" t="s">
+        <v>3885</v>
+      </c>
+      <c r="B1976" s="1" t="s">
+        <v>3886</v>
+      </c>
+    </row>
+    <row r="1977" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1977" s="1" t="s">
+        <v>3887</v>
+      </c>
+      <c r="B1977" s="1" t="s">
+        <v>3888</v>
+      </c>
+    </row>
+    <row r="1978" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1978" s="1" t="s">
+        <v>3889</v>
+      </c>
+      <c r="B1978" s="1" t="s">
+        <v>3890</v>
+      </c>
+    </row>
+    <row r="1979" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1979" s="1" t="s">
+        <v>3891</v>
+      </c>
+      <c r="B1979" s="1" t="s">
+        <v>3892</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
